--- a/Dグループ_テーブル定義書.xlsx
+++ b/Dグループ_テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\GIT\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5FF56C-11EE-4FA4-9CDC-37C36AD2EE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062721D2-2A9F-4F64-B87E-56053BBD9FBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="859" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="18000" windowHeight="9360" tabRatio="859" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="223">
   <si>
     <t>テーブル定義書</t>
     <rPh sb="4" eb="7">
@@ -992,6 +992,19 @@
     </rPh>
     <phoneticPr fontId="23"/>
   </si>
+  <si>
+    <t>1が削除されていない状態、２が削除されている</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
@@ -1000,7 +1013,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1244,6 +1257,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2489,7 +2510,7 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2731,6 +2752,51 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="92" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="93" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="94" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="95" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="95" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2776,6 +2842,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2800,30 +2914,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2857,29 +2947,89 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="86" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="84" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="84" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="85" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="87" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="32" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="44" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="46" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="63" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2926,54 +3076,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="44" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="46" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="32" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="82" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2995,86 +3097,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="84" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="84" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="85" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="86" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="87" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="92" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="93" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="94" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="95" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="95" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="42" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -4178,34 +4202,34 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="N11" s="85" t="s">
+      <c r="N11" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="86"/>
-      <c r="AJ11" s="86"/>
-      <c r="AK11" s="86"/>
-      <c r="AL11" s="86"/>
-      <c r="AM11" s="87"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="101"/>
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="101"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="101"/>
+      <c r="AE11" s="101"/>
+      <c r="AF11" s="101"/>
+      <c r="AG11" s="101"/>
+      <c r="AH11" s="101"/>
+      <c r="AI11" s="101"/>
+      <c r="AJ11" s="101"/>
+      <c r="AK11" s="101"/>
+      <c r="AL11" s="101"/>
+      <c r="AM11" s="102"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -4241,32 +4265,32 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="89"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="89"/>
-      <c r="AI12" s="89"/>
-      <c r="AJ12" s="89"/>
-      <c r="AK12" s="89"/>
-      <c r="AL12" s="89"/>
-      <c r="AM12" s="90"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="104"/>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="104"/>
+      <c r="AA12" s="104"/>
+      <c r="AB12" s="104"/>
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="104"/>
+      <c r="AF12" s="104"/>
+      <c r="AG12" s="104"/>
+      <c r="AH12" s="104"/>
+      <c r="AI12" s="104"/>
+      <c r="AJ12" s="104"/>
+      <c r="AK12" s="104"/>
+      <c r="AL12" s="104"/>
+      <c r="AM12" s="105"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
@@ -4302,32 +4326,32 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="89"/>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="89"/>
-      <c r="AH13" s="89"/>
-      <c r="AI13" s="89"/>
-      <c r="AJ13" s="89"/>
-      <c r="AK13" s="89"/>
-      <c r="AL13" s="89"/>
-      <c r="AM13" s="90"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="104"/>
+      <c r="AB13" s="104"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="104"/>
+      <c r="AF13" s="104"/>
+      <c r="AG13" s="104"/>
+      <c r="AH13" s="104"/>
+      <c r="AI13" s="104"/>
+      <c r="AJ13" s="104"/>
+      <c r="AK13" s="104"/>
+      <c r="AL13" s="104"/>
+      <c r="AM13" s="105"/>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
@@ -4363,32 +4387,32 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="89"/>
-      <c r="AE14" s="89"/>
-      <c r="AF14" s="89"/>
-      <c r="AG14" s="89"/>
-      <c r="AH14" s="89"/>
-      <c r="AI14" s="89"/>
-      <c r="AJ14" s="89"/>
-      <c r="AK14" s="89"/>
-      <c r="AL14" s="89"/>
-      <c r="AM14" s="90"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="104"/>
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="104"/>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="104"/>
+      <c r="AE14" s="104"/>
+      <c r="AF14" s="104"/>
+      <c r="AG14" s="104"/>
+      <c r="AH14" s="104"/>
+      <c r="AI14" s="104"/>
+      <c r="AJ14" s="104"/>
+      <c r="AK14" s="104"/>
+      <c r="AL14" s="104"/>
+      <c r="AM14" s="105"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -4424,32 +4448,32 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="89"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="89"/>
-      <c r="AF15" s="89"/>
-      <c r="AG15" s="89"/>
-      <c r="AH15" s="89"/>
-      <c r="AI15" s="89"/>
-      <c r="AJ15" s="89"/>
-      <c r="AK15" s="89"/>
-      <c r="AL15" s="89"/>
-      <c r="AM15" s="90"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="104"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="104"/>
+      <c r="AF15" s="104"/>
+      <c r="AG15" s="104"/>
+      <c r="AH15" s="104"/>
+      <c r="AI15" s="104"/>
+      <c r="AJ15" s="104"/>
+      <c r="AK15" s="104"/>
+      <c r="AL15" s="104"/>
+      <c r="AM15" s="105"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
@@ -4485,32 +4509,32 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="89"/>
-      <c r="AB16" s="89"/>
-      <c r="AC16" s="89"/>
-      <c r="AD16" s="89"/>
-      <c r="AE16" s="89"/>
-      <c r="AF16" s="89"/>
-      <c r="AG16" s="89"/>
-      <c r="AH16" s="89"/>
-      <c r="AI16" s="89"/>
-      <c r="AJ16" s="89"/>
-      <c r="AK16" s="89"/>
-      <c r="AL16" s="89"/>
-      <c r="AM16" s="90"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="104"/>
+      <c r="AA16" s="104"/>
+      <c r="AB16" s="104"/>
+      <c r="AC16" s="104"/>
+      <c r="AD16" s="104"/>
+      <c r="AE16" s="104"/>
+      <c r="AF16" s="104"/>
+      <c r="AG16" s="104"/>
+      <c r="AH16" s="104"/>
+      <c r="AI16" s="104"/>
+      <c r="AJ16" s="104"/>
+      <c r="AK16" s="104"/>
+      <c r="AL16" s="104"/>
+      <c r="AM16" s="105"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
@@ -4546,32 +4570,32 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="89"/>
-      <c r="AD17" s="89"/>
-      <c r="AE17" s="89"/>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="89"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="89"/>
-      <c r="AJ17" s="89"/>
-      <c r="AK17" s="89"/>
-      <c r="AL17" s="89"/>
-      <c r="AM17" s="90"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="104"/>
+      <c r="AC17" s="104"/>
+      <c r="AD17" s="104"/>
+      <c r="AE17" s="104"/>
+      <c r="AF17" s="104"/>
+      <c r="AG17" s="104"/>
+      <c r="AH17" s="104"/>
+      <c r="AI17" s="104"/>
+      <c r="AJ17" s="104"/>
+      <c r="AK17" s="104"/>
+      <c r="AL17" s="104"/>
+      <c r="AM17" s="105"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -4607,32 +4631,32 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="90"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="104"/>
+      <c r="AD18" s="104"/>
+      <c r="AE18" s="104"/>
+      <c r="AF18" s="104"/>
+      <c r="AG18" s="104"/>
+      <c r="AH18" s="104"/>
+      <c r="AI18" s="104"/>
+      <c r="AJ18" s="104"/>
+      <c r="AK18" s="104"/>
+      <c r="AL18" s="104"/>
+      <c r="AM18" s="105"/>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
@@ -4668,32 +4692,32 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="89"/>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="89"/>
-      <c r="AH19" s="89"/>
-      <c r="AI19" s="89"/>
-      <c r="AJ19" s="89"/>
-      <c r="AK19" s="89"/>
-      <c r="AL19" s="89"/>
-      <c r="AM19" s="90"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="104"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="104"/>
+      <c r="X19" s="104"/>
+      <c r="Y19" s="104"/>
+      <c r="Z19" s="104"/>
+      <c r="AA19" s="104"/>
+      <c r="AB19" s="104"/>
+      <c r="AC19" s="104"/>
+      <c r="AD19" s="104"/>
+      <c r="AE19" s="104"/>
+      <c r="AF19" s="104"/>
+      <c r="AG19" s="104"/>
+      <c r="AH19" s="104"/>
+      <c r="AI19" s="104"/>
+      <c r="AJ19" s="104"/>
+      <c r="AK19" s="104"/>
+      <c r="AL19" s="104"/>
+      <c r="AM19" s="105"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -4729,32 +4753,32 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="89"/>
-      <c r="AD20" s="89"/>
-      <c r="AE20" s="89"/>
-      <c r="AF20" s="89"/>
-      <c r="AG20" s="89"/>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="89"/>
-      <c r="AJ20" s="89"/>
-      <c r="AK20" s="89"/>
-      <c r="AL20" s="89"/>
-      <c r="AM20" s="90"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="104"/>
+      <c r="Y20" s="104"/>
+      <c r="Z20" s="104"/>
+      <c r="AA20" s="104"/>
+      <c r="AB20" s="104"/>
+      <c r="AC20" s="104"/>
+      <c r="AD20" s="104"/>
+      <c r="AE20" s="104"/>
+      <c r="AF20" s="104"/>
+      <c r="AG20" s="104"/>
+      <c r="AH20" s="104"/>
+      <c r="AI20" s="104"/>
+      <c r="AJ20" s="104"/>
+      <c r="AK20" s="104"/>
+      <c r="AL20" s="104"/>
+      <c r="AM20" s="105"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
@@ -4790,32 +4814,32 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="89"/>
-      <c r="AE21" s="89"/>
-      <c r="AF21" s="89"/>
-      <c r="AG21" s="89"/>
-      <c r="AH21" s="89"/>
-      <c r="AI21" s="89"/>
-      <c r="AJ21" s="89"/>
-      <c r="AK21" s="89"/>
-      <c r="AL21" s="89"/>
-      <c r="AM21" s="90"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="104"/>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="104"/>
+      <c r="AB21" s="104"/>
+      <c r="AC21" s="104"/>
+      <c r="AD21" s="104"/>
+      <c r="AE21" s="104"/>
+      <c r="AF21" s="104"/>
+      <c r="AG21" s="104"/>
+      <c r="AH21" s="104"/>
+      <c r="AI21" s="104"/>
+      <c r="AJ21" s="104"/>
+      <c r="AK21" s="104"/>
+      <c r="AL21" s="104"/>
+      <c r="AM21" s="105"/>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
@@ -4851,32 +4875,32 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="92"/>
-      <c r="W22" s="92"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="92"/>
-      <c r="Z22" s="92"/>
-      <c r="AA22" s="92"/>
-      <c r="AB22" s="92"/>
-      <c r="AC22" s="92"/>
-      <c r="AD22" s="92"/>
-      <c r="AE22" s="92"/>
-      <c r="AF22" s="92"/>
-      <c r="AG22" s="92"/>
-      <c r="AH22" s="92"/>
-      <c r="AI22" s="92"/>
-      <c r="AJ22" s="92"/>
-      <c r="AK22" s="92"/>
-      <c r="AL22" s="92"/>
-      <c r="AM22" s="93"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="107"/>
+      <c r="X22" s="107"/>
+      <c r="Y22" s="107"/>
+      <c r="Z22" s="107"/>
+      <c r="AA22" s="107"/>
+      <c r="AB22" s="107"/>
+      <c r="AC22" s="107"/>
+      <c r="AD22" s="107"/>
+      <c r="AE22" s="107"/>
+      <c r="AF22" s="107"/>
+      <c r="AG22" s="107"/>
+      <c r="AH22" s="107"/>
+      <c r="AI22" s="107"/>
+      <c r="AJ22" s="107"/>
+      <c r="AK22" s="107"/>
+      <c r="AL22" s="107"/>
+      <c r="AM22" s="108"/>
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
@@ -5619,27 +5643,27 @@
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
-      <c r="AI37" s="94" t="s">
+      <c r="AI37" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AJ37" s="94"/>
-      <c r="AK37" s="94"/>
-      <c r="AL37" s="94"/>
-      <c r="AM37" s="94"/>
-      <c r="AN37" s="96">
+      <c r="AJ37" s="109"/>
+      <c r="AK37" s="109"/>
+      <c r="AL37" s="109"/>
+      <c r="AM37" s="109"/>
+      <c r="AN37" s="111">
         <v>43997</v>
       </c>
-      <c r="AO37" s="96"/>
-      <c r="AP37" s="96"/>
-      <c r="AQ37" s="96"/>
-      <c r="AR37" s="96"/>
-      <c r="AS37" s="96"/>
-      <c r="AT37" s="96"/>
-      <c r="AU37" s="96"/>
-      <c r="AV37" s="96"/>
-      <c r="AW37" s="96"/>
-      <c r="AX37" s="96"/>
-      <c r="AY37" s="96"/>
+      <c r="AO37" s="111"/>
+      <c r="AP37" s="111"/>
+      <c r="AQ37" s="111"/>
+      <c r="AR37" s="111"/>
+      <c r="AS37" s="111"/>
+      <c r="AT37" s="111"/>
+      <c r="AU37" s="111"/>
+      <c r="AV37" s="111"/>
+      <c r="AW37" s="111"/>
+      <c r="AX37" s="111"/>
+      <c r="AY37" s="111"/>
       <c r="AZ37" s="2"/>
       <c r="BA37" s="2"/>
       <c r="BB37" s="2"/>
@@ -5676,23 +5700,23 @@
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
-      <c r="AI38" s="95"/>
-      <c r="AJ38" s="95"/>
-      <c r="AK38" s="95"/>
-      <c r="AL38" s="95"/>
-      <c r="AM38" s="95"/>
-      <c r="AN38" s="97"/>
-      <c r="AO38" s="97"/>
-      <c r="AP38" s="97"/>
-      <c r="AQ38" s="97"/>
-      <c r="AR38" s="97"/>
-      <c r="AS38" s="97"/>
-      <c r="AT38" s="97"/>
-      <c r="AU38" s="97"/>
-      <c r="AV38" s="97"/>
-      <c r="AW38" s="97"/>
-      <c r="AX38" s="97"/>
-      <c r="AY38" s="97"/>
+      <c r="AI38" s="110"/>
+      <c r="AJ38" s="110"/>
+      <c r="AK38" s="110"/>
+      <c r="AL38" s="110"/>
+      <c r="AM38" s="110"/>
+      <c r="AN38" s="112"/>
+      <c r="AO38" s="112"/>
+      <c r="AP38" s="112"/>
+      <c r="AQ38" s="112"/>
+      <c r="AR38" s="112"/>
+      <c r="AS38" s="112"/>
+      <c r="AT38" s="112"/>
+      <c r="AU38" s="112"/>
+      <c r="AV38" s="112"/>
+      <c r="AW38" s="112"/>
+      <c r="AX38" s="112"/>
+      <c r="AY38" s="112"/>
       <c r="AZ38" s="2"/>
       <c r="BA38" s="2"/>
       <c r="BB38" s="2"/>
@@ -5729,27 +5753,27 @@
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
-      <c r="AI39" s="95" t="s">
+      <c r="AI39" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="AJ39" s="95"/>
-      <c r="AK39" s="95"/>
-      <c r="AL39" s="95"/>
-      <c r="AM39" s="95"/>
-      <c r="AN39" s="98" t="s">
+      <c r="AJ39" s="110"/>
+      <c r="AK39" s="110"/>
+      <c r="AL39" s="110"/>
+      <c r="AM39" s="110"/>
+      <c r="AN39" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="AO39" s="99"/>
-      <c r="AP39" s="99"/>
-      <c r="AQ39" s="99"/>
-      <c r="AR39" s="99"/>
-      <c r="AS39" s="99"/>
-      <c r="AT39" s="99"/>
-      <c r="AU39" s="99"/>
-      <c r="AV39" s="99"/>
-      <c r="AW39" s="99"/>
-      <c r="AX39" s="99"/>
-      <c r="AY39" s="99"/>
+      <c r="AO39" s="114"/>
+      <c r="AP39" s="114"/>
+      <c r="AQ39" s="114"/>
+      <c r="AR39" s="114"/>
+      <c r="AS39" s="114"/>
+      <c r="AT39" s="114"/>
+      <c r="AU39" s="114"/>
+      <c r="AV39" s="114"/>
+      <c r="AW39" s="114"/>
+      <c r="AX39" s="114"/>
+      <c r="AY39" s="114"/>
       <c r="AZ39" s="2"/>
       <c r="BA39" s="2"/>
       <c r="BB39" s="2"/>
@@ -5786,23 +5810,23 @@
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
-      <c r="AI40" s="95"/>
-      <c r="AJ40" s="95"/>
-      <c r="AK40" s="95"/>
-      <c r="AL40" s="95"/>
-      <c r="AM40" s="95"/>
-      <c r="AN40" s="99"/>
-      <c r="AO40" s="99"/>
-      <c r="AP40" s="99"/>
-      <c r="AQ40" s="99"/>
-      <c r="AR40" s="99"/>
-      <c r="AS40" s="99"/>
-      <c r="AT40" s="99"/>
-      <c r="AU40" s="99"/>
-      <c r="AV40" s="99"/>
-      <c r="AW40" s="99"/>
-      <c r="AX40" s="99"/>
-      <c r="AY40" s="99"/>
+      <c r="AI40" s="110"/>
+      <c r="AJ40" s="110"/>
+      <c r="AK40" s="110"/>
+      <c r="AL40" s="110"/>
+      <c r="AM40" s="110"/>
+      <c r="AN40" s="114"/>
+      <c r="AO40" s="114"/>
+      <c r="AP40" s="114"/>
+      <c r="AQ40" s="114"/>
+      <c r="AR40" s="114"/>
+      <c r="AS40" s="114"/>
+      <c r="AT40" s="114"/>
+      <c r="AU40" s="114"/>
+      <c r="AV40" s="114"/>
+      <c r="AW40" s="114"/>
+      <c r="AX40" s="114"/>
+      <c r="AY40" s="114"/>
       <c r="AZ40" s="2"/>
       <c r="BA40" s="2"/>
       <c r="BB40" s="2"/>
@@ -5921,107 +5945,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="163" t="s">
+      <c r="F2" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="165"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="152"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="151"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="152"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="174"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="151"/>
+      <c r="D5" s="173"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="150" t="s">
+      <c r="F5" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="152"/>
+      <c r="G5" s="174"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="172" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="151"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="152"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="174"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="155"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="158"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="159"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="158"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="160"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="168"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -6222,10 +6246,10 @@
       <c r="B23" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="137" t="s">
+      <c r="C23" s="180" t="s">
         <v>168</v>
       </c>
-      <c r="D23" s="138"/>
+      <c r="D23" s="181"/>
       <c r="E23" s="67" t="s">
         <v>53</v>
       </c>
@@ -6266,12 +6290,12 @@
       <c r="C27" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="139" t="s">
+      <c r="D27" s="182" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="141"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="184"/>
     </row>
     <row r="28" spans="1:7" ht="19.5" thickBot="1">
       <c r="A28" s="60">
@@ -6283,12 +6307,12 @@
       <c r="C28" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="135" t="s">
+      <c r="D28" s="178" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="143"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="186"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" thickBot="1">
       <c r="A30" s="46" t="s">
@@ -6306,10 +6330,10 @@
         <v>50</v>
       </c>
       <c r="D31" s="65"/>
-      <c r="E31" s="146" t="s">
+      <c r="E31" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="147"/>
+      <c r="F31" s="190"/>
       <c r="G31" s="55" t="s">
         <v>63</v>
       </c>
@@ -6321,14 +6345,14 @@
       <c r="B32" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="C32" s="148" t="s">
+      <c r="C32" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="149"/>
-      <c r="E32" s="148" t="s">
+      <c r="D32" s="192"/>
+      <c r="E32" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="149"/>
+      <c r="F32" s="192"/>
       <c r="G32" s="76" t="s">
         <v>76</v>
       </c>
@@ -6340,14 +6364,14 @@
       <c r="B33" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="C33" s="168" t="s">
+      <c r="C33" s="195" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="169"/>
-      <c r="E33" s="168" t="s">
+      <c r="D33" s="196"/>
+      <c r="E33" s="195" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="169"/>
+      <c r="F33" s="196"/>
       <c r="G33" s="84" t="s">
         <v>153</v>
       </c>
@@ -6359,14 +6383,14 @@
       <c r="B34" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="135" t="s">
+      <c r="C34" s="178" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="136"/>
-      <c r="E34" s="135" t="s">
+      <c r="D34" s="179"/>
+      <c r="E34" s="178" t="s">
         <v>142</v>
       </c>
-      <c r="F34" s="136"/>
+      <c r="F34" s="179"/>
       <c r="G34" s="77" t="s">
         <v>139</v>
       </c>
@@ -6387,16 +6411,27 @@
         <v>50</v>
       </c>
       <c r="D37" s="74"/>
-      <c r="E37" s="144" t="s">
+      <c r="E37" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="145"/>
+      <c r="F37" s="188"/>
       <c r="G37" s="75" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -6409,17 +6444,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E37:F37"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6438,8 +6462,8 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6461,107 +6485,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="163" t="s">
+      <c r="F2" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="165"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="152"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="151"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="152"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="174"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="151"/>
+      <c r="D5" s="173"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="150" t="s">
+      <c r="F5" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="152"/>
+      <c r="G5" s="174"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="172" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="151"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="152"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="174"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="155"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="158"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="159"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="158"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="160"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="168"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -6794,8 +6818,8 @@
       <c r="F22" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="63" t="s">
-        <v>35</v>
+      <c r="G22" s="200" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" thickBot="1">
@@ -6831,10 +6855,10 @@
       <c r="B26" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="139" t="s">
+      <c r="C26" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="170"/>
+      <c r="D26" s="197"/>
       <c r="E26" s="57" t="s">
         <v>53</v>
       </c>
@@ -6850,10 +6874,10 @@
       <c r="B27" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="135" t="s">
+      <c r="C27" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="136"/>
+      <c r="D27" s="179"/>
       <c r="E27" s="61"/>
       <c r="F27" s="61" t="s">
         <v>84</v>
@@ -6892,12 +6916,12 @@
       <c r="C31" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="139" t="s">
+      <c r="D31" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="141"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="184"/>
     </row>
     <row r="32" spans="1:7" ht="18.75">
       <c r="A32" s="78">
@@ -6909,12 +6933,12 @@
       <c r="C32" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="168" t="s">
+      <c r="D32" s="195" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="172"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="199"/>
     </row>
     <row r="33" spans="1:7" ht="19.5" thickBot="1">
       <c r="A33" s="60">
@@ -6926,12 +6950,12 @@
       <c r="C33" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="135" t="s">
+      <c r="D33" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="143"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="185"/>
+      <c r="G33" s="186"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" thickBot="1">
       <c r="A35" s="46" t="s">
@@ -6949,10 +6973,10 @@
         <v>50</v>
       </c>
       <c r="D36" s="65"/>
-      <c r="E36" s="146" t="s">
+      <c r="E36" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="147"/>
+      <c r="F36" s="190"/>
       <c r="G36" s="55" t="s">
         <v>63</v>
       </c>
@@ -6964,14 +6988,14 @@
       <c r="B37" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="166" t="s">
+      <c r="C37" s="193" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="167"/>
-      <c r="E37" s="166" t="s">
+      <c r="D37" s="194"/>
+      <c r="E37" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="167"/>
+      <c r="F37" s="194"/>
       <c r="G37" s="68" t="s">
         <v>73</v>
       </c>
@@ -6992,10 +7016,10 @@
         <v>50</v>
       </c>
       <c r="D40" s="65"/>
-      <c r="E40" s="146" t="s">
+      <c r="E40" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="147"/>
+      <c r="F40" s="190"/>
       <c r="G40" s="55" t="s">
         <v>66</v>
       </c>
@@ -7007,14 +7031,14 @@
       <c r="B41" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="148" t="s">
+      <c r="C41" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="148" t="s">
+      <c r="D41" s="192"/>
+      <c r="E41" s="191" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="149"/>
+      <c r="F41" s="192"/>
       <c r="G41" s="76" t="s">
         <v>76</v>
       </c>
@@ -7026,32 +7050,20 @@
       <c r="B42" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="135" t="s">
+      <c r="C42" s="178" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="136"/>
-      <c r="E42" s="135" t="s">
+      <c r="D42" s="179"/>
+      <c r="E42" s="178" t="s">
         <v>149</v>
       </c>
-      <c r="F42" s="136"/>
+      <c r="F42" s="179"/>
       <c r="G42" s="77" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="C26:D26"/>
@@ -7065,6 +7077,18 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8964,194 +8988,194 @@
   <sheetData>
     <row r="1" spans="2:52" ht="3" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:52" ht="13.5" customHeight="1" thickTop="1">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="117"/>
-      <c r="AD2" s="117"/>
-      <c r="AE2" s="117"/>
-      <c r="AF2" s="117"/>
-      <c r="AG2" s="117"/>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="117"/>
-      <c r="AJ2" s="117"/>
-      <c r="AK2" s="117"/>
-      <c r="AL2" s="117"/>
-      <c r="AM2" s="117"/>
-      <c r="AN2" s="117"/>
-      <c r="AO2" s="117"/>
-      <c r="AP2" s="117"/>
-      <c r="AQ2" s="117"/>
-      <c r="AR2" s="117"/>
-      <c r="AS2" s="117"/>
-      <c r="AT2" s="117"/>
-      <c r="AU2" s="117"/>
-      <c r="AV2" s="117"/>
-      <c r="AW2" s="117"/>
-      <c r="AX2" s="117"/>
-      <c r="AY2" s="117"/>
-      <c r="AZ2" s="118"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="140"/>
+      <c r="AE2" s="140"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
+      <c r="AJ2" s="140"/>
+      <c r="AK2" s="140"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="140"/>
+      <c r="AS2" s="140"/>
+      <c r="AT2" s="140"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="140"/>
+      <c r="AW2" s="140"/>
+      <c r="AX2" s="140"/>
+      <c r="AY2" s="140"/>
+      <c r="AZ2" s="141"/>
     </row>
     <row r="3" spans="2:52" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="119"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="120"/>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="120"/>
-      <c r="AG3" s="120"/>
-      <c r="AH3" s="120"/>
-      <c r="AI3" s="120"/>
-      <c r="AJ3" s="120"/>
-      <c r="AK3" s="120"/>
-      <c r="AL3" s="120"/>
-      <c r="AM3" s="120"/>
-      <c r="AN3" s="120"/>
-      <c r="AO3" s="120"/>
-      <c r="AP3" s="120"/>
-      <c r="AQ3" s="120"/>
-      <c r="AR3" s="120"/>
-      <c r="AS3" s="120"/>
-      <c r="AT3" s="120"/>
-      <c r="AU3" s="120"/>
-      <c r="AV3" s="120"/>
-      <c r="AW3" s="120"/>
-      <c r="AX3" s="120"/>
-      <c r="AY3" s="120"/>
-      <c r="AZ3" s="121"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="143"/>
+      <c r="W3" s="143"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="143"/>
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="143"/>
+      <c r="AI3" s="143"/>
+      <c r="AJ3" s="143"/>
+      <c r="AK3" s="143"/>
+      <c r="AL3" s="143"/>
+      <c r="AM3" s="143"/>
+      <c r="AN3" s="143"/>
+      <c r="AO3" s="143"/>
+      <c r="AP3" s="143"/>
+      <c r="AQ3" s="143"/>
+      <c r="AR3" s="143"/>
+      <c r="AS3" s="143"/>
+      <c r="AT3" s="143"/>
+      <c r="AU3" s="143"/>
+      <c r="AV3" s="143"/>
+      <c r="AW3" s="143"/>
+      <c r="AX3" s="143"/>
+      <c r="AY3" s="143"/>
+      <c r="AZ3" s="144"/>
     </row>
     <row r="5" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="124" t="s">
+      <c r="C5" s="146"/>
+      <c r="D5" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="124" t="s">
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="124" t="s">
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
-      <c r="U5" s="126"/>
-      <c r="V5" s="124" t="s">
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="148"/>
+      <c r="T5" s="148"/>
+      <c r="U5" s="149"/>
+      <c r="V5" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="125"/>
-      <c r="X5" s="125"/>
-      <c r="Y5" s="125"/>
-      <c r="Z5" s="125"/>
-      <c r="AA5" s="125"/>
-      <c r="AB5" s="125"/>
-      <c r="AC5" s="125"/>
-      <c r="AD5" s="125"/>
-      <c r="AE5" s="125"/>
-      <c r="AF5" s="125"/>
-      <c r="AG5" s="125"/>
-      <c r="AH5" s="125"/>
-      <c r="AI5" s="125"/>
-      <c r="AJ5" s="125"/>
-      <c r="AK5" s="125"/>
-      <c r="AL5" s="125"/>
-      <c r="AM5" s="125"/>
-      <c r="AN5" s="125"/>
-      <c r="AO5" s="125"/>
-      <c r="AP5" s="125"/>
-      <c r="AQ5" s="125"/>
-      <c r="AR5" s="125"/>
-      <c r="AS5" s="125"/>
-      <c r="AT5" s="125"/>
-      <c r="AU5" s="125"/>
-      <c r="AV5" s="125"/>
-      <c r="AW5" s="125"/>
-      <c r="AX5" s="125"/>
-      <c r="AY5" s="125"/>
-      <c r="AZ5" s="126"/>
+      <c r="W5" s="148"/>
+      <c r="X5" s="148"/>
+      <c r="Y5" s="148"/>
+      <c r="Z5" s="148"/>
+      <c r="AA5" s="148"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
+      <c r="AD5" s="148"/>
+      <c r="AE5" s="148"/>
+      <c r="AF5" s="148"/>
+      <c r="AG5" s="148"/>
+      <c r="AH5" s="148"/>
+      <c r="AI5" s="148"/>
+      <c r="AJ5" s="148"/>
+      <c r="AK5" s="148"/>
+      <c r="AL5" s="148"/>
+      <c r="AM5" s="148"/>
+      <c r="AN5" s="148"/>
+      <c r="AO5" s="148"/>
+      <c r="AP5" s="148"/>
+      <c r="AQ5" s="148"/>
+      <c r="AR5" s="148"/>
+      <c r="AS5" s="148"/>
+      <c r="AT5" s="148"/>
+      <c r="AU5" s="148"/>
+      <c r="AV5" s="148"/>
+      <c r="AW5" s="148"/>
+      <c r="AX5" s="148"/>
+      <c r="AY5" s="148"/>
+      <c r="AZ5" s="149"/>
     </row>
     <row r="6" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B6" s="100">
+      <c r="B6" s="131">
         <f>MAX($B$5:B5)+1</f>
         <v>1</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102">
+      <c r="C6" s="132"/>
+      <c r="D6" s="133">
         <v>43997</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="105" t="s">
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="107"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="138"/>
       <c r="L6" s="5" t="s">
         <v>17</v>
       </c>
@@ -9199,23 +9223,23 @@
       <c r="AZ6" s="7"/>
     </row>
     <row r="7" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B7" s="108">
+      <c r="B7" s="123">
         <f>MAX($B$5:B6)+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110">
+      <c r="C7" s="124"/>
+      <c r="D7" s="125">
         <v>43998</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="113" t="s">
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="115"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="130"/>
       <c r="L7" s="8" t="s">
         <v>115</v>
       </c>
@@ -9263,23 +9287,23 @@
       <c r="AZ7" s="10"/>
     </row>
     <row r="8" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B8" s="108">
+      <c r="B8" s="123">
         <f>MAX($B$5:B7)+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="110">
+      <c r="C8" s="124"/>
+      <c r="D8" s="125">
         <v>43998</v>
       </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="113" t="s">
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="128" t="s">
         <v>176</v>
       </c>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="115"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="130"/>
       <c r="L8" s="8" t="s">
         <v>177</v>
       </c>
@@ -9327,19 +9351,19 @@
       <c r="AZ8" s="10"/>
     </row>
     <row r="9" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B9" s="108">
+      <c r="B9" s="123">
         <f>MAX($B$5:B8)+1</f>
         <v>4</v>
       </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="115"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="130"/>
       <c r="L9" s="8"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -9383,19 +9407,19 @@
       <c r="AZ9" s="10"/>
     </row>
     <row r="10" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B10" s="108">
+      <c r="B10" s="123">
         <f>MAX($B$5:B9)+1</f>
         <v>5</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="115"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="130"/>
       <c r="L10" s="8"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -9439,19 +9463,19 @@
       <c r="AZ10" s="10"/>
     </row>
     <row r="11" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B11" s="108">
+      <c r="B11" s="123">
         <f>MAX($B$5:B10)+1</f>
         <v>6</v>
       </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="115"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="130"/>
       <c r="L11" s="8"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -9495,19 +9519,19 @@
       <c r="AZ11" s="10"/>
     </row>
     <row r="12" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B12" s="108">
+      <c r="B12" s="123">
         <f>MAX($B$5:B11)+1</f>
         <v>7</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="115"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="130"/>
       <c r="L12" s="8"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -9551,19 +9575,19 @@
       <c r="AZ12" s="10"/>
     </row>
     <row r="13" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B13" s="108">
+      <c r="B13" s="123">
         <f>MAX($B$5:B12)+1</f>
         <v>8</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="115"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="130"/>
       <c r="L13" s="8"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -9607,19 +9631,19 @@
       <c r="AZ13" s="10"/>
     </row>
     <row r="14" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B14" s="108">
+      <c r="B14" s="123">
         <f>MAX($B$5:B13)+1</f>
         <v>9</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="115"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="130"/>
       <c r="L14" s="8"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -9663,19 +9687,19 @@
       <c r="AZ14" s="10"/>
     </row>
     <row r="15" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B15" s="108">
+      <c r="B15" s="123">
         <f>MAX($B$5:B14)+1</f>
         <v>10</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="115"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="130"/>
       <c r="L15" s="8"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -9719,19 +9743,19 @@
       <c r="AZ15" s="10"/>
     </row>
     <row r="16" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B16" s="108">
+      <c r="B16" s="123">
         <f>MAX($B$5:B15)+1</f>
         <v>11</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="115"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="130"/>
       <c r="L16" s="8"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -9775,19 +9799,19 @@
       <c r="AZ16" s="10"/>
     </row>
     <row r="17" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B17" s="108">
+      <c r="B17" s="123">
         <f>MAX($B$5:B16)+1</f>
         <v>12</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="115"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="130"/>
       <c r="L17" s="8"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -9831,19 +9855,19 @@
       <c r="AZ17" s="10"/>
     </row>
     <row r="18" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B18" s="108">
+      <c r="B18" s="123">
         <f>MAX($B$5:B17)+1</f>
         <v>13</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="115"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="130"/>
       <c r="L18" s="8"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -9887,19 +9911,19 @@
       <c r="AZ18" s="10"/>
     </row>
     <row r="19" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B19" s="108">
+      <c r="B19" s="123">
         <f>MAX($B$5:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="115"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="130"/>
       <c r="L19" s="8"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -9943,19 +9967,19 @@
       <c r="AZ19" s="10"/>
     </row>
     <row r="20" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B20" s="108">
+      <c r="B20" s="123">
         <f>MAX($B$5:B19)+1</f>
         <v>15</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="115"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="130"/>
       <c r="L20" s="8"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -9999,19 +10023,19 @@
       <c r="AZ20" s="10"/>
     </row>
     <row r="21" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B21" s="108">
+      <c r="B21" s="123">
         <f>MAX($B$5:B20)+1</f>
         <v>16</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="115"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="130"/>
       <c r="L21" s="8"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -10055,19 +10079,19 @@
       <c r="AZ21" s="10"/>
     </row>
     <row r="22" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B22" s="108">
+      <c r="B22" s="123">
         <f>MAX($B$5:B21)+1</f>
         <v>17</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="115"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="130"/>
       <c r="L22" s="8"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -10111,19 +10135,19 @@
       <c r="AZ22" s="10"/>
     </row>
     <row r="23" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B23" s="108">
+      <c r="B23" s="123">
         <f>MAX($B$5:B22)+1</f>
         <v>18</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="115"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="130"/>
       <c r="L23" s="8"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -10167,19 +10191,19 @@
       <c r="AZ23" s="10"/>
     </row>
     <row r="24" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B24" s="108">
+      <c r="B24" s="123">
         <f>MAX($B$5:B23)+1</f>
         <v>19</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="115"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="130"/>
       <c r="L24" s="8"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -10223,19 +10247,19 @@
       <c r="AZ24" s="10"/>
     </row>
     <row r="25" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B25" s="108">
+      <c r="B25" s="123">
         <f>MAX($B$5:B24)+1</f>
         <v>20</v>
       </c>
-      <c r="C25" s="109"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="115"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="130"/>
       <c r="L25" s="8"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -10279,19 +10303,19 @@
       <c r="AZ25" s="10"/>
     </row>
     <row r="26" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B26" s="108">
+      <c r="B26" s="123">
         <f>MAX($B$5:B25)+1</f>
         <v>21</v>
       </c>
-      <c r="C26" s="109"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="115"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="130"/>
       <c r="L26" s="8"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -10335,19 +10359,19 @@
       <c r="AZ26" s="10"/>
     </row>
     <row r="27" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B27" s="108">
+      <c r="B27" s="123">
         <f>MAX($B$5:B26)+1</f>
         <v>22</v>
       </c>
-      <c r="C27" s="109"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="115"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="130"/>
       <c r="L27" s="8"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -10391,19 +10415,19 @@
       <c r="AZ27" s="10"/>
     </row>
     <row r="28" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B28" s="108">
+      <c r="B28" s="123">
         <f>MAX($B$5:B27)+1</f>
         <v>23</v>
       </c>
-      <c r="C28" s="109"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="115"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="130"/>
       <c r="L28" s="8"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -10447,19 +10471,19 @@
       <c r="AZ28" s="10"/>
     </row>
     <row r="29" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B29" s="108">
+      <c r="B29" s="123">
         <f>MAX($B$5:B28)+1</f>
         <v>24</v>
       </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="115"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="130"/>
       <c r="L29" s="8"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -10503,19 +10527,19 @@
       <c r="AZ29" s="10"/>
     </row>
     <row r="30" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B30" s="108">
+      <c r="B30" s="123">
         <f>MAX($B$5:B29)+1</f>
         <v>25</v>
       </c>
-      <c r="C30" s="109"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="115"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="130"/>
       <c r="L30" s="8"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -10559,19 +10583,19 @@
       <c r="AZ30" s="10"/>
     </row>
     <row r="31" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B31" s="108">
+      <c r="B31" s="123">
         <f>MAX($B$5:B30)+1</f>
         <v>26</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="115"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="130"/>
       <c r="L31" s="8"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -10615,19 +10639,19 @@
       <c r="AZ31" s="10"/>
     </row>
     <row r="32" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B32" s="108">
+      <c r="B32" s="123">
         <f>MAX($B$5:B31)+1</f>
         <v>27</v>
       </c>
-      <c r="C32" s="109"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="115"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="130"/>
       <c r="L32" s="8"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -10671,19 +10695,19 @@
       <c r="AZ32" s="10"/>
     </row>
     <row r="33" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B33" s="108">
+      <c r="B33" s="123">
         <f>MAX($B$5:B32)+1</f>
         <v>28</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="115"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="130"/>
       <c r="L33" s="8"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -10727,19 +10751,19 @@
       <c r="AZ33" s="10"/>
     </row>
     <row r="34" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B34" s="108">
+      <c r="B34" s="123">
         <f>MAX($B$5:B33)+1</f>
         <v>29</v>
       </c>
-      <c r="C34" s="109"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="115"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="130"/>
       <c r="L34" s="8"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -10783,19 +10807,19 @@
       <c r="AZ34" s="10"/>
     </row>
     <row r="35" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B35" s="108">
+      <c r="B35" s="123">
         <f>MAX($B$5:B34)+1</f>
         <v>30</v>
       </c>
-      <c r="C35" s="109"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="115"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="130"/>
       <c r="L35" s="8"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -10839,19 +10863,19 @@
       <c r="AZ35" s="10"/>
     </row>
     <row r="36" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B36" s="108">
+      <c r="B36" s="123">
         <f>MAX($B$5:B35)+1</f>
         <v>31</v>
       </c>
-      <c r="C36" s="109"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="115"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="130"/>
       <c r="L36" s="8"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -10895,19 +10919,19 @@
       <c r="AZ36" s="10"/>
     </row>
     <row r="37" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B37" s="108">
+      <c r="B37" s="123">
         <f>MAX($B$5:B36)+1</f>
         <v>32</v>
       </c>
-      <c r="C37" s="109"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="115"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="129"/>
+      <c r="K37" s="130"/>
       <c r="L37" s="8"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -10951,19 +10975,19 @@
       <c r="AZ37" s="10"/>
     </row>
     <row r="38" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B38" s="108">
+      <c r="B38" s="123">
         <f>MAX($B$5:B37)+1</f>
         <v>33</v>
       </c>
-      <c r="C38" s="109"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="112"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="115"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="130"/>
       <c r="L38" s="8"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -11007,19 +11031,19 @@
       <c r="AZ38" s="10"/>
     </row>
     <row r="39" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B39" s="108">
+      <c r="B39" s="123">
         <f>MAX($B$5:B38)+1</f>
         <v>34</v>
       </c>
-      <c r="C39" s="109"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="112"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-      <c r="K39" s="115"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="130"/>
       <c r="L39" s="8"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -11063,19 +11087,19 @@
       <c r="AZ39" s="10"/>
     </row>
     <row r="40" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B40" s="108">
+      <c r="B40" s="123">
         <f>MAX($B$5:B39)+1</f>
         <v>35</v>
       </c>
-      <c r="C40" s="109"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="115"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="129"/>
+      <c r="J40" s="129"/>
+      <c r="K40" s="130"/>
       <c r="L40" s="8"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -11119,19 +11143,19 @@
       <c r="AZ40" s="10"/>
     </row>
     <row r="41" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B41" s="108">
+      <c r="B41" s="123">
         <f>MAX($B$5:B40)+1</f>
         <v>36</v>
       </c>
-      <c r="C41" s="109"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="115"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="129"/>
+      <c r="K41" s="130"/>
       <c r="L41" s="8"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -11175,19 +11199,19 @@
       <c r="AZ41" s="10"/>
     </row>
     <row r="42" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B42" s="127">
+      <c r="B42" s="115">
         <f>MAX($B$5:B41)+1</f>
         <v>37</v>
       </c>
-      <c r="C42" s="128"/>
-      <c r="D42" s="129"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="131"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="134"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="121"/>
+      <c r="K42" s="122"/>
       <c r="L42" s="11"/>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
@@ -11232,15 +11256,102 @@
     </row>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="B2:AZ3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:U5"/>
+    <mergeCell ref="V5:AZ5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:K33"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="H38:K38"/>
@@ -11253,102 +11364,15 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:G37"/>
     <mergeCell ref="H37:K37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="B2:AZ3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:U5"/>
-    <mergeCell ref="V5:AZ5"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
@@ -11367,7 +11391,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -11504,7 +11528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F712F004-D241-4FE1-B92B-3AA74A037C93}">
   <dimension ref="B1:BA38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AX12" sqref="AX12"/>
     </sheetView>
@@ -11519,1963 +11543,1963 @@
   <sheetData>
     <row r="1" spans="2:53" ht="3" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:53" ht="13.5" customHeight="1" thickTop="1">
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="150" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="174"/>
-      <c r="AD2" s="174"/>
-      <c r="AE2" s="174"/>
-      <c r="AF2" s="174"/>
-      <c r="AG2" s="174"/>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="174"/>
-      <c r="AJ2" s="174"/>
-      <c r="AK2" s="175"/>
-      <c r="AL2" s="176" t="s">
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+      <c r="AB2" s="151"/>
+      <c r="AC2" s="151"/>
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="151"/>
+      <c r="AG2" s="151"/>
+      <c r="AH2" s="151"/>
+      <c r="AI2" s="151"/>
+      <c r="AJ2" s="151"/>
+      <c r="AK2" s="152"/>
+      <c r="AL2" s="156" t="s">
         <v>219</v>
       </c>
-      <c r="AM2" s="176"/>
-      <c r="AN2" s="176"/>
-      <c r="AO2" s="176"/>
-      <c r="AP2" s="176"/>
-      <c r="AQ2" s="176"/>
-      <c r="AR2" s="177">
+      <c r="AM2" s="156"/>
+      <c r="AN2" s="156"/>
+      <c r="AO2" s="156"/>
+      <c r="AP2" s="156"/>
+      <c r="AQ2" s="156"/>
+      <c r="AR2" s="157">
         <v>43999</v>
       </c>
-      <c r="AS2" s="177"/>
-      <c r="AT2" s="177"/>
-      <c r="AU2" s="177"/>
-      <c r="AV2" s="177"/>
-      <c r="AW2" s="177"/>
-      <c r="AX2" s="177"/>
-      <c r="AY2" s="177"/>
-      <c r="AZ2" s="177"/>
-      <c r="BA2" s="178"/>
+      <c r="AS2" s="157"/>
+      <c r="AT2" s="157"/>
+      <c r="AU2" s="157"/>
+      <c r="AV2" s="157"/>
+      <c r="AW2" s="157"/>
+      <c r="AX2" s="157"/>
+      <c r="AY2" s="157"/>
+      <c r="AZ2" s="157"/>
+      <c r="BA2" s="158"/>
     </row>
     <row r="3" spans="2:53" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="179"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="180"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="180"/>
-      <c r="W3" s="180"/>
-      <c r="X3" s="180"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="180"/>
-      <c r="AA3" s="180"/>
-      <c r="AB3" s="180"/>
-      <c r="AC3" s="180"/>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="180"/>
-      <c r="AH3" s="180"/>
-      <c r="AI3" s="180"/>
-      <c r="AJ3" s="180"/>
-      <c r="AK3" s="181"/>
-      <c r="AL3" s="182" t="s">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="154"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="154"/>
+      <c r="U3" s="154"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="154"/>
+      <c r="Y3" s="154"/>
+      <c r="Z3" s="154"/>
+      <c r="AA3" s="154"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="154"/>
+      <c r="AE3" s="154"/>
+      <c r="AF3" s="154"/>
+      <c r="AG3" s="154"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="154"/>
+      <c r="AJ3" s="154"/>
+      <c r="AK3" s="155"/>
+      <c r="AL3" s="159" t="s">
         <v>220</v>
       </c>
-      <c r="AM3" s="182"/>
-      <c r="AN3" s="182"/>
-      <c r="AO3" s="182"/>
-      <c r="AP3" s="182"/>
-      <c r="AQ3" s="182"/>
-      <c r="AR3" s="183" t="s">
+      <c r="AM3" s="159"/>
+      <c r="AN3" s="159"/>
+      <c r="AO3" s="159"/>
+      <c r="AP3" s="159"/>
+      <c r="AQ3" s="159"/>
+      <c r="AR3" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="AS3" s="183"/>
-      <c r="AT3" s="183"/>
-      <c r="AU3" s="183"/>
-      <c r="AV3" s="183"/>
-      <c r="AW3" s="183"/>
-      <c r="AX3" s="183"/>
-      <c r="AY3" s="183"/>
-      <c r="AZ3" s="183"/>
-      <c r="BA3" s="184"/>
+      <c r="AS3" s="160"/>
+      <c r="AT3" s="160"/>
+      <c r="AU3" s="160"/>
+      <c r="AV3" s="160"/>
+      <c r="AW3" s="160"/>
+      <c r="AX3" s="160"/>
+      <c r="AY3" s="160"/>
+      <c r="AZ3" s="160"/>
+      <c r="BA3" s="161"/>
     </row>
     <row r="4" spans="2:53" ht="13.5" customHeight="1" thickTop="1">
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="186"/>
-      <c r="M5" s="186"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="186"/>
-      <c r="P5" s="186"/>
-      <c r="Q5" s="186"/>
-      <c r="R5" s="186"/>
-      <c r="S5" s="186"/>
-      <c r="T5" s="186"/>
-      <c r="U5" s="186"/>
-      <c r="V5" s="186"/>
-      <c r="W5" s="186"/>
-      <c r="X5" s="186"/>
-      <c r="Y5" s="186"/>
-      <c r="Z5" s="186"/>
-      <c r="AA5" s="186"/>
-      <c r="AB5" s="186"/>
-      <c r="AC5" s="186"/>
-      <c r="AD5" s="186"/>
-      <c r="AE5" s="186"/>
-      <c r="AF5" s="186"/>
-      <c r="AG5" s="186"/>
-      <c r="AH5" s="186"/>
-      <c r="AI5" s="186"/>
-      <c r="AJ5" s="186"/>
-      <c r="AK5" s="186"/>
-      <c r="AL5" s="186"/>
-      <c r="AM5" s="186"/>
-      <c r="AN5" s="186"/>
-      <c r="AO5" s="186"/>
-      <c r="AP5" s="186"/>
-      <c r="AQ5" s="186"/>
-      <c r="AR5" s="186"/>
-      <c r="AS5" s="186"/>
-      <c r="AT5" s="186"/>
-      <c r="AU5" s="186"/>
-      <c r="AV5" s="186"/>
-      <c r="AW5" s="186"/>
-      <c r="AX5" s="186"/>
-      <c r="AY5" s="186"/>
-      <c r="AZ5" s="186"/>
-      <c r="BA5" s="187"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="86"/>
+      <c r="AI5" s="86"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="86"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="86"/>
+      <c r="AO5" s="86"/>
+      <c r="AP5" s="86"/>
+      <c r="AQ5" s="86"/>
+      <c r="AR5" s="86"/>
+      <c r="AS5" s="86"/>
+      <c r="AT5" s="86"/>
+      <c r="AU5" s="86"/>
+      <c r="AV5" s="86"/>
+      <c r="AW5" s="86"/>
+      <c r="AX5" s="86"/>
+      <c r="AY5" s="86"/>
+      <c r="AZ5" s="86"/>
+      <c r="BA5" s="87"/>
     </row>
     <row r="6" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B6" s="188"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="189"/>
-      <c r="L6" s="189"/>
-      <c r="M6" s="189"/>
-      <c r="N6" s="189"/>
-      <c r="O6" s="189"/>
-      <c r="P6" s="189"/>
-      <c r="Q6" s="189"/>
-      <c r="R6" s="189"/>
-      <c r="S6" s="189"/>
-      <c r="T6" s="189"/>
-      <c r="U6" s="189"/>
-      <c r="V6" s="189"/>
-      <c r="W6" s="189"/>
-      <c r="X6" s="189"/>
-      <c r="Y6" s="189"/>
-      <c r="Z6" s="189"/>
-      <c r="AA6" s="189"/>
-      <c r="AB6" s="189"/>
-      <c r="AC6" s="189"/>
-      <c r="AD6" s="189"/>
-      <c r="AE6" s="189"/>
-      <c r="AF6" s="189"/>
-      <c r="AG6" s="189"/>
-      <c r="AH6" s="189"/>
-      <c r="AI6" s="189"/>
-      <c r="AJ6" s="189"/>
-      <c r="AK6" s="189"/>
-      <c r="AL6" s="189"/>
-      <c r="AM6" s="189"/>
-      <c r="AN6" s="189"/>
-      <c r="AO6" s="189"/>
-      <c r="AP6" s="189"/>
-      <c r="AQ6" s="189"/>
-      <c r="AR6" s="189"/>
-      <c r="AS6" s="189"/>
-      <c r="AT6" s="189"/>
-      <c r="AU6" s="189"/>
-      <c r="AV6" s="189"/>
-      <c r="AW6" s="189"/>
-      <c r="AX6" s="189"/>
-      <c r="AY6" s="189"/>
-      <c r="AZ6" s="189"/>
-      <c r="BA6" s="190"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="89"/>
+      <c r="AG6" s="89"/>
+      <c r="AH6" s="89"/>
+      <c r="AI6" s="89"/>
+      <c r="AJ6" s="89"/>
+      <c r="AK6" s="89"/>
+      <c r="AL6" s="89"/>
+      <c r="AM6" s="89"/>
+      <c r="AN6" s="89"/>
+      <c r="AO6" s="89"/>
+      <c r="AP6" s="89"/>
+      <c r="AQ6" s="89"/>
+      <c r="AR6" s="89"/>
+      <c r="AS6" s="89"/>
+      <c r="AT6" s="89"/>
+      <c r="AU6" s="89"/>
+      <c r="AV6" s="89"/>
+      <c r="AW6" s="89"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="89"/>
+      <c r="BA6" s="90"/>
     </row>
     <row r="7" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B7" s="191"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="192"/>
-      <c r="O7" s="192"/>
-      <c r="P7" s="192"/>
-      <c r="Q7" s="192"/>
-      <c r="R7" s="192"/>
-      <c r="S7" s="192"/>
-      <c r="T7" s="192"/>
-      <c r="U7" s="192"/>
-      <c r="V7" s="192"/>
-      <c r="W7" s="192"/>
-      <c r="X7" s="192"/>
-      <c r="Y7" s="192"/>
-      <c r="Z7" s="192"/>
-      <c r="AA7" s="192"/>
-      <c r="AB7" s="192"/>
-      <c r="AC7" s="192"/>
-      <c r="AD7" s="192"/>
-      <c r="AE7" s="192"/>
-      <c r="AF7" s="192"/>
-      <c r="AG7" s="192"/>
-      <c r="AH7" s="192"/>
-      <c r="AI7" s="192"/>
-      <c r="AJ7" s="192"/>
-      <c r="AK7" s="192"/>
-      <c r="AL7" s="192"/>
-      <c r="AM7" s="192"/>
-      <c r="AN7" s="192"/>
-      <c r="AO7" s="192"/>
-      <c r="AP7" s="192"/>
-      <c r="AQ7" s="192"/>
-      <c r="AR7" s="192"/>
-      <c r="AS7" s="192"/>
-      <c r="AT7" s="192"/>
-      <c r="AU7" s="192"/>
-      <c r="AV7" s="192"/>
-      <c r="AW7" s="192"/>
-      <c r="AX7" s="192"/>
-      <c r="AY7" s="192"/>
-      <c r="AZ7" s="192"/>
-      <c r="BA7" s="193"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="92"/>
+      <c r="AF7" s="92"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="92"/>
+      <c r="AI7" s="92"/>
+      <c r="AJ7" s="92"/>
+      <c r="AK7" s="92"/>
+      <c r="AL7" s="92"/>
+      <c r="AM7" s="92"/>
+      <c r="AN7" s="92"/>
+      <c r="AO7" s="92"/>
+      <c r="AP7" s="92"/>
+      <c r="AQ7" s="92"/>
+      <c r="AR7" s="92"/>
+      <c r="AS7" s="92"/>
+      <c r="AT7" s="92"/>
+      <c r="AU7" s="92"/>
+      <c r="AV7" s="92"/>
+      <c r="AW7" s="92"/>
+      <c r="AX7" s="92"/>
+      <c r="AY7" s="92"/>
+      <c r="AZ7" s="92"/>
+      <c r="BA7" s="93"/>
     </row>
     <row r="8" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B8" s="191"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="192"/>
-      <c r="J8" s="192"/>
-      <c r="K8" s="192"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="192"/>
-      <c r="N8" s="192"/>
-      <c r="O8" s="192"/>
-      <c r="P8" s="192"/>
-      <c r="Q8" s="192"/>
-      <c r="R8" s="192"/>
-      <c r="S8" s="192"/>
-      <c r="T8" s="192"/>
-      <c r="U8" s="192"/>
-      <c r="V8" s="192"/>
-      <c r="W8" s="192"/>
-      <c r="X8" s="192"/>
-      <c r="Y8" s="192"/>
-      <c r="Z8" s="192"/>
-      <c r="AA8" s="192"/>
-      <c r="AB8" s="192"/>
-      <c r="AC8" s="192"/>
-      <c r="AD8" s="192"/>
-      <c r="AE8" s="192"/>
-      <c r="AF8" s="192"/>
-      <c r="AG8" s="192"/>
-      <c r="AH8" s="192"/>
-      <c r="AI8" s="192"/>
-      <c r="AJ8" s="192"/>
-      <c r="AK8" s="192"/>
-      <c r="AL8" s="192"/>
-      <c r="AM8" s="192"/>
-      <c r="AN8" s="192"/>
-      <c r="AO8" s="192"/>
-      <c r="AP8" s="192"/>
-      <c r="AQ8" s="192"/>
-      <c r="AR8" s="192"/>
-      <c r="AS8" s="192"/>
-      <c r="AT8" s="192"/>
-      <c r="AU8" s="192"/>
-      <c r="AV8" s="192"/>
-      <c r="AW8" s="192"/>
-      <c r="AX8" s="192"/>
-      <c r="AY8" s="192"/>
-      <c r="AZ8" s="192"/>
-      <c r="BA8" s="193"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="92"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="92"/>
+      <c r="AH8" s="92"/>
+      <c r="AI8" s="92"/>
+      <c r="AJ8" s="92"/>
+      <c r="AK8" s="92"/>
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="92"/>
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="92"/>
+      <c r="AQ8" s="92"/>
+      <c r="AR8" s="92"/>
+      <c r="AS8" s="92"/>
+      <c r="AT8" s="92"/>
+      <c r="AU8" s="92"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="92"/>
+      <c r="AX8" s="92"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="92"/>
+      <c r="BA8" s="93"/>
     </row>
     <row r="9" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B9" s="191"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="192"/>
-      <c r="M9" s="192"/>
-      <c r="N9" s="192"/>
-      <c r="O9" s="192"/>
-      <c r="P9" s="192"/>
-      <c r="Q9" s="192"/>
-      <c r="R9" s="192"/>
-      <c r="S9" s="192"/>
-      <c r="T9" s="192"/>
-      <c r="U9" s="192"/>
-      <c r="V9" s="192"/>
-      <c r="W9" s="192"/>
-      <c r="X9" s="192"/>
-      <c r="Y9" s="192"/>
-      <c r="Z9" s="192"/>
-      <c r="AA9" s="192"/>
-      <c r="AB9" s="192"/>
-      <c r="AC9" s="192"/>
-      <c r="AD9" s="192"/>
-      <c r="AE9" s="192"/>
-      <c r="AF9" s="192"/>
-      <c r="AG9" s="192"/>
-      <c r="AH9" s="192"/>
-      <c r="AI9" s="192"/>
-      <c r="AJ9" s="192"/>
-      <c r="AK9" s="192"/>
-      <c r="AL9" s="192"/>
-      <c r="AM9" s="192"/>
-      <c r="AN9" s="192"/>
-      <c r="AO9" s="192"/>
-      <c r="AP9" s="192"/>
-      <c r="AQ9" s="192"/>
-      <c r="AR9" s="192"/>
-      <c r="AS9" s="192"/>
-      <c r="AT9" s="192"/>
-      <c r="AU9" s="192"/>
-      <c r="AV9" s="192"/>
-      <c r="AW9" s="192"/>
-      <c r="AX9" s="192"/>
-      <c r="AY9" s="192"/>
-      <c r="AZ9" s="192"/>
-      <c r="BA9" s="193"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="92"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="92"/>
+      <c r="AJ9" s="92"/>
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="92"/>
+      <c r="AM9" s="92"/>
+      <c r="AN9" s="92"/>
+      <c r="AO9" s="92"/>
+      <c r="AP9" s="92"/>
+      <c r="AQ9" s="92"/>
+      <c r="AR9" s="92"/>
+      <c r="AS9" s="92"/>
+      <c r="AT9" s="92"/>
+      <c r="AU9" s="92"/>
+      <c r="AV9" s="92"/>
+      <c r="AW9" s="92"/>
+      <c r="AX9" s="92"/>
+      <c r="AY9" s="92"/>
+      <c r="AZ9" s="92"/>
+      <c r="BA9" s="93"/>
     </row>
     <row r="10" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B10" s="191"/>
-      <c r="C10" s="192"/>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="192"/>
-      <c r="K10" s="192"/>
-      <c r="L10" s="192"/>
-      <c r="M10" s="192"/>
-      <c r="N10" s="192"/>
-      <c r="O10" s="192"/>
-      <c r="P10" s="192"/>
-      <c r="Q10" s="192"/>
-      <c r="R10" s="192"/>
-      <c r="S10" s="192"/>
-      <c r="T10" s="192"/>
-      <c r="U10" s="192"/>
-      <c r="V10" s="192"/>
-      <c r="W10" s="192"/>
-      <c r="X10" s="192"/>
-      <c r="Y10" s="192"/>
-      <c r="Z10" s="192"/>
-      <c r="AA10" s="192"/>
-      <c r="AB10" s="192"/>
-      <c r="AC10" s="192"/>
-      <c r="AD10" s="192"/>
-      <c r="AE10" s="192"/>
-      <c r="AF10" s="192"/>
-      <c r="AG10" s="192"/>
-      <c r="AH10" s="192"/>
-      <c r="AI10" s="192"/>
-      <c r="AJ10" s="192"/>
-      <c r="AK10" s="194"/>
-      <c r="AL10" s="194"/>
-      <c r="AM10" s="194"/>
-      <c r="AN10" s="194"/>
-      <c r="AO10" s="194"/>
-      <c r="AP10" s="194"/>
-      <c r="AQ10" s="194"/>
-      <c r="AR10" s="194"/>
-      <c r="AS10" s="194"/>
-      <c r="AT10" s="194"/>
-      <c r="AU10" s="194"/>
-      <c r="AV10" s="194"/>
-      <c r="AW10" s="194"/>
-      <c r="AX10" s="194"/>
-      <c r="AY10" s="194"/>
-      <c r="AZ10" s="194"/>
-      <c r="BA10" s="195"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="92"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="92"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="94"/>
+      <c r="AL10" s="94"/>
+      <c r="AM10" s="94"/>
+      <c r="AN10" s="94"/>
+      <c r="AO10" s="94"/>
+      <c r="AP10" s="94"/>
+      <c r="AQ10" s="94"/>
+      <c r="AR10" s="94"/>
+      <c r="AS10" s="94"/>
+      <c r="AT10" s="94"/>
+      <c r="AU10" s="94"/>
+      <c r="AV10" s="94"/>
+      <c r="AW10" s="94"/>
+      <c r="AX10" s="94"/>
+      <c r="AY10" s="94"/>
+      <c r="AZ10" s="94"/>
+      <c r="BA10" s="95"/>
     </row>
     <row r="11" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B11" s="191"/>
-      <c r="C11" s="192"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="192"/>
-      <c r="F11" s="192"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="192"/>
-      <c r="L11" s="192"/>
-      <c r="M11" s="192"/>
-      <c r="N11" s="192"/>
-      <c r="O11" s="192"/>
-      <c r="P11" s="192"/>
-      <c r="Q11" s="192"/>
-      <c r="R11" s="192"/>
-      <c r="S11" s="192"/>
-      <c r="T11" s="192"/>
-      <c r="U11" s="192"/>
-      <c r="V11" s="192"/>
-      <c r="W11" s="192"/>
-      <c r="X11" s="192"/>
-      <c r="Y11" s="192"/>
-      <c r="Z11" s="192"/>
-      <c r="AA11" s="192"/>
-      <c r="AB11" s="192"/>
-      <c r="AC11" s="192"/>
-      <c r="AD11" s="192"/>
-      <c r="AE11" s="192"/>
-      <c r="AF11" s="192"/>
-      <c r="AG11" s="192"/>
-      <c r="AH11" s="192"/>
-      <c r="AI11" s="192"/>
-      <c r="AJ11" s="192"/>
-      <c r="AK11" s="194"/>
-      <c r="AL11" s="194"/>
-      <c r="AM11" s="194"/>
-      <c r="AN11" s="194"/>
-      <c r="AO11" s="194"/>
-      <c r="AP11" s="194"/>
-      <c r="AQ11" s="194"/>
-      <c r="AR11" s="194"/>
-      <c r="AS11" s="194"/>
-      <c r="AT11" s="194"/>
-      <c r="AU11" s="194"/>
-      <c r="AV11" s="194"/>
-      <c r="AW11" s="194"/>
-      <c r="AX11" s="194"/>
-      <c r="AY11" s="194"/>
-      <c r="AZ11" s="194"/>
-      <c r="BA11" s="195"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="94"/>
+      <c r="AL11" s="94"/>
+      <c r="AM11" s="94"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="94"/>
+      <c r="AP11" s="94"/>
+      <c r="AQ11" s="94"/>
+      <c r="AR11" s="94"/>
+      <c r="AS11" s="94"/>
+      <c r="AT11" s="94"/>
+      <c r="AU11" s="94"/>
+      <c r="AV11" s="94"/>
+      <c r="AW11" s="94"/>
+      <c r="AX11" s="94"/>
+      <c r="AY11" s="94"/>
+      <c r="AZ11" s="94"/>
+      <c r="BA11" s="95"/>
     </row>
     <row r="12" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B12" s="191"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="192"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="192"/>
-      <c r="L12" s="192"/>
-      <c r="M12" s="192"/>
-      <c r="N12" s="192"/>
-      <c r="O12" s="192"/>
-      <c r="P12" s="192"/>
-      <c r="Q12" s="192"/>
-      <c r="R12" s="192"/>
-      <c r="S12" s="192"/>
-      <c r="T12" s="192"/>
-      <c r="U12" s="192"/>
-      <c r="V12" s="192"/>
-      <c r="W12" s="192"/>
-      <c r="X12" s="192"/>
-      <c r="Y12" s="192"/>
-      <c r="Z12" s="192"/>
-      <c r="AA12" s="192"/>
-      <c r="AB12" s="192"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="192"/>
-      <c r="AE12" s="192"/>
-      <c r="AF12" s="192"/>
-      <c r="AG12" s="192"/>
-      <c r="AH12" s="192"/>
-      <c r="AI12" s="192"/>
-      <c r="AJ12" s="192"/>
-      <c r="AK12" s="194"/>
-      <c r="AL12" s="194"/>
-      <c r="AM12" s="194"/>
-      <c r="AN12" s="194"/>
-      <c r="AO12" s="194"/>
-      <c r="AP12" s="194"/>
-      <c r="AQ12" s="194"/>
-      <c r="AR12" s="194"/>
-      <c r="AS12" s="194"/>
-      <c r="AT12" s="194"/>
-      <c r="AU12" s="194"/>
-      <c r="AV12" s="194"/>
-      <c r="AW12" s="194"/>
-      <c r="AX12" s="194"/>
-      <c r="AY12" s="194"/>
-      <c r="AZ12" s="194"/>
-      <c r="BA12" s="195"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="92"/>
+      <c r="AA12" s="92"/>
+      <c r="AB12" s="92"/>
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="92"/>
+      <c r="AE12" s="92"/>
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="92"/>
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="92"/>
+      <c r="AJ12" s="92"/>
+      <c r="AK12" s="94"/>
+      <c r="AL12" s="94"/>
+      <c r="AM12" s="94"/>
+      <c r="AN12" s="94"/>
+      <c r="AO12" s="94"/>
+      <c r="AP12" s="94"/>
+      <c r="AQ12" s="94"/>
+      <c r="AR12" s="94"/>
+      <c r="AS12" s="94"/>
+      <c r="AT12" s="94"/>
+      <c r="AU12" s="94"/>
+      <c r="AV12" s="94"/>
+      <c r="AW12" s="94"/>
+      <c r="AX12" s="94"/>
+      <c r="AY12" s="94"/>
+      <c r="AZ12" s="94"/>
+      <c r="BA12" s="95"/>
     </row>
     <row r="13" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B13" s="191"/>
-      <c r="C13" s="192"/>
-      <c r="D13" s="192"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="192"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="192"/>
-      <c r="J13" s="192"/>
-      <c r="K13" s="192"/>
-      <c r="L13" s="192"/>
-      <c r="M13" s="192"/>
-      <c r="N13" s="192"/>
-      <c r="O13" s="192"/>
-      <c r="P13" s="192"/>
-      <c r="Q13" s="192"/>
-      <c r="R13" s="192"/>
-      <c r="S13" s="192"/>
-      <c r="T13" s="192"/>
-      <c r="U13" s="192"/>
-      <c r="V13" s="192"/>
-      <c r="W13" s="192"/>
-      <c r="X13" s="192"/>
-      <c r="Y13" s="192"/>
-      <c r="Z13" s="192"/>
-      <c r="AA13" s="192"/>
-      <c r="AB13" s="192"/>
-      <c r="AC13" s="192"/>
-      <c r="AD13" s="192"/>
-      <c r="AE13" s="192"/>
-      <c r="AF13" s="192"/>
-      <c r="AG13" s="192"/>
-      <c r="AH13" s="192"/>
-      <c r="AI13" s="192"/>
-      <c r="AJ13" s="192"/>
-      <c r="AK13" s="194"/>
-      <c r="AL13" s="194"/>
-      <c r="AM13" s="194"/>
-      <c r="AN13" s="194"/>
-      <c r="AO13" s="194"/>
-      <c r="AP13" s="194"/>
-      <c r="AQ13" s="194"/>
-      <c r="AR13" s="194"/>
-      <c r="AS13" s="194"/>
-      <c r="AT13" s="194"/>
-      <c r="AU13" s="194"/>
-      <c r="AV13" s="194"/>
-      <c r="AW13" s="194"/>
-      <c r="AX13" s="194"/>
-      <c r="AY13" s="194"/>
-      <c r="AZ13" s="194"/>
-      <c r="BA13" s="195"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="92"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="92"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="94"/>
+      <c r="AL13" s="94"/>
+      <c r="AM13" s="94"/>
+      <c r="AN13" s="94"/>
+      <c r="AO13" s="94"/>
+      <c r="AP13" s="94"/>
+      <c r="AQ13" s="94"/>
+      <c r="AR13" s="94"/>
+      <c r="AS13" s="94"/>
+      <c r="AT13" s="94"/>
+      <c r="AU13" s="94"/>
+      <c r="AV13" s="94"/>
+      <c r="AW13" s="94"/>
+      <c r="AX13" s="94"/>
+      <c r="AY13" s="94"/>
+      <c r="AZ13" s="94"/>
+      <c r="BA13" s="95"/>
     </row>
     <row r="14" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B14" s="191"/>
-      <c r="C14" s="192"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="192"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="192"/>
-      <c r="J14" s="192"/>
-      <c r="K14" s="192"/>
-      <c r="L14" s="192"/>
-      <c r="M14" s="192"/>
-      <c r="N14" s="192"/>
-      <c r="O14" s="192"/>
-      <c r="P14" s="192"/>
-      <c r="Q14" s="192"/>
-      <c r="R14" s="192"/>
-      <c r="S14" s="192"/>
-      <c r="T14" s="192"/>
-      <c r="U14" s="192"/>
-      <c r="V14" s="192"/>
-      <c r="W14" s="192"/>
-      <c r="X14" s="192"/>
-      <c r="Y14" s="192"/>
-      <c r="Z14" s="192"/>
-      <c r="AA14" s="192"/>
-      <c r="AB14" s="192"/>
-      <c r="AC14" s="192"/>
-      <c r="AD14" s="192"/>
-      <c r="AE14" s="192"/>
-      <c r="AF14" s="192"/>
-      <c r="AG14" s="192"/>
-      <c r="AH14" s="192"/>
-      <c r="AI14" s="192"/>
-      <c r="AJ14" s="192"/>
-      <c r="AK14" s="194"/>
-      <c r="AL14" s="194"/>
-      <c r="AM14" s="194"/>
-      <c r="AN14" s="194"/>
-      <c r="AO14" s="194"/>
-      <c r="AP14" s="194"/>
-      <c r="AQ14" s="194"/>
-      <c r="AR14" s="194"/>
-      <c r="AS14" s="194"/>
-      <c r="AT14" s="194"/>
-      <c r="AU14" s="194"/>
-      <c r="AV14" s="194"/>
-      <c r="AW14" s="194"/>
-      <c r="AX14" s="194"/>
-      <c r="AY14" s="194"/>
-      <c r="AZ14" s="194"/>
-      <c r="BA14" s="195"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="92"/>
+      <c r="Y14" s="92"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="92"/>
+      <c r="AB14" s="92"/>
+      <c r="AC14" s="92"/>
+      <c r="AD14" s="92"/>
+      <c r="AE14" s="92"/>
+      <c r="AF14" s="92"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="92"/>
+      <c r="AJ14" s="92"/>
+      <c r="AK14" s="94"/>
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="94"/>
+      <c r="AP14" s="94"/>
+      <c r="AQ14" s="94"/>
+      <c r="AR14" s="94"/>
+      <c r="AS14" s="94"/>
+      <c r="AT14" s="94"/>
+      <c r="AU14" s="94"/>
+      <c r="AV14" s="94"/>
+      <c r="AW14" s="94"/>
+      <c r="AX14" s="94"/>
+      <c r="AY14" s="94"/>
+      <c r="AZ14" s="94"/>
+      <c r="BA14" s="95"/>
     </row>
     <row r="15" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B15" s="191"/>
-      <c r="C15" s="192"/>
-      <c r="D15" s="192"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="192"/>
-      <c r="K15" s="192"/>
-      <c r="L15" s="192"/>
-      <c r="M15" s="192"/>
-      <c r="N15" s="192"/>
-      <c r="O15" s="192"/>
-      <c r="P15" s="192"/>
-      <c r="Q15" s="192"/>
-      <c r="R15" s="192"/>
-      <c r="S15" s="192"/>
-      <c r="T15" s="192"/>
-      <c r="U15" s="192"/>
-      <c r="V15" s="192"/>
-      <c r="W15" s="192"/>
-      <c r="X15" s="192"/>
-      <c r="Y15" s="192"/>
-      <c r="Z15" s="192"/>
-      <c r="AA15" s="192"/>
-      <c r="AB15" s="192"/>
-      <c r="AC15" s="192"/>
-      <c r="AD15" s="192"/>
-      <c r="AE15" s="192"/>
-      <c r="AF15" s="192"/>
-      <c r="AG15" s="192"/>
-      <c r="AH15" s="192"/>
-      <c r="AI15" s="192"/>
-      <c r="AJ15" s="192"/>
-      <c r="AK15" s="194"/>
-      <c r="AL15" s="194"/>
-      <c r="AM15" s="194"/>
-      <c r="AN15" s="194"/>
-      <c r="AO15" s="194"/>
-      <c r="AP15" s="194"/>
-      <c r="AQ15" s="194"/>
-      <c r="AR15" s="194"/>
-      <c r="AS15" s="194"/>
-      <c r="AT15" s="194"/>
-      <c r="AU15" s="194"/>
-      <c r="AV15" s="194"/>
-      <c r="AW15" s="194"/>
-      <c r="AX15" s="194"/>
-      <c r="AY15" s="194"/>
-      <c r="AZ15" s="194"/>
-      <c r="BA15" s="195"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="92"/>
+      <c r="AE15" s="92"/>
+      <c r="AF15" s="92"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="92"/>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="94"/>
+      <c r="AL15" s="94"/>
+      <c r="AM15" s="94"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="94"/>
+      <c r="AP15" s="94"/>
+      <c r="AQ15" s="94"/>
+      <c r="AR15" s="94"/>
+      <c r="AS15" s="94"/>
+      <c r="AT15" s="94"/>
+      <c r="AU15" s="94"/>
+      <c r="AV15" s="94"/>
+      <c r="AW15" s="94"/>
+      <c r="AX15" s="94"/>
+      <c r="AY15" s="94"/>
+      <c r="AZ15" s="94"/>
+      <c r="BA15" s="95"/>
     </row>
     <row r="16" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B16" s="191"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="192"/>
-      <c r="K16" s="192"/>
-      <c r="L16" s="192"/>
-      <c r="M16" s="192"/>
-      <c r="N16" s="192"/>
-      <c r="O16" s="192"/>
-      <c r="P16" s="192"/>
-      <c r="Q16" s="192"/>
-      <c r="R16" s="192"/>
-      <c r="S16" s="192"/>
-      <c r="T16" s="192"/>
-      <c r="U16" s="192"/>
-      <c r="V16" s="192"/>
-      <c r="W16" s="192"/>
-      <c r="X16" s="192"/>
-      <c r="Y16" s="192"/>
-      <c r="Z16" s="192"/>
-      <c r="AA16" s="192"/>
-      <c r="AB16" s="192"/>
-      <c r="AC16" s="192"/>
-      <c r="AD16" s="192"/>
-      <c r="AE16" s="192"/>
-      <c r="AF16" s="192"/>
-      <c r="AG16" s="192"/>
-      <c r="AH16" s="192"/>
-      <c r="AI16" s="192"/>
-      <c r="AJ16" s="192"/>
-      <c r="AK16" s="194"/>
-      <c r="AL16" s="194"/>
-      <c r="AM16" s="194"/>
-      <c r="AN16" s="194"/>
-      <c r="AO16" s="194"/>
-      <c r="AP16" s="194"/>
-      <c r="AQ16" s="194"/>
-      <c r="AR16" s="194"/>
-      <c r="AS16" s="194"/>
-      <c r="AT16" s="194"/>
-      <c r="AU16" s="194"/>
-      <c r="AV16" s="194"/>
-      <c r="AW16" s="194"/>
-      <c r="AX16" s="194"/>
-      <c r="AY16" s="194"/>
-      <c r="AZ16" s="194"/>
-      <c r="BA16" s="195"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="92"/>
+      <c r="AK16" s="94"/>
+      <c r="AL16" s="94"/>
+      <c r="AM16" s="94"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="94"/>
+      <c r="AP16" s="94"/>
+      <c r="AQ16" s="94"/>
+      <c r="AR16" s="94"/>
+      <c r="AS16" s="94"/>
+      <c r="AT16" s="94"/>
+      <c r="AU16" s="94"/>
+      <c r="AV16" s="94"/>
+      <c r="AW16" s="94"/>
+      <c r="AX16" s="94"/>
+      <c r="AY16" s="94"/>
+      <c r="AZ16" s="94"/>
+      <c r="BA16" s="95"/>
     </row>
     <row r="17" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B17" s="191"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="192"/>
-      <c r="M17" s="192"/>
-      <c r="N17" s="192"/>
-      <c r="O17" s="192"/>
-      <c r="P17" s="192"/>
-      <c r="Q17" s="192"/>
-      <c r="R17" s="192"/>
-      <c r="S17" s="192"/>
-      <c r="T17" s="192"/>
-      <c r="U17" s="192"/>
-      <c r="V17" s="192"/>
-      <c r="W17" s="192"/>
-      <c r="X17" s="192"/>
-      <c r="Y17" s="192"/>
-      <c r="Z17" s="192"/>
-      <c r="AA17" s="192"/>
-      <c r="AB17" s="192"/>
-      <c r="AC17" s="192"/>
-      <c r="AD17" s="192"/>
-      <c r="AE17" s="192"/>
-      <c r="AF17" s="192"/>
-      <c r="AG17" s="192"/>
-      <c r="AH17" s="192"/>
-      <c r="AI17" s="192"/>
-      <c r="AJ17" s="192"/>
-      <c r="AK17" s="194"/>
-      <c r="AL17" s="194"/>
-      <c r="AM17" s="194"/>
-      <c r="AN17" s="194"/>
-      <c r="AO17" s="194"/>
-      <c r="AP17" s="194"/>
-      <c r="AQ17" s="194"/>
-      <c r="AR17" s="194"/>
-      <c r="AS17" s="194"/>
-      <c r="AT17" s="194"/>
-      <c r="AU17" s="194"/>
-      <c r="AV17" s="194"/>
-      <c r="AW17" s="194"/>
-      <c r="AX17" s="194"/>
-      <c r="AY17" s="194"/>
-      <c r="AZ17" s="194"/>
-      <c r="BA17" s="195"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="92"/>
+      <c r="W17" s="92"/>
+      <c r="X17" s="92"/>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="92"/>
+      <c r="AB17" s="92"/>
+      <c r="AC17" s="92"/>
+      <c r="AD17" s="92"/>
+      <c r="AE17" s="92"/>
+      <c r="AF17" s="92"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="92"/>
+      <c r="AJ17" s="92"/>
+      <c r="AK17" s="94"/>
+      <c r="AL17" s="94"/>
+      <c r="AM17" s="94"/>
+      <c r="AN17" s="94"/>
+      <c r="AO17" s="94"/>
+      <c r="AP17" s="94"/>
+      <c r="AQ17" s="94"/>
+      <c r="AR17" s="94"/>
+      <c r="AS17" s="94"/>
+      <c r="AT17" s="94"/>
+      <c r="AU17" s="94"/>
+      <c r="AV17" s="94"/>
+      <c r="AW17" s="94"/>
+      <c r="AX17" s="94"/>
+      <c r="AY17" s="94"/>
+      <c r="AZ17" s="94"/>
+      <c r="BA17" s="95"/>
     </row>
     <row r="18" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B18" s="191"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="192"/>
-      <c r="O18" s="192"/>
-      <c r="P18" s="192"/>
-      <c r="Q18" s="192"/>
-      <c r="R18" s="192"/>
-      <c r="S18" s="192"/>
-      <c r="T18" s="192"/>
-      <c r="U18" s="192"/>
-      <c r="V18" s="192"/>
-      <c r="W18" s="192"/>
-      <c r="X18" s="192"/>
-      <c r="Y18" s="192"/>
-      <c r="Z18" s="192"/>
-      <c r="AA18" s="192"/>
-      <c r="AB18" s="192"/>
-      <c r="AC18" s="192"/>
-      <c r="AD18" s="192"/>
-      <c r="AE18" s="192"/>
-      <c r="AF18" s="192"/>
-      <c r="AG18" s="192"/>
-      <c r="AH18" s="192"/>
-      <c r="AI18" s="192"/>
-      <c r="AJ18" s="192"/>
-      <c r="AK18" s="194"/>
-      <c r="AL18" s="194"/>
-      <c r="AM18" s="194"/>
-      <c r="AN18" s="194"/>
-      <c r="AO18" s="194"/>
-      <c r="AP18" s="194"/>
-      <c r="AQ18" s="194"/>
-      <c r="AR18" s="194"/>
-      <c r="AS18" s="194"/>
-      <c r="AT18" s="194"/>
-      <c r="AU18" s="194"/>
-      <c r="AV18" s="194"/>
-      <c r="AW18" s="194"/>
-      <c r="AX18" s="194"/>
-      <c r="AY18" s="194"/>
-      <c r="AZ18" s="194"/>
-      <c r="BA18" s="195"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="92"/>
+      <c r="AE18" s="92"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="94"/>
+      <c r="AL18" s="94"/>
+      <c r="AM18" s="94"/>
+      <c r="AN18" s="94"/>
+      <c r="AO18" s="94"/>
+      <c r="AP18" s="94"/>
+      <c r="AQ18" s="94"/>
+      <c r="AR18" s="94"/>
+      <c r="AS18" s="94"/>
+      <c r="AT18" s="94"/>
+      <c r="AU18" s="94"/>
+      <c r="AV18" s="94"/>
+      <c r="AW18" s="94"/>
+      <c r="AX18" s="94"/>
+      <c r="AY18" s="94"/>
+      <c r="AZ18" s="94"/>
+      <c r="BA18" s="95"/>
     </row>
     <row r="19" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B19" s="191"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="192"/>
-      <c r="K19" s="192"/>
-      <c r="L19" s="192"/>
-      <c r="M19" s="192"/>
-      <c r="N19" s="192"/>
-      <c r="O19" s="192"/>
-      <c r="P19" s="192"/>
-      <c r="Q19" s="192"/>
-      <c r="R19" s="192"/>
-      <c r="S19" s="192"/>
-      <c r="T19" s="192"/>
-      <c r="U19" s="192"/>
-      <c r="V19" s="192"/>
-      <c r="W19" s="192"/>
-      <c r="X19" s="192"/>
-      <c r="Y19" s="192"/>
-      <c r="Z19" s="192"/>
-      <c r="AA19" s="192"/>
-      <c r="AB19" s="192"/>
-      <c r="AC19" s="192"/>
-      <c r="AD19" s="192"/>
-      <c r="AE19" s="192"/>
-      <c r="AF19" s="192"/>
-      <c r="AG19" s="192"/>
-      <c r="AH19" s="192"/>
-      <c r="AI19" s="192"/>
-      <c r="AJ19" s="192"/>
-      <c r="AK19" s="194"/>
-      <c r="AL19" s="194"/>
-      <c r="AM19" s="194"/>
-      <c r="AN19" s="194"/>
-      <c r="AO19" s="194"/>
-      <c r="AP19" s="194"/>
-      <c r="AQ19" s="194"/>
-      <c r="AR19" s="194"/>
-      <c r="AS19" s="194"/>
-      <c r="AT19" s="194"/>
-      <c r="AU19" s="194"/>
-      <c r="AV19" s="194"/>
-      <c r="AW19" s="194"/>
-      <c r="AX19" s="194"/>
-      <c r="AY19" s="194"/>
-      <c r="AZ19" s="194"/>
-      <c r="BA19" s="195"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="92"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="92"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="92"/>
+      <c r="AD19" s="92"/>
+      <c r="AE19" s="92"/>
+      <c r="AF19" s="92"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="92"/>
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="94"/>
+      <c r="AL19" s="94"/>
+      <c r="AM19" s="94"/>
+      <c r="AN19" s="94"/>
+      <c r="AO19" s="94"/>
+      <c r="AP19" s="94"/>
+      <c r="AQ19" s="94"/>
+      <c r="AR19" s="94"/>
+      <c r="AS19" s="94"/>
+      <c r="AT19" s="94"/>
+      <c r="AU19" s="94"/>
+      <c r="AV19" s="94"/>
+      <c r="AW19" s="94"/>
+      <c r="AX19" s="94"/>
+      <c r="AY19" s="94"/>
+      <c r="AZ19" s="94"/>
+      <c r="BA19" s="95"/>
     </row>
     <row r="20" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B20" s="191"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="192"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="192"/>
-      <c r="K20" s="192"/>
-      <c r="L20" s="192"/>
-      <c r="M20" s="192"/>
-      <c r="N20" s="192"/>
-      <c r="O20" s="192"/>
-      <c r="P20" s="192"/>
-      <c r="Q20" s="192"/>
-      <c r="R20" s="192"/>
-      <c r="S20" s="192"/>
-      <c r="T20" s="192"/>
-      <c r="U20" s="192"/>
-      <c r="V20" s="192"/>
-      <c r="W20" s="192"/>
-      <c r="X20" s="192"/>
-      <c r="Y20" s="192"/>
-      <c r="Z20" s="192"/>
-      <c r="AA20" s="192"/>
-      <c r="AB20" s="192"/>
-      <c r="AC20" s="192"/>
-      <c r="AD20" s="192"/>
-      <c r="AE20" s="192"/>
-      <c r="AF20" s="192"/>
-      <c r="AG20" s="192"/>
-      <c r="AH20" s="192"/>
-      <c r="AI20" s="192"/>
-      <c r="AJ20" s="192"/>
-      <c r="AK20" s="194"/>
-      <c r="AL20" s="194"/>
-      <c r="AM20" s="194"/>
-      <c r="AN20" s="194"/>
-      <c r="AO20" s="194"/>
-      <c r="AP20" s="194"/>
-      <c r="AQ20" s="194"/>
-      <c r="AR20" s="194"/>
-      <c r="AS20" s="194"/>
-      <c r="AT20" s="194"/>
-      <c r="AU20" s="194"/>
-      <c r="AV20" s="194"/>
-      <c r="AW20" s="194"/>
-      <c r="AX20" s="194"/>
-      <c r="AY20" s="194"/>
-      <c r="AZ20" s="194"/>
-      <c r="BA20" s="195"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="92"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="92"/>
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="92"/>
+      <c r="AD20" s="92"/>
+      <c r="AE20" s="92"/>
+      <c r="AF20" s="92"/>
+      <c r="AG20" s="92"/>
+      <c r="AH20" s="92"/>
+      <c r="AI20" s="92"/>
+      <c r="AJ20" s="92"/>
+      <c r="AK20" s="94"/>
+      <c r="AL20" s="94"/>
+      <c r="AM20" s="94"/>
+      <c r="AN20" s="94"/>
+      <c r="AO20" s="94"/>
+      <c r="AP20" s="94"/>
+      <c r="AQ20" s="94"/>
+      <c r="AR20" s="94"/>
+      <c r="AS20" s="94"/>
+      <c r="AT20" s="94"/>
+      <c r="AU20" s="94"/>
+      <c r="AV20" s="94"/>
+      <c r="AW20" s="94"/>
+      <c r="AX20" s="94"/>
+      <c r="AY20" s="94"/>
+      <c r="AZ20" s="94"/>
+      <c r="BA20" s="95"/>
     </row>
     <row r="21" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B21" s="191"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="192"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="192"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="192"/>
-      <c r="K21" s="192"/>
-      <c r="L21" s="192"/>
-      <c r="M21" s="192"/>
-      <c r="N21" s="192"/>
-      <c r="O21" s="192"/>
-      <c r="P21" s="192"/>
-      <c r="Q21" s="192"/>
-      <c r="R21" s="192"/>
-      <c r="S21" s="192"/>
-      <c r="T21" s="192"/>
-      <c r="U21" s="192"/>
-      <c r="V21" s="192"/>
-      <c r="W21" s="192"/>
-      <c r="X21" s="192"/>
-      <c r="Y21" s="192"/>
-      <c r="Z21" s="192"/>
-      <c r="AA21" s="192"/>
-      <c r="AB21" s="192"/>
-      <c r="AC21" s="192"/>
-      <c r="AD21" s="192"/>
-      <c r="AE21" s="192"/>
-      <c r="AF21" s="192"/>
-      <c r="AG21" s="192"/>
-      <c r="AH21" s="192"/>
-      <c r="AI21" s="192"/>
-      <c r="AJ21" s="192"/>
-      <c r="AK21" s="194"/>
-      <c r="AL21" s="194"/>
-      <c r="AM21" s="194"/>
-      <c r="AN21" s="194"/>
-      <c r="AO21" s="194"/>
-      <c r="AP21" s="194"/>
-      <c r="AQ21" s="194"/>
-      <c r="AR21" s="194"/>
-      <c r="AS21" s="194"/>
-      <c r="AT21" s="194"/>
-      <c r="AU21" s="194"/>
-      <c r="AV21" s="194"/>
-      <c r="AW21" s="194"/>
-      <c r="AX21" s="194"/>
-      <c r="AY21" s="194"/>
-      <c r="AZ21" s="194"/>
-      <c r="BA21" s="195"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="92"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="92"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="92"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="92"/>
+      <c r="AA21" s="92"/>
+      <c r="AB21" s="92"/>
+      <c r="AC21" s="92"/>
+      <c r="AD21" s="92"/>
+      <c r="AE21" s="92"/>
+      <c r="AF21" s="92"/>
+      <c r="AG21" s="92"/>
+      <c r="AH21" s="92"/>
+      <c r="AI21" s="92"/>
+      <c r="AJ21" s="92"/>
+      <c r="AK21" s="94"/>
+      <c r="AL21" s="94"/>
+      <c r="AM21" s="94"/>
+      <c r="AN21" s="94"/>
+      <c r="AO21" s="94"/>
+      <c r="AP21" s="94"/>
+      <c r="AQ21" s="94"/>
+      <c r="AR21" s="94"/>
+      <c r="AS21" s="94"/>
+      <c r="AT21" s="94"/>
+      <c r="AU21" s="94"/>
+      <c r="AV21" s="94"/>
+      <c r="AW21" s="94"/>
+      <c r="AX21" s="94"/>
+      <c r="AY21" s="94"/>
+      <c r="AZ21" s="94"/>
+      <c r="BA21" s="95"/>
     </row>
     <row r="22" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B22" s="191"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="192"/>
-      <c r="E22" s="192"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="192"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="192"/>
-      <c r="K22" s="192"/>
-      <c r="L22" s="192"/>
-      <c r="M22" s="192"/>
-      <c r="N22" s="192"/>
-      <c r="O22" s="192"/>
-      <c r="P22" s="192"/>
-      <c r="Q22" s="192"/>
-      <c r="R22" s="192"/>
-      <c r="S22" s="192"/>
-      <c r="T22" s="192"/>
-      <c r="U22" s="192"/>
-      <c r="V22" s="192"/>
-      <c r="W22" s="192"/>
-      <c r="X22" s="192"/>
-      <c r="Y22" s="192"/>
-      <c r="Z22" s="192"/>
-      <c r="AA22" s="192"/>
-      <c r="AB22" s="192"/>
-      <c r="AC22" s="192"/>
-      <c r="AD22" s="192"/>
-      <c r="AE22" s="192"/>
-      <c r="AF22" s="192"/>
-      <c r="AG22" s="192"/>
-      <c r="AH22" s="192"/>
-      <c r="AI22" s="192"/>
-      <c r="AJ22" s="192"/>
-      <c r="AK22" s="194"/>
-      <c r="AL22" s="194"/>
-      <c r="AM22" s="194"/>
-      <c r="AN22" s="194"/>
-      <c r="AO22" s="194"/>
-      <c r="AP22" s="194"/>
-      <c r="AQ22" s="194"/>
-      <c r="AR22" s="194"/>
-      <c r="AS22" s="194"/>
-      <c r="AT22" s="194"/>
-      <c r="AU22" s="194"/>
-      <c r="AV22" s="194"/>
-      <c r="AW22" s="194"/>
-      <c r="AX22" s="194"/>
-      <c r="AY22" s="194"/>
-      <c r="AZ22" s="194"/>
-      <c r="BA22" s="195"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="92"/>
+      <c r="AB22" s="92"/>
+      <c r="AC22" s="92"/>
+      <c r="AD22" s="92"/>
+      <c r="AE22" s="92"/>
+      <c r="AF22" s="92"/>
+      <c r="AG22" s="92"/>
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="92"/>
+      <c r="AJ22" s="92"/>
+      <c r="AK22" s="94"/>
+      <c r="AL22" s="94"/>
+      <c r="AM22" s="94"/>
+      <c r="AN22" s="94"/>
+      <c r="AO22" s="94"/>
+      <c r="AP22" s="94"/>
+      <c r="AQ22" s="94"/>
+      <c r="AR22" s="94"/>
+      <c r="AS22" s="94"/>
+      <c r="AT22" s="94"/>
+      <c r="AU22" s="94"/>
+      <c r="AV22" s="94"/>
+      <c r="AW22" s="94"/>
+      <c r="AX22" s="94"/>
+      <c r="AY22" s="94"/>
+      <c r="AZ22" s="94"/>
+      <c r="BA22" s="95"/>
     </row>
     <row r="23" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B23" s="191"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="192"/>
-      <c r="K23" s="192"/>
-      <c r="L23" s="192"/>
-      <c r="M23" s="192"/>
-      <c r="N23" s="192"/>
-      <c r="O23" s="192"/>
-      <c r="P23" s="192"/>
-      <c r="Q23" s="192"/>
-      <c r="R23" s="192"/>
-      <c r="S23" s="192"/>
-      <c r="T23" s="192"/>
-      <c r="U23" s="192"/>
-      <c r="V23" s="192"/>
-      <c r="W23" s="192"/>
-      <c r="X23" s="192"/>
-      <c r="Y23" s="192"/>
-      <c r="Z23" s="192"/>
-      <c r="AA23" s="192"/>
-      <c r="AB23" s="192"/>
-      <c r="AC23" s="192"/>
-      <c r="AD23" s="192"/>
-      <c r="AE23" s="192"/>
-      <c r="AF23" s="192"/>
-      <c r="AG23" s="192"/>
-      <c r="AH23" s="192"/>
-      <c r="AI23" s="192"/>
-      <c r="AJ23" s="192"/>
-      <c r="AK23" s="194"/>
-      <c r="AL23" s="194"/>
-      <c r="AM23" s="194"/>
-      <c r="AN23" s="194"/>
-      <c r="AO23" s="194"/>
-      <c r="AP23" s="194"/>
-      <c r="AQ23" s="194"/>
-      <c r="AR23" s="194"/>
-      <c r="AS23" s="194"/>
-      <c r="AT23" s="194"/>
-      <c r="AU23" s="194"/>
-      <c r="AV23" s="194"/>
-      <c r="AW23" s="194"/>
-      <c r="AX23" s="194"/>
-      <c r="AY23" s="194"/>
-      <c r="AZ23" s="194"/>
-      <c r="BA23" s="195"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="92"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="92"/>
+      <c r="V23" s="92"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="92"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="92"/>
+      <c r="AB23" s="92"/>
+      <c r="AC23" s="92"/>
+      <c r="AD23" s="92"/>
+      <c r="AE23" s="92"/>
+      <c r="AF23" s="92"/>
+      <c r="AG23" s="92"/>
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="92"/>
+      <c r="AJ23" s="92"/>
+      <c r="AK23" s="94"/>
+      <c r="AL23" s="94"/>
+      <c r="AM23" s="94"/>
+      <c r="AN23" s="94"/>
+      <c r="AO23" s="94"/>
+      <c r="AP23" s="94"/>
+      <c r="AQ23" s="94"/>
+      <c r="AR23" s="94"/>
+      <c r="AS23" s="94"/>
+      <c r="AT23" s="94"/>
+      <c r="AU23" s="94"/>
+      <c r="AV23" s="94"/>
+      <c r="AW23" s="94"/>
+      <c r="AX23" s="94"/>
+      <c r="AY23" s="94"/>
+      <c r="AZ23" s="94"/>
+      <c r="BA23" s="95"/>
     </row>
     <row r="24" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B24" s="191"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="192"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="192"/>
-      <c r="K24" s="192"/>
-      <c r="L24" s="192"/>
-      <c r="M24" s="192"/>
-      <c r="N24" s="192"/>
-      <c r="O24" s="192"/>
-      <c r="P24" s="192"/>
-      <c r="Q24" s="192"/>
-      <c r="R24" s="192"/>
-      <c r="S24" s="192"/>
-      <c r="T24" s="192"/>
-      <c r="U24" s="192"/>
-      <c r="V24" s="192"/>
-      <c r="W24" s="192"/>
-      <c r="X24" s="192"/>
-      <c r="Y24" s="192"/>
-      <c r="Z24" s="192"/>
-      <c r="AA24" s="192"/>
-      <c r="AB24" s="192"/>
-      <c r="AC24" s="192"/>
-      <c r="AD24" s="192"/>
-      <c r="AE24" s="192"/>
-      <c r="AF24" s="192"/>
-      <c r="AG24" s="192"/>
-      <c r="AH24" s="192"/>
-      <c r="AI24" s="192"/>
-      <c r="AJ24" s="192"/>
-      <c r="AK24" s="194"/>
-      <c r="AL24" s="194"/>
-      <c r="AM24" s="194"/>
-      <c r="AN24" s="194"/>
-      <c r="AO24" s="194"/>
-      <c r="AP24" s="194"/>
-      <c r="AQ24" s="194"/>
-      <c r="AR24" s="194"/>
-      <c r="AS24" s="194"/>
-      <c r="AT24" s="194"/>
-      <c r="AU24" s="194"/>
-      <c r="AV24" s="194"/>
-      <c r="AW24" s="194"/>
-      <c r="AX24" s="194"/>
-      <c r="AY24" s="194"/>
-      <c r="AZ24" s="194"/>
-      <c r="BA24" s="195"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="92"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="92"/>
+      <c r="AD24" s="92"/>
+      <c r="AE24" s="92"/>
+      <c r="AF24" s="92"/>
+      <c r="AG24" s="92"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="92"/>
+      <c r="AJ24" s="92"/>
+      <c r="AK24" s="94"/>
+      <c r="AL24" s="94"/>
+      <c r="AM24" s="94"/>
+      <c r="AN24" s="94"/>
+      <c r="AO24" s="94"/>
+      <c r="AP24" s="94"/>
+      <c r="AQ24" s="94"/>
+      <c r="AR24" s="94"/>
+      <c r="AS24" s="94"/>
+      <c r="AT24" s="94"/>
+      <c r="AU24" s="94"/>
+      <c r="AV24" s="94"/>
+      <c r="AW24" s="94"/>
+      <c r="AX24" s="94"/>
+      <c r="AY24" s="94"/>
+      <c r="AZ24" s="94"/>
+      <c r="BA24" s="95"/>
     </row>
     <row r="25" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B25" s="191"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="192"/>
-      <c r="K25" s="192"/>
-      <c r="L25" s="192"/>
-      <c r="M25" s="192"/>
-      <c r="N25" s="192"/>
-      <c r="O25" s="192"/>
-      <c r="P25" s="192"/>
-      <c r="Q25" s="192"/>
-      <c r="R25" s="192"/>
-      <c r="S25" s="192"/>
-      <c r="T25" s="192"/>
-      <c r="U25" s="192"/>
-      <c r="V25" s="192"/>
-      <c r="W25" s="192"/>
-      <c r="X25" s="192"/>
-      <c r="Y25" s="192"/>
-      <c r="Z25" s="192"/>
-      <c r="AA25" s="192"/>
-      <c r="AB25" s="192"/>
-      <c r="AC25" s="192"/>
-      <c r="AD25" s="192"/>
-      <c r="AE25" s="192"/>
-      <c r="AF25" s="192"/>
-      <c r="AG25" s="192"/>
-      <c r="AH25" s="192"/>
-      <c r="AI25" s="192"/>
-      <c r="AJ25" s="192"/>
-      <c r="AK25" s="194"/>
-      <c r="AL25" s="194"/>
-      <c r="AM25" s="194"/>
-      <c r="AN25" s="194"/>
-      <c r="AO25" s="194"/>
-      <c r="AP25" s="194"/>
-      <c r="AQ25" s="194"/>
-      <c r="AR25" s="194"/>
-      <c r="AS25" s="194"/>
-      <c r="AT25" s="194"/>
-      <c r="AU25" s="194"/>
-      <c r="AV25" s="194"/>
-      <c r="AW25" s="194"/>
-      <c r="AX25" s="194"/>
-      <c r="AY25" s="194"/>
-      <c r="AZ25" s="194"/>
-      <c r="BA25" s="195"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="92"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="92"/>
+      <c r="Y25" s="92"/>
+      <c r="Z25" s="92"/>
+      <c r="AA25" s="92"/>
+      <c r="AB25" s="92"/>
+      <c r="AC25" s="92"/>
+      <c r="AD25" s="92"/>
+      <c r="AE25" s="92"/>
+      <c r="AF25" s="92"/>
+      <c r="AG25" s="92"/>
+      <c r="AH25" s="92"/>
+      <c r="AI25" s="92"/>
+      <c r="AJ25" s="92"/>
+      <c r="AK25" s="94"/>
+      <c r="AL25" s="94"/>
+      <c r="AM25" s="94"/>
+      <c r="AN25" s="94"/>
+      <c r="AO25" s="94"/>
+      <c r="AP25" s="94"/>
+      <c r="AQ25" s="94"/>
+      <c r="AR25" s="94"/>
+      <c r="AS25" s="94"/>
+      <c r="AT25" s="94"/>
+      <c r="AU25" s="94"/>
+      <c r="AV25" s="94"/>
+      <c r="AW25" s="94"/>
+      <c r="AX25" s="94"/>
+      <c r="AY25" s="94"/>
+      <c r="AZ25" s="94"/>
+      <c r="BA25" s="95"/>
     </row>
     <row r="26" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B26" s="191"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="192"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="192"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="192"/>
-      <c r="K26" s="192"/>
-      <c r="L26" s="192"/>
-      <c r="M26" s="192"/>
-      <c r="N26" s="192"/>
-      <c r="O26" s="192"/>
-      <c r="P26" s="192"/>
-      <c r="Q26" s="192"/>
-      <c r="R26" s="192"/>
-      <c r="S26" s="192"/>
-      <c r="T26" s="192"/>
-      <c r="U26" s="192"/>
-      <c r="V26" s="192"/>
-      <c r="W26" s="192"/>
-      <c r="X26" s="192"/>
-      <c r="Y26" s="192"/>
-      <c r="Z26" s="192"/>
-      <c r="AA26" s="192"/>
-      <c r="AB26" s="192"/>
-      <c r="AC26" s="192"/>
-      <c r="AD26" s="192"/>
-      <c r="AE26" s="192"/>
-      <c r="AF26" s="192"/>
-      <c r="AG26" s="192"/>
-      <c r="AH26" s="192"/>
-      <c r="AI26" s="192"/>
-      <c r="AJ26" s="192"/>
-      <c r="AK26" s="194"/>
-      <c r="AL26" s="194"/>
-      <c r="AM26" s="194"/>
-      <c r="AN26" s="194"/>
-      <c r="AO26" s="194"/>
-      <c r="AP26" s="194"/>
-      <c r="AQ26" s="194"/>
-      <c r="AR26" s="194"/>
-      <c r="AS26" s="194"/>
-      <c r="AT26" s="194"/>
-      <c r="AU26" s="194"/>
-      <c r="AV26" s="194"/>
-      <c r="AW26" s="194"/>
-      <c r="AX26" s="194"/>
-      <c r="AY26" s="194"/>
-      <c r="AZ26" s="194"/>
-      <c r="BA26" s="195"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="92"/>
+      <c r="Y26" s="92"/>
+      <c r="Z26" s="92"/>
+      <c r="AA26" s="92"/>
+      <c r="AB26" s="92"/>
+      <c r="AC26" s="92"/>
+      <c r="AD26" s="92"/>
+      <c r="AE26" s="92"/>
+      <c r="AF26" s="92"/>
+      <c r="AG26" s="92"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="92"/>
+      <c r="AJ26" s="92"/>
+      <c r="AK26" s="94"/>
+      <c r="AL26" s="94"/>
+      <c r="AM26" s="94"/>
+      <c r="AN26" s="94"/>
+      <c r="AO26" s="94"/>
+      <c r="AP26" s="94"/>
+      <c r="AQ26" s="94"/>
+      <c r="AR26" s="94"/>
+      <c r="AS26" s="94"/>
+      <c r="AT26" s="94"/>
+      <c r="AU26" s="94"/>
+      <c r="AV26" s="94"/>
+      <c r="AW26" s="94"/>
+      <c r="AX26" s="94"/>
+      <c r="AY26" s="94"/>
+      <c r="AZ26" s="94"/>
+      <c r="BA26" s="95"/>
     </row>
     <row r="27" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B27" s="191"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="192"/>
-      <c r="H27" s="192"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="192"/>
-      <c r="K27" s="192"/>
-      <c r="L27" s="192"/>
-      <c r="M27" s="192"/>
-      <c r="N27" s="192"/>
-      <c r="O27" s="192"/>
-      <c r="P27" s="192"/>
-      <c r="Q27" s="192"/>
-      <c r="R27" s="192"/>
-      <c r="S27" s="192"/>
-      <c r="T27" s="192"/>
-      <c r="U27" s="192"/>
-      <c r="V27" s="192"/>
-      <c r="W27" s="192"/>
-      <c r="X27" s="192"/>
-      <c r="Y27" s="192"/>
-      <c r="Z27" s="192"/>
-      <c r="AA27" s="192"/>
-      <c r="AB27" s="192"/>
-      <c r="AC27" s="192"/>
-      <c r="AD27" s="192"/>
-      <c r="AE27" s="192"/>
-      <c r="AF27" s="192"/>
-      <c r="AG27" s="192"/>
-      <c r="AH27" s="192"/>
-      <c r="AI27" s="192"/>
-      <c r="AJ27" s="192"/>
-      <c r="AK27" s="194"/>
-      <c r="AL27" s="194"/>
-      <c r="AM27" s="194"/>
-      <c r="AN27" s="194"/>
-      <c r="AO27" s="194"/>
-      <c r="AP27" s="194"/>
-      <c r="AQ27" s="194"/>
-      <c r="AR27" s="194"/>
-      <c r="AS27" s="194"/>
-      <c r="AT27" s="194"/>
-      <c r="AU27" s="194"/>
-      <c r="AV27" s="194"/>
-      <c r="AW27" s="194"/>
-      <c r="AX27" s="194"/>
-      <c r="AY27" s="194"/>
-      <c r="AZ27" s="194"/>
-      <c r="BA27" s="195"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="92"/>
+      <c r="Y27" s="92"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="92"/>
+      <c r="AB27" s="92"/>
+      <c r="AC27" s="92"/>
+      <c r="AD27" s="92"/>
+      <c r="AE27" s="92"/>
+      <c r="AF27" s="92"/>
+      <c r="AG27" s="92"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="92"/>
+      <c r="AJ27" s="92"/>
+      <c r="AK27" s="94"/>
+      <c r="AL27" s="94"/>
+      <c r="AM27" s="94"/>
+      <c r="AN27" s="94"/>
+      <c r="AO27" s="94"/>
+      <c r="AP27" s="94"/>
+      <c r="AQ27" s="94"/>
+      <c r="AR27" s="94"/>
+      <c r="AS27" s="94"/>
+      <c r="AT27" s="94"/>
+      <c r="AU27" s="94"/>
+      <c r="AV27" s="94"/>
+      <c r="AW27" s="94"/>
+      <c r="AX27" s="94"/>
+      <c r="AY27" s="94"/>
+      <c r="AZ27" s="94"/>
+      <c r="BA27" s="95"/>
     </row>
     <row r="28" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B28" s="191"/>
-      <c r="C28" s="192"/>
-      <c r="D28" s="192"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="192"/>
-      <c r="G28" s="192"/>
-      <c r="H28" s="192"/>
-      <c r="I28" s="192"/>
-      <c r="J28" s="192"/>
-      <c r="K28" s="192"/>
-      <c r="L28" s="192"/>
-      <c r="M28" s="192"/>
-      <c r="N28" s="192"/>
-      <c r="O28" s="192"/>
-      <c r="P28" s="192"/>
-      <c r="Q28" s="192"/>
-      <c r="R28" s="192"/>
-      <c r="S28" s="192"/>
-      <c r="T28" s="192"/>
-      <c r="U28" s="192"/>
-      <c r="V28" s="192"/>
-      <c r="W28" s="192"/>
-      <c r="X28" s="192"/>
-      <c r="Y28" s="192"/>
-      <c r="Z28" s="192"/>
-      <c r="AA28" s="192"/>
-      <c r="AB28" s="192"/>
-      <c r="AC28" s="192"/>
-      <c r="AD28" s="192"/>
-      <c r="AE28" s="192"/>
-      <c r="AF28" s="192"/>
-      <c r="AG28" s="192"/>
-      <c r="AH28" s="192"/>
-      <c r="AI28" s="192"/>
-      <c r="AJ28" s="192"/>
-      <c r="AK28" s="194"/>
-      <c r="AL28" s="194"/>
-      <c r="AM28" s="194"/>
-      <c r="AN28" s="194"/>
-      <c r="AO28" s="194"/>
-      <c r="AP28" s="194"/>
-      <c r="AQ28" s="194"/>
-      <c r="AR28" s="194"/>
-      <c r="AS28" s="194"/>
-      <c r="AT28" s="194"/>
-      <c r="AU28" s="194"/>
-      <c r="AV28" s="194"/>
-      <c r="AW28" s="194"/>
-      <c r="AX28" s="194"/>
-      <c r="AY28" s="194"/>
-      <c r="AZ28" s="194"/>
-      <c r="BA28" s="195"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="92"/>
+      <c r="Y28" s="92"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="92"/>
+      <c r="AB28" s="92"/>
+      <c r="AC28" s="92"/>
+      <c r="AD28" s="92"/>
+      <c r="AE28" s="92"/>
+      <c r="AF28" s="92"/>
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="92"/>
+      <c r="AI28" s="92"/>
+      <c r="AJ28" s="92"/>
+      <c r="AK28" s="94"/>
+      <c r="AL28" s="94"/>
+      <c r="AM28" s="94"/>
+      <c r="AN28" s="94"/>
+      <c r="AO28" s="94"/>
+      <c r="AP28" s="94"/>
+      <c r="AQ28" s="94"/>
+      <c r="AR28" s="94"/>
+      <c r="AS28" s="94"/>
+      <c r="AT28" s="94"/>
+      <c r="AU28" s="94"/>
+      <c r="AV28" s="94"/>
+      <c r="AW28" s="94"/>
+      <c r="AX28" s="94"/>
+      <c r="AY28" s="94"/>
+      <c r="AZ28" s="94"/>
+      <c r="BA28" s="95"/>
     </row>
     <row r="29" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B29" s="191"/>
-      <c r="C29" s="192"/>
-      <c r="D29" s="192"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="192"/>
-      <c r="H29" s="192"/>
-      <c r="I29" s="192"/>
-      <c r="J29" s="192"/>
-      <c r="K29" s="192"/>
-      <c r="L29" s="192"/>
-      <c r="M29" s="192"/>
-      <c r="N29" s="192"/>
-      <c r="O29" s="192"/>
-      <c r="P29" s="192"/>
-      <c r="Q29" s="192"/>
-      <c r="R29" s="192"/>
-      <c r="S29" s="192"/>
-      <c r="T29" s="192"/>
-      <c r="U29" s="192"/>
-      <c r="V29" s="192"/>
-      <c r="W29" s="192"/>
-      <c r="X29" s="192"/>
-      <c r="Y29" s="192"/>
-      <c r="Z29" s="192"/>
-      <c r="AA29" s="192"/>
-      <c r="AB29" s="192"/>
-      <c r="AC29" s="192"/>
-      <c r="AD29" s="192"/>
-      <c r="AE29" s="192"/>
-      <c r="AF29" s="192"/>
-      <c r="AG29" s="192"/>
-      <c r="AH29" s="192"/>
-      <c r="AI29" s="192"/>
-      <c r="AJ29" s="192"/>
-      <c r="AK29" s="194"/>
-      <c r="AL29" s="194"/>
-      <c r="AM29" s="194"/>
-      <c r="AN29" s="194"/>
-      <c r="AO29" s="194"/>
-      <c r="AP29" s="194"/>
-      <c r="AQ29" s="194"/>
-      <c r="AR29" s="194"/>
-      <c r="AS29" s="194"/>
-      <c r="AT29" s="194"/>
-      <c r="AU29" s="194"/>
-      <c r="AV29" s="194"/>
-      <c r="AW29" s="194"/>
-      <c r="AX29" s="194"/>
-      <c r="AY29" s="194"/>
-      <c r="AZ29" s="194"/>
-      <c r="BA29" s="195"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="92"/>
+      <c r="V29" s="92"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="92"/>
+      <c r="Y29" s="92"/>
+      <c r="Z29" s="92"/>
+      <c r="AA29" s="92"/>
+      <c r="AB29" s="92"/>
+      <c r="AC29" s="92"/>
+      <c r="AD29" s="92"/>
+      <c r="AE29" s="92"/>
+      <c r="AF29" s="92"/>
+      <c r="AG29" s="92"/>
+      <c r="AH29" s="92"/>
+      <c r="AI29" s="92"/>
+      <c r="AJ29" s="92"/>
+      <c r="AK29" s="94"/>
+      <c r="AL29" s="94"/>
+      <c r="AM29" s="94"/>
+      <c r="AN29" s="94"/>
+      <c r="AO29" s="94"/>
+      <c r="AP29" s="94"/>
+      <c r="AQ29" s="94"/>
+      <c r="AR29" s="94"/>
+      <c r="AS29" s="94"/>
+      <c r="AT29" s="94"/>
+      <c r="AU29" s="94"/>
+      <c r="AV29" s="94"/>
+      <c r="AW29" s="94"/>
+      <c r="AX29" s="94"/>
+      <c r="AY29" s="94"/>
+      <c r="AZ29" s="94"/>
+      <c r="BA29" s="95"/>
     </row>
     <row r="30" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B30" s="191"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="192"/>
-      <c r="E30" s="192"/>
-      <c r="F30" s="192"/>
-      <c r="G30" s="192"/>
-      <c r="H30" s="192"/>
-      <c r="I30" s="192"/>
-      <c r="J30" s="192"/>
-      <c r="K30" s="192"/>
-      <c r="L30" s="192"/>
-      <c r="M30" s="192"/>
-      <c r="N30" s="192"/>
-      <c r="O30" s="192"/>
-      <c r="P30" s="192"/>
-      <c r="Q30" s="192"/>
-      <c r="R30" s="192"/>
-      <c r="S30" s="192"/>
-      <c r="T30" s="192"/>
-      <c r="U30" s="192"/>
-      <c r="V30" s="192"/>
-      <c r="W30" s="192"/>
-      <c r="X30" s="192"/>
-      <c r="Y30" s="192"/>
-      <c r="Z30" s="192"/>
-      <c r="AA30" s="192"/>
-      <c r="AB30" s="192"/>
-      <c r="AC30" s="192"/>
-      <c r="AD30" s="192"/>
-      <c r="AE30" s="192"/>
-      <c r="AF30" s="192"/>
-      <c r="AG30" s="192"/>
-      <c r="AH30" s="192"/>
-      <c r="AI30" s="192"/>
-      <c r="AJ30" s="192"/>
-      <c r="AK30" s="194"/>
-      <c r="AL30" s="194"/>
-      <c r="AM30" s="194"/>
-      <c r="AN30" s="194"/>
-      <c r="AO30" s="194"/>
-      <c r="AP30" s="194"/>
-      <c r="AQ30" s="194"/>
-      <c r="AR30" s="194"/>
-      <c r="AS30" s="194"/>
-      <c r="AT30" s="194"/>
-      <c r="AU30" s="194"/>
-      <c r="AV30" s="194"/>
-      <c r="AW30" s="194"/>
-      <c r="AX30" s="194"/>
-      <c r="AY30" s="194"/>
-      <c r="AZ30" s="194"/>
-      <c r="BA30" s="195"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="92"/>
+      <c r="Z30" s="92"/>
+      <c r="AA30" s="92"/>
+      <c r="AB30" s="92"/>
+      <c r="AC30" s="92"/>
+      <c r="AD30" s="92"/>
+      <c r="AE30" s="92"/>
+      <c r="AF30" s="92"/>
+      <c r="AG30" s="92"/>
+      <c r="AH30" s="92"/>
+      <c r="AI30" s="92"/>
+      <c r="AJ30" s="92"/>
+      <c r="AK30" s="94"/>
+      <c r="AL30" s="94"/>
+      <c r="AM30" s="94"/>
+      <c r="AN30" s="94"/>
+      <c r="AO30" s="94"/>
+      <c r="AP30" s="94"/>
+      <c r="AQ30" s="94"/>
+      <c r="AR30" s="94"/>
+      <c r="AS30" s="94"/>
+      <c r="AT30" s="94"/>
+      <c r="AU30" s="94"/>
+      <c r="AV30" s="94"/>
+      <c r="AW30" s="94"/>
+      <c r="AX30" s="94"/>
+      <c r="AY30" s="94"/>
+      <c r="AZ30" s="94"/>
+      <c r="BA30" s="95"/>
     </row>
     <row r="31" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B31" s="191"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="192"/>
-      <c r="E31" s="192"/>
-      <c r="F31" s="192"/>
-      <c r="G31" s="192"/>
-      <c r="H31" s="192"/>
-      <c r="I31" s="192"/>
-      <c r="J31" s="192"/>
-      <c r="K31" s="192"/>
-      <c r="L31" s="192"/>
-      <c r="M31" s="192"/>
-      <c r="N31" s="192"/>
-      <c r="O31" s="192"/>
-      <c r="P31" s="192"/>
-      <c r="Q31" s="192"/>
-      <c r="R31" s="192"/>
-      <c r="S31" s="192"/>
-      <c r="T31" s="192"/>
-      <c r="U31" s="192"/>
-      <c r="V31" s="192"/>
-      <c r="W31" s="192"/>
-      <c r="X31" s="192"/>
-      <c r="Y31" s="192"/>
-      <c r="Z31" s="192"/>
-      <c r="AA31" s="192"/>
-      <c r="AB31" s="192"/>
-      <c r="AC31" s="192"/>
-      <c r="AD31" s="192"/>
-      <c r="AE31" s="192"/>
-      <c r="AF31" s="192"/>
-      <c r="AG31" s="192"/>
-      <c r="AH31" s="192"/>
-      <c r="AI31" s="192"/>
-      <c r="AJ31" s="192"/>
-      <c r="AK31" s="194"/>
-      <c r="AL31" s="194"/>
-      <c r="AM31" s="194"/>
-      <c r="AN31" s="194"/>
-      <c r="AO31" s="194"/>
-      <c r="AP31" s="194"/>
-      <c r="AQ31" s="194"/>
-      <c r="AR31" s="194"/>
-      <c r="AS31" s="194"/>
-      <c r="AT31" s="194"/>
-      <c r="AU31" s="194"/>
-      <c r="AV31" s="194"/>
-      <c r="AW31" s="194"/>
-      <c r="AX31" s="194"/>
-      <c r="AY31" s="194"/>
-      <c r="AZ31" s="194"/>
-      <c r="BA31" s="195"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="92"/>
+      <c r="X31" s="92"/>
+      <c r="Y31" s="92"/>
+      <c r="Z31" s="92"/>
+      <c r="AA31" s="92"/>
+      <c r="AB31" s="92"/>
+      <c r="AC31" s="92"/>
+      <c r="AD31" s="92"/>
+      <c r="AE31" s="92"/>
+      <c r="AF31" s="92"/>
+      <c r="AG31" s="92"/>
+      <c r="AH31" s="92"/>
+      <c r="AI31" s="92"/>
+      <c r="AJ31" s="92"/>
+      <c r="AK31" s="94"/>
+      <c r="AL31" s="94"/>
+      <c r="AM31" s="94"/>
+      <c r="AN31" s="94"/>
+      <c r="AO31" s="94"/>
+      <c r="AP31" s="94"/>
+      <c r="AQ31" s="94"/>
+      <c r="AR31" s="94"/>
+      <c r="AS31" s="94"/>
+      <c r="AT31" s="94"/>
+      <c r="AU31" s="94"/>
+      <c r="AV31" s="94"/>
+      <c r="AW31" s="94"/>
+      <c r="AX31" s="94"/>
+      <c r="AY31" s="94"/>
+      <c r="AZ31" s="94"/>
+      <c r="BA31" s="95"/>
     </row>
     <row r="32" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B32" s="191"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="192"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="192"/>
-      <c r="H32" s="192"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="192"/>
-      <c r="K32" s="192"/>
-      <c r="L32" s="192"/>
-      <c r="M32" s="192"/>
-      <c r="N32" s="192"/>
-      <c r="O32" s="192"/>
-      <c r="P32" s="192"/>
-      <c r="Q32" s="192"/>
-      <c r="R32" s="192"/>
-      <c r="S32" s="192"/>
-      <c r="T32" s="192"/>
-      <c r="U32" s="192"/>
-      <c r="V32" s="192"/>
-      <c r="W32" s="192"/>
-      <c r="X32" s="192"/>
-      <c r="Y32" s="192"/>
-      <c r="Z32" s="192"/>
-      <c r="AA32" s="192"/>
-      <c r="AB32" s="192"/>
-      <c r="AC32" s="192"/>
-      <c r="AD32" s="192"/>
-      <c r="AE32" s="192"/>
-      <c r="AF32" s="192"/>
-      <c r="AG32" s="192"/>
-      <c r="AH32" s="192"/>
-      <c r="AI32" s="192"/>
-      <c r="AJ32" s="192"/>
-      <c r="AK32" s="194"/>
-      <c r="AL32" s="194"/>
-      <c r="AM32" s="194"/>
-      <c r="AN32" s="194"/>
-      <c r="AO32" s="194"/>
-      <c r="AP32" s="194"/>
-      <c r="AQ32" s="194"/>
-      <c r="AR32" s="194"/>
-      <c r="AS32" s="194"/>
-      <c r="AT32" s="194"/>
-      <c r="AU32" s="194"/>
-      <c r="AV32" s="194"/>
-      <c r="AW32" s="194"/>
-      <c r="AX32" s="194"/>
-      <c r="AY32" s="194"/>
-      <c r="AZ32" s="194"/>
-      <c r="BA32" s="195"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="92"/>
+      <c r="Z32" s="92"/>
+      <c r="AA32" s="92"/>
+      <c r="AB32" s="92"/>
+      <c r="AC32" s="92"/>
+      <c r="AD32" s="92"/>
+      <c r="AE32" s="92"/>
+      <c r="AF32" s="92"/>
+      <c r="AG32" s="92"/>
+      <c r="AH32" s="92"/>
+      <c r="AI32" s="92"/>
+      <c r="AJ32" s="92"/>
+      <c r="AK32" s="94"/>
+      <c r="AL32" s="94"/>
+      <c r="AM32" s="94"/>
+      <c r="AN32" s="94"/>
+      <c r="AO32" s="94"/>
+      <c r="AP32" s="94"/>
+      <c r="AQ32" s="94"/>
+      <c r="AR32" s="94"/>
+      <c r="AS32" s="94"/>
+      <c r="AT32" s="94"/>
+      <c r="AU32" s="94"/>
+      <c r="AV32" s="94"/>
+      <c r="AW32" s="94"/>
+      <c r="AX32" s="94"/>
+      <c r="AY32" s="94"/>
+      <c r="AZ32" s="94"/>
+      <c r="BA32" s="95"/>
     </row>
     <row r="33" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B33" s="191"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="192"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="192"/>
-      <c r="K33" s="192"/>
-      <c r="L33" s="192"/>
-      <c r="M33" s="192"/>
-      <c r="N33" s="192"/>
-      <c r="O33" s="192"/>
-      <c r="P33" s="192"/>
-      <c r="Q33" s="192"/>
-      <c r="R33" s="192"/>
-      <c r="S33" s="192"/>
-      <c r="T33" s="192"/>
-      <c r="U33" s="192"/>
-      <c r="V33" s="192"/>
-      <c r="W33" s="192"/>
-      <c r="X33" s="192"/>
-      <c r="Y33" s="192"/>
-      <c r="Z33" s="192"/>
-      <c r="AA33" s="192"/>
-      <c r="AB33" s="192"/>
-      <c r="AC33" s="192"/>
-      <c r="AD33" s="192"/>
-      <c r="AE33" s="192"/>
-      <c r="AF33" s="192"/>
-      <c r="AG33" s="192"/>
-      <c r="AH33" s="192"/>
-      <c r="AI33" s="192"/>
-      <c r="AJ33" s="192"/>
-      <c r="AK33" s="194"/>
-      <c r="AL33" s="194"/>
-      <c r="AM33" s="194"/>
-      <c r="AN33" s="194"/>
-      <c r="AO33" s="194"/>
-      <c r="AP33" s="194"/>
-      <c r="AQ33" s="194"/>
-      <c r="AR33" s="194"/>
-      <c r="AS33" s="194"/>
-      <c r="AT33" s="194"/>
-      <c r="AU33" s="194"/>
-      <c r="AV33" s="194"/>
-      <c r="AW33" s="194"/>
-      <c r="AX33" s="194"/>
-      <c r="AY33" s="194"/>
-      <c r="AZ33" s="194"/>
-      <c r="BA33" s="195"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="92"/>
+      <c r="V33" s="92"/>
+      <c r="W33" s="92"/>
+      <c r="X33" s="92"/>
+      <c r="Y33" s="92"/>
+      <c r="Z33" s="92"/>
+      <c r="AA33" s="92"/>
+      <c r="AB33" s="92"/>
+      <c r="AC33" s="92"/>
+      <c r="AD33" s="92"/>
+      <c r="AE33" s="92"/>
+      <c r="AF33" s="92"/>
+      <c r="AG33" s="92"/>
+      <c r="AH33" s="92"/>
+      <c r="AI33" s="92"/>
+      <c r="AJ33" s="92"/>
+      <c r="AK33" s="94"/>
+      <c r="AL33" s="94"/>
+      <c r="AM33" s="94"/>
+      <c r="AN33" s="94"/>
+      <c r="AO33" s="94"/>
+      <c r="AP33" s="94"/>
+      <c r="AQ33" s="94"/>
+      <c r="AR33" s="94"/>
+      <c r="AS33" s="94"/>
+      <c r="AT33" s="94"/>
+      <c r="AU33" s="94"/>
+      <c r="AV33" s="94"/>
+      <c r="AW33" s="94"/>
+      <c r="AX33" s="94"/>
+      <c r="AY33" s="94"/>
+      <c r="AZ33" s="94"/>
+      <c r="BA33" s="95"/>
     </row>
     <row r="34" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B34" s="191"/>
-      <c r="C34" s="192"/>
-      <c r="D34" s="192"/>
-      <c r="E34" s="192"/>
-      <c r="F34" s="192"/>
-      <c r="G34" s="192"/>
-      <c r="H34" s="192"/>
-      <c r="I34" s="192"/>
-      <c r="J34" s="192"/>
-      <c r="K34" s="192"/>
-      <c r="L34" s="192"/>
-      <c r="M34" s="192"/>
-      <c r="N34" s="192"/>
-      <c r="O34" s="192"/>
-      <c r="P34" s="192"/>
-      <c r="Q34" s="192"/>
-      <c r="R34" s="192"/>
-      <c r="S34" s="192"/>
-      <c r="T34" s="192"/>
-      <c r="U34" s="192"/>
-      <c r="V34" s="192"/>
-      <c r="W34" s="192"/>
-      <c r="X34" s="192"/>
-      <c r="Y34" s="192"/>
-      <c r="Z34" s="192"/>
-      <c r="AA34" s="192"/>
-      <c r="AB34" s="192"/>
-      <c r="AC34" s="192"/>
-      <c r="AD34" s="192"/>
-      <c r="AE34" s="192"/>
-      <c r="AF34" s="192"/>
-      <c r="AG34" s="192"/>
-      <c r="AH34" s="192"/>
-      <c r="AI34" s="192"/>
-      <c r="AJ34" s="192"/>
-      <c r="AK34" s="194"/>
-      <c r="AL34" s="194"/>
-      <c r="AM34" s="194"/>
-      <c r="AN34" s="194"/>
-      <c r="AO34" s="194"/>
-      <c r="AP34" s="194"/>
-      <c r="AQ34" s="194"/>
-      <c r="AR34" s="194"/>
-      <c r="AS34" s="194"/>
-      <c r="AT34" s="194"/>
-      <c r="AU34" s="194"/>
-      <c r="AV34" s="194"/>
-      <c r="AW34" s="194"/>
-      <c r="AX34" s="194"/>
-      <c r="AY34" s="194"/>
-      <c r="AZ34" s="194"/>
-      <c r="BA34" s="195"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="92"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="92"/>
+      <c r="Q34" s="92"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="92"/>
+      <c r="T34" s="92"/>
+      <c r="U34" s="92"/>
+      <c r="V34" s="92"/>
+      <c r="W34" s="92"/>
+      <c r="X34" s="92"/>
+      <c r="Y34" s="92"/>
+      <c r="Z34" s="92"/>
+      <c r="AA34" s="92"/>
+      <c r="AB34" s="92"/>
+      <c r="AC34" s="92"/>
+      <c r="AD34" s="92"/>
+      <c r="AE34" s="92"/>
+      <c r="AF34" s="92"/>
+      <c r="AG34" s="92"/>
+      <c r="AH34" s="92"/>
+      <c r="AI34" s="92"/>
+      <c r="AJ34" s="92"/>
+      <c r="AK34" s="94"/>
+      <c r="AL34" s="94"/>
+      <c r="AM34" s="94"/>
+      <c r="AN34" s="94"/>
+      <c r="AO34" s="94"/>
+      <c r="AP34" s="94"/>
+      <c r="AQ34" s="94"/>
+      <c r="AR34" s="94"/>
+      <c r="AS34" s="94"/>
+      <c r="AT34" s="94"/>
+      <c r="AU34" s="94"/>
+      <c r="AV34" s="94"/>
+      <c r="AW34" s="94"/>
+      <c r="AX34" s="94"/>
+      <c r="AY34" s="94"/>
+      <c r="AZ34" s="94"/>
+      <c r="BA34" s="95"/>
     </row>
     <row r="35" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B35" s="191"/>
-      <c r="C35" s="192"/>
-      <c r="D35" s="192"/>
-      <c r="E35" s="192"/>
-      <c r="F35" s="192"/>
-      <c r="G35" s="192"/>
-      <c r="H35" s="192"/>
-      <c r="I35" s="192"/>
-      <c r="J35" s="192"/>
-      <c r="K35" s="192"/>
-      <c r="L35" s="192"/>
-      <c r="M35" s="192"/>
-      <c r="N35" s="192"/>
-      <c r="O35" s="192"/>
-      <c r="P35" s="192"/>
-      <c r="Q35" s="192"/>
-      <c r="R35" s="192"/>
-      <c r="S35" s="192"/>
-      <c r="T35" s="192"/>
-      <c r="U35" s="192"/>
-      <c r="V35" s="192"/>
-      <c r="W35" s="192"/>
-      <c r="X35" s="192"/>
-      <c r="Y35" s="192"/>
-      <c r="Z35" s="192"/>
-      <c r="AA35" s="192"/>
-      <c r="AB35" s="192"/>
-      <c r="AC35" s="192"/>
-      <c r="AD35" s="192"/>
-      <c r="AE35" s="192"/>
-      <c r="AF35" s="192"/>
-      <c r="AG35" s="192"/>
-      <c r="AH35" s="192"/>
-      <c r="AI35" s="192"/>
-      <c r="AJ35" s="192"/>
-      <c r="AK35" s="194"/>
-      <c r="AL35" s="194"/>
-      <c r="AM35" s="194"/>
-      <c r="AN35" s="194"/>
-      <c r="AO35" s="194"/>
-      <c r="AP35" s="194"/>
-      <c r="AQ35" s="194"/>
-      <c r="AR35" s="194"/>
-      <c r="AS35" s="194"/>
-      <c r="AT35" s="194"/>
-      <c r="AU35" s="194"/>
-      <c r="AV35" s="194"/>
-      <c r="AW35" s="194"/>
-      <c r="AX35" s="194"/>
-      <c r="AY35" s="194"/>
-      <c r="AZ35" s="194"/>
-      <c r="BA35" s="195"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="92"/>
+      <c r="Z35" s="92"/>
+      <c r="AA35" s="92"/>
+      <c r="AB35" s="92"/>
+      <c r="AC35" s="92"/>
+      <c r="AD35" s="92"/>
+      <c r="AE35" s="92"/>
+      <c r="AF35" s="92"/>
+      <c r="AG35" s="92"/>
+      <c r="AH35" s="92"/>
+      <c r="AI35" s="92"/>
+      <c r="AJ35" s="92"/>
+      <c r="AK35" s="94"/>
+      <c r="AL35" s="94"/>
+      <c r="AM35" s="94"/>
+      <c r="AN35" s="94"/>
+      <c r="AO35" s="94"/>
+      <c r="AP35" s="94"/>
+      <c r="AQ35" s="94"/>
+      <c r="AR35" s="94"/>
+      <c r="AS35" s="94"/>
+      <c r="AT35" s="94"/>
+      <c r="AU35" s="94"/>
+      <c r="AV35" s="94"/>
+      <c r="AW35" s="94"/>
+      <c r="AX35" s="94"/>
+      <c r="AY35" s="94"/>
+      <c r="AZ35" s="94"/>
+      <c r="BA35" s="95"/>
     </row>
     <row r="36" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B36" s="191"/>
-      <c r="C36" s="192"/>
-      <c r="D36" s="192"/>
-      <c r="E36" s="192"/>
-      <c r="F36" s="192"/>
-      <c r="G36" s="192"/>
-      <c r="H36" s="192"/>
-      <c r="I36" s="192"/>
-      <c r="J36" s="192"/>
-      <c r="K36" s="192"/>
-      <c r="L36" s="192"/>
-      <c r="M36" s="192"/>
-      <c r="N36" s="192"/>
-      <c r="O36" s="192"/>
-      <c r="P36" s="192"/>
-      <c r="Q36" s="192"/>
-      <c r="R36" s="192"/>
-      <c r="S36" s="192"/>
-      <c r="T36" s="192"/>
-      <c r="U36" s="192"/>
-      <c r="V36" s="192"/>
-      <c r="W36" s="192"/>
-      <c r="X36" s="192"/>
-      <c r="Y36" s="192"/>
-      <c r="Z36" s="192"/>
-      <c r="AA36" s="192"/>
-      <c r="AB36" s="192"/>
-      <c r="AC36" s="192"/>
-      <c r="AD36" s="192"/>
-      <c r="AE36" s="192"/>
-      <c r="AF36" s="192"/>
-      <c r="AG36" s="192"/>
-      <c r="AH36" s="192"/>
-      <c r="AI36" s="192"/>
-      <c r="AJ36" s="192"/>
-      <c r="AK36" s="194"/>
-      <c r="AL36" s="194"/>
-      <c r="AM36" s="194"/>
-      <c r="AN36" s="194"/>
-      <c r="AO36" s="194"/>
-      <c r="AP36" s="194"/>
-      <c r="AQ36" s="194"/>
-      <c r="AR36" s="194"/>
-      <c r="AS36" s="194"/>
-      <c r="AT36" s="194"/>
-      <c r="AU36" s="194"/>
-      <c r="AV36" s="194"/>
-      <c r="AW36" s="194"/>
-      <c r="AX36" s="194"/>
-      <c r="AY36" s="194"/>
-      <c r="AZ36" s="194"/>
-      <c r="BA36" s="195"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="92"/>
+      <c r="V36" s="92"/>
+      <c r="W36" s="92"/>
+      <c r="X36" s="92"/>
+      <c r="Y36" s="92"/>
+      <c r="Z36" s="92"/>
+      <c r="AA36" s="92"/>
+      <c r="AB36" s="92"/>
+      <c r="AC36" s="92"/>
+      <c r="AD36" s="92"/>
+      <c r="AE36" s="92"/>
+      <c r="AF36" s="92"/>
+      <c r="AG36" s="92"/>
+      <c r="AH36" s="92"/>
+      <c r="AI36" s="92"/>
+      <c r="AJ36" s="92"/>
+      <c r="AK36" s="94"/>
+      <c r="AL36" s="94"/>
+      <c r="AM36" s="94"/>
+      <c r="AN36" s="94"/>
+      <c r="AO36" s="94"/>
+      <c r="AP36" s="94"/>
+      <c r="AQ36" s="94"/>
+      <c r="AR36" s="94"/>
+      <c r="AS36" s="94"/>
+      <c r="AT36" s="94"/>
+      <c r="AU36" s="94"/>
+      <c r="AV36" s="94"/>
+      <c r="AW36" s="94"/>
+      <c r="AX36" s="94"/>
+      <c r="AY36" s="94"/>
+      <c r="AZ36" s="94"/>
+      <c r="BA36" s="95"/>
     </row>
     <row r="37" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B37" s="191"/>
-      <c r="C37" s="192"/>
-      <c r="D37" s="192"/>
-      <c r="E37" s="192"/>
-      <c r="F37" s="192"/>
-      <c r="G37" s="192"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="192"/>
-      <c r="J37" s="192"/>
-      <c r="K37" s="192"/>
-      <c r="L37" s="192"/>
-      <c r="M37" s="192"/>
-      <c r="N37" s="192"/>
-      <c r="O37" s="192"/>
-      <c r="P37" s="192"/>
-      <c r="Q37" s="192"/>
-      <c r="R37" s="192"/>
-      <c r="S37" s="192"/>
-      <c r="T37" s="192"/>
-      <c r="U37" s="192"/>
-      <c r="V37" s="192"/>
-      <c r="W37" s="192"/>
-      <c r="X37" s="192"/>
-      <c r="Y37" s="192"/>
-      <c r="Z37" s="192"/>
-      <c r="AA37" s="192"/>
-      <c r="AB37" s="192"/>
-      <c r="AC37" s="192"/>
-      <c r="AD37" s="192"/>
-      <c r="AE37" s="192"/>
-      <c r="AF37" s="192"/>
-      <c r="AG37" s="192"/>
-      <c r="AH37" s="192"/>
-      <c r="AI37" s="192"/>
-      <c r="AJ37" s="192"/>
-      <c r="AK37" s="194"/>
-      <c r="AL37" s="194"/>
-      <c r="AM37" s="194"/>
-      <c r="AN37" s="194"/>
-      <c r="AO37" s="194"/>
-      <c r="AP37" s="194"/>
-      <c r="AQ37" s="194"/>
-      <c r="AR37" s="194"/>
-      <c r="AS37" s="194"/>
-      <c r="AT37" s="194"/>
-      <c r="AU37" s="194"/>
-      <c r="AV37" s="194"/>
-      <c r="AW37" s="194"/>
-      <c r="AX37" s="194"/>
-      <c r="AY37" s="194"/>
-      <c r="AZ37" s="194"/>
-      <c r="BA37" s="195"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="92"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="92"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="92"/>
+      <c r="U37" s="92"/>
+      <c r="V37" s="92"/>
+      <c r="W37" s="92"/>
+      <c r="X37" s="92"/>
+      <c r="Y37" s="92"/>
+      <c r="Z37" s="92"/>
+      <c r="AA37" s="92"/>
+      <c r="AB37" s="92"/>
+      <c r="AC37" s="92"/>
+      <c r="AD37" s="92"/>
+      <c r="AE37" s="92"/>
+      <c r="AF37" s="92"/>
+      <c r="AG37" s="92"/>
+      <c r="AH37" s="92"/>
+      <c r="AI37" s="92"/>
+      <c r="AJ37" s="92"/>
+      <c r="AK37" s="94"/>
+      <c r="AL37" s="94"/>
+      <c r="AM37" s="94"/>
+      <c r="AN37" s="94"/>
+      <c r="AO37" s="94"/>
+      <c r="AP37" s="94"/>
+      <c r="AQ37" s="94"/>
+      <c r="AR37" s="94"/>
+      <c r="AS37" s="94"/>
+      <c r="AT37" s="94"/>
+      <c r="AU37" s="94"/>
+      <c r="AV37" s="94"/>
+      <c r="AW37" s="94"/>
+      <c r="AX37" s="94"/>
+      <c r="AY37" s="94"/>
+      <c r="AZ37" s="94"/>
+      <c r="BA37" s="95"/>
     </row>
     <row r="38" spans="2:53" ht="13.5" customHeight="1">
-      <c r="B38" s="196"/>
-      <c r="C38" s="197"/>
-      <c r="D38" s="197"/>
-      <c r="E38" s="197"/>
-      <c r="F38" s="197"/>
-      <c r="G38" s="197"/>
-      <c r="H38" s="197"/>
-      <c r="I38" s="197"/>
-      <c r="J38" s="197"/>
-      <c r="K38" s="197"/>
-      <c r="L38" s="197"/>
-      <c r="M38" s="197"/>
-      <c r="N38" s="197"/>
-      <c r="O38" s="197"/>
-      <c r="P38" s="197"/>
-      <c r="Q38" s="197"/>
-      <c r="R38" s="197"/>
-      <c r="S38" s="197"/>
-      <c r="T38" s="197"/>
-      <c r="U38" s="197"/>
-      <c r="V38" s="197"/>
-      <c r="W38" s="197"/>
-      <c r="X38" s="197"/>
-      <c r="Y38" s="197"/>
-      <c r="Z38" s="197"/>
-      <c r="AA38" s="197"/>
-      <c r="AB38" s="197"/>
-      <c r="AC38" s="197"/>
-      <c r="AD38" s="197"/>
-      <c r="AE38" s="197"/>
-      <c r="AF38" s="197"/>
-      <c r="AG38" s="197"/>
-      <c r="AH38" s="197"/>
-      <c r="AI38" s="197"/>
-      <c r="AJ38" s="197"/>
-      <c r="AK38" s="198"/>
-      <c r="AL38" s="198"/>
-      <c r="AM38" s="198"/>
-      <c r="AN38" s="198"/>
-      <c r="AO38" s="198"/>
-      <c r="AP38" s="198"/>
-      <c r="AQ38" s="198"/>
-      <c r="AR38" s="198"/>
-      <c r="AS38" s="198"/>
-      <c r="AT38" s="198"/>
-      <c r="AU38" s="198"/>
-      <c r="AV38" s="198"/>
-      <c r="AW38" s="198"/>
-      <c r="AX38" s="198"/>
-      <c r="AY38" s="198"/>
-      <c r="AZ38" s="198"/>
-      <c r="BA38" s="199"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="97"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="97"/>
+      <c r="P38" s="97"/>
+      <c r="Q38" s="97"/>
+      <c r="R38" s="97"/>
+      <c r="S38" s="97"/>
+      <c r="T38" s="97"/>
+      <c r="U38" s="97"/>
+      <c r="V38" s="97"/>
+      <c r="W38" s="97"/>
+      <c r="X38" s="97"/>
+      <c r="Y38" s="97"/>
+      <c r="Z38" s="97"/>
+      <c r="AA38" s="97"/>
+      <c r="AB38" s="97"/>
+      <c r="AC38" s="97"/>
+      <c r="AD38" s="97"/>
+      <c r="AE38" s="97"/>
+      <c r="AF38" s="97"/>
+      <c r="AG38" s="97"/>
+      <c r="AH38" s="97"/>
+      <c r="AI38" s="97"/>
+      <c r="AJ38" s="97"/>
+      <c r="AK38" s="98"/>
+      <c r="AL38" s="98"/>
+      <c r="AM38" s="98"/>
+      <c r="AN38" s="98"/>
+      <c r="AO38" s="98"/>
+      <c r="AP38" s="98"/>
+      <c r="AQ38" s="98"/>
+      <c r="AR38" s="98"/>
+      <c r="AS38" s="98"/>
+      <c r="AT38" s="98"/>
+      <c r="AU38" s="98"/>
+      <c r="AV38" s="98"/>
+      <c r="AW38" s="98"/>
+      <c r="AX38" s="98"/>
+      <c r="AY38" s="98"/>
+      <c r="AZ38" s="98"/>
+      <c r="BA38" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -13523,107 +13547,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="163" t="s">
+      <c r="F2" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="165"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="152"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="151"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="152"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="174"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="151"/>
+      <c r="D5" s="173"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="150" t="s">
+      <c r="F5" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="152"/>
+      <c r="G5" s="174"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="172" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="151"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="152"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="174"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="155"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="158"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="159"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="158"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="160"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="168"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -13732,10 +13756,10 @@
       <c r="B19" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="180" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="138"/>
+      <c r="D19" s="181"/>
       <c r="E19" s="67" t="s">
         <v>53</v>
       </c>
@@ -13776,12 +13800,12 @@
       <c r="C23" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="139" t="s">
+      <c r="D23" s="182" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="141"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="184"/>
     </row>
     <row r="24" spans="1:7" ht="19.5" thickBot="1">
       <c r="A24" s="60">
@@ -13793,12 +13817,12 @@
       <c r="C24" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="135" t="s">
+      <c r="D24" s="178" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="143"/>
+      <c r="E24" s="185"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="186"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" thickBot="1">
       <c r="A26" s="46" t="s">
@@ -13816,10 +13840,10 @@
         <v>50</v>
       </c>
       <c r="D27" s="74"/>
-      <c r="E27" s="144" t="s">
+      <c r="E27" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="145"/>
+      <c r="F27" s="188"/>
       <c r="G27" s="75" t="s">
         <v>63</v>
       </c>
@@ -13840,10 +13864,10 @@
         <v>50</v>
       </c>
       <c r="D30" s="65"/>
-      <c r="E30" s="146" t="s">
+      <c r="E30" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="147"/>
+      <c r="F30" s="190"/>
       <c r="G30" s="55" t="s">
         <v>66</v>
       </c>
@@ -13855,14 +13879,14 @@
       <c r="B31" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="C31" s="148" t="s">
+      <c r="C31" s="191" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="149"/>
-      <c r="E31" s="148" t="s">
+      <c r="D31" s="192"/>
+      <c r="E31" s="191" t="s">
         <v>149</v>
       </c>
-      <c r="F31" s="149"/>
+      <c r="F31" s="192"/>
       <c r="G31" s="76" t="s">
         <v>153</v>
       </c>
@@ -13874,20 +13898,29 @@
       <c r="B32" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="135" t="s">
+      <c r="C32" s="178" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="136"/>
-      <c r="E32" s="135" t="s">
+      <c r="D32" s="179"/>
+      <c r="E32" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="136"/>
+      <c r="F32" s="179"/>
       <c r="G32" s="77" t="s">
         <v>153</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -13900,15 +13933,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13950,107 +13974,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="163" t="s">
+      <c r="F2" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="165"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="152"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="151"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="152"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="174"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="151"/>
+      <c r="D5" s="173"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="150" t="s">
+      <c r="F5" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="152"/>
+      <c r="G5" s="174"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="172" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="151"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="152"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="174"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="155"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="158"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="159"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="158"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="160"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="168"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -14274,10 +14298,10 @@
       <c r="B24" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="C24" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="138"/>
+      <c r="D24" s="181"/>
       <c r="E24" s="67" t="s">
         <v>53</v>
       </c>
@@ -14318,12 +14342,12 @@
       <c r="C28" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="139" t="s">
+      <c r="D28" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="141"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="184"/>
     </row>
     <row r="29" spans="1:7" ht="19.5" thickBot="1">
       <c r="A29" s="60">
@@ -14335,12 +14359,12 @@
       <c r="C29" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="135" t="s">
+      <c r="D29" s="178" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="143"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="186"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" thickBot="1">
       <c r="A31" s="46" t="s">
@@ -14358,10 +14382,10 @@
         <v>50</v>
       </c>
       <c r="D32" s="65"/>
-      <c r="E32" s="146" t="s">
+      <c r="E32" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="147"/>
+      <c r="F32" s="190"/>
       <c r="G32" s="55" t="s">
         <v>63</v>
       </c>
@@ -14373,14 +14397,14 @@
       <c r="B33" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="166" t="s">
+      <c r="C33" s="193" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="167"/>
-      <c r="E33" s="166" t="s">
+      <c r="D33" s="194"/>
+      <c r="E33" s="193" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="167"/>
+      <c r="F33" s="194"/>
       <c r="G33" s="68" t="s">
         <v>153</v>
       </c>
@@ -14401,10 +14425,10 @@
         <v>50</v>
       </c>
       <c r="D36" s="65"/>
-      <c r="E36" s="146" t="s">
+      <c r="E36" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="147"/>
+      <c r="F36" s="190"/>
       <c r="G36" s="55" t="s">
         <v>66</v>
       </c>
@@ -14416,20 +14440,29 @@
       <c r="B37" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="166" t="s">
+      <c r="C37" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="167"/>
-      <c r="E37" s="166" t="s">
+      <c r="D37" s="194"/>
+      <c r="E37" s="193" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="167"/>
+      <c r="F37" s="194"/>
       <c r="G37" s="68" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -14442,15 +14475,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14492,107 +14516,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="163" t="s">
+      <c r="F2" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="165"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="152"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="151"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="152"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="174"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="151"/>
+      <c r="D5" s="173"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="150" t="s">
+      <c r="F5" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="152"/>
+      <c r="G5" s="174"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="151"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="152"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="174"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="155"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="158"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="159"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="158"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="160"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="168"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -14755,10 +14779,10 @@
         <v>50</v>
       </c>
       <c r="D25" s="65"/>
-      <c r="E25" s="146" t="s">
+      <c r="E25" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="147"/>
+      <c r="F25" s="190"/>
       <c r="G25" s="55" t="s">
         <v>63</v>
       </c>
@@ -14770,14 +14794,14 @@
       <c r="B26" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="148" t="s">
+      <c r="C26" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="149"/>
-      <c r="E26" s="148" t="s">
+      <c r="D26" s="192"/>
+      <c r="E26" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="149"/>
+      <c r="F26" s="192"/>
       <c r="G26" s="76" t="s">
         <v>76</v>
       </c>
@@ -14789,14 +14813,14 @@
       <c r="B27" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="135" t="s">
+      <c r="C27" s="178" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="136"/>
-      <c r="E27" s="135" t="s">
+      <c r="D27" s="179"/>
+      <c r="E27" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="136"/>
+      <c r="F27" s="179"/>
       <c r="G27" s="77" t="s">
         <v>68</v>
       </c>
@@ -14817,22 +14841,16 @@
         <v>50</v>
       </c>
       <c r="D30" s="74"/>
-      <c r="E30" s="144" t="s">
+      <c r="E30" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="145"/>
+      <c r="F30" s="188"/>
       <c r="G30" s="75" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
@@ -14845,6 +14863,12 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14886,107 +14910,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="163" t="s">
+      <c r="F2" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="165"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="152"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="151"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="152"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="174"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="151"/>
+      <c r="D5" s="173"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="150" t="s">
+      <c r="F5" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="152"/>
+      <c r="G5" s="174"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="172" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="151"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="152"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="174"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="155"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="158"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="159"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="158"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="160"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="168"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -15118,10 +15142,10 @@
       <c r="B20" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="180" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="138"/>
+      <c r="D20" s="181"/>
       <c r="E20" s="67" t="s">
         <v>53</v>
       </c>
@@ -15162,12 +15186,12 @@
       <c r="C24" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="139" t="s">
+      <c r="D24" s="182" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="141"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="184"/>
     </row>
     <row r="25" spans="1:7" ht="19.5" thickBot="1">
       <c r="A25" s="60">
@@ -15179,12 +15203,12 @@
       <c r="C25" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="135" t="s">
+      <c r="D25" s="178" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="143"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="186"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" thickBot="1">
       <c r="A27" s="46" t="s">
@@ -15202,10 +15226,10 @@
         <v>50</v>
       </c>
       <c r="D28" s="74"/>
-      <c r="E28" s="144" t="s">
+      <c r="E28" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="145"/>
+      <c r="F28" s="188"/>
       <c r="G28" s="75" t="s">
         <v>63</v>
       </c>
@@ -15226,10 +15250,10 @@
         <v>50</v>
       </c>
       <c r="D31" s="65"/>
-      <c r="E31" s="146" t="s">
+      <c r="E31" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="147"/>
+      <c r="F31" s="190"/>
       <c r="G31" s="55" t="s">
         <v>66</v>
       </c>
@@ -15241,26 +15265,20 @@
       <c r="B32" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="166" t="s">
+      <c r="C32" s="193" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="167"/>
-      <c r="E32" s="166" t="s">
+      <c r="D32" s="194"/>
+      <c r="E32" s="193" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="167"/>
+      <c r="F32" s="194"/>
       <c r="G32" s="68" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C5:D5"/>
@@ -15274,6 +15292,12 @@
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15315,107 +15339,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="163" t="s">
+      <c r="F2" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="165"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="152"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="151"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="152"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="174"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="151"/>
+      <c r="D5" s="173"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="150" t="s">
+      <c r="F5" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="152"/>
+      <c r="G5" s="174"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="172" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="151"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="152"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="174"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="155"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="158"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="159"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="158"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="160"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="168"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -15547,10 +15571,10 @@
       <c r="B20" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="138"/>
+      <c r="D20" s="181"/>
       <c r="E20" s="67" t="s">
         <v>53</v>
       </c>
@@ -15591,12 +15615,12 @@
       <c r="C24" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="139" t="s">
+      <c r="D24" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="141"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="184"/>
     </row>
     <row r="25" spans="1:7" ht="19.5" thickBot="1">
       <c r="A25" s="60">
@@ -15608,12 +15632,12 @@
       <c r="C25" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="135" t="s">
+      <c r="D25" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="143"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="186"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" thickBot="1">
       <c r="A27" s="46" t="s">
@@ -15631,10 +15655,10 @@
         <v>50</v>
       </c>
       <c r="D28" s="74"/>
-      <c r="E28" s="144" t="s">
+      <c r="E28" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="145"/>
+      <c r="F28" s="188"/>
       <c r="G28" s="75" t="s">
         <v>63</v>
       </c>
@@ -15655,10 +15679,10 @@
         <v>50</v>
       </c>
       <c r="D31" s="65"/>
-      <c r="E31" s="146" t="s">
+      <c r="E31" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="147"/>
+      <c r="F31" s="190"/>
       <c r="G31" s="55" t="s">
         <v>66</v>
       </c>
@@ -15670,26 +15694,20 @@
       <c r="B32" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="166" t="s">
+      <c r="C32" s="193" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="167"/>
-      <c r="E32" s="166" t="s">
+      <c r="D32" s="194"/>
+      <c r="E32" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="167"/>
+      <c r="F32" s="194"/>
       <c r="G32" s="68" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C5:D5"/>
@@ -15703,6 +15721,12 @@
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dグループ_テーブル定義書.xlsx
+++ b/Dグループ_テーブル定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\GIT\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\グループ開発　クローン\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062721D2-2A9F-4F64-B87E-56053BBD9FBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C99D98-5F1D-4428-93F1-90923881B8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="18000" windowHeight="9360" tabRatio="859" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="0" windowWidth="10245" windowHeight="10170" tabRatio="859" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="224">
   <si>
     <t>テーブル定義書</t>
     <rPh sb="4" eb="7">
@@ -1002,6 +1002,16 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1=アイテム　　2=必殺技</t>
+    <rPh sb="10" eb="13">
+      <t>ヒッサツワザ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワザ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -2797,6 +2807,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="42" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2842,6 +2855,87 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2866,87 +2960,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2983,6 +2996,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="63" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="55" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="60" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="68" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="69" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="51" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="52" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="80" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3031,51 +3089,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="63" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="55" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="60" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="68" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="69" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="51" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="52" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="80" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="82" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3096,9 +3109,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="42" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -4202,34 +4212,34 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="N11" s="100" t="s">
+      <c r="N11" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="101"/>
-      <c r="W11" s="101"/>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="101"/>
-      <c r="Z11" s="101"/>
-      <c r="AA11" s="101"/>
-      <c r="AB11" s="101"/>
-      <c r="AC11" s="101"/>
-      <c r="AD11" s="101"/>
-      <c r="AE11" s="101"/>
-      <c r="AF11" s="101"/>
-      <c r="AG11" s="101"/>
-      <c r="AH11" s="101"/>
-      <c r="AI11" s="101"/>
-      <c r="AJ11" s="101"/>
-      <c r="AK11" s="101"/>
-      <c r="AL11" s="101"/>
-      <c r="AM11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="102"/>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="102"/>
+      <c r="AJ11" s="102"/>
+      <c r="AK11" s="102"/>
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="103"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -4265,32 +4275,32 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="104"/>
-      <c r="U12" s="104"/>
-      <c r="V12" s="104"/>
-      <c r="W12" s="104"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="104"/>
-      <c r="Z12" s="104"/>
-      <c r="AA12" s="104"/>
-      <c r="AB12" s="104"/>
-      <c r="AC12" s="104"/>
-      <c r="AD12" s="104"/>
-      <c r="AE12" s="104"/>
-      <c r="AF12" s="104"/>
-      <c r="AG12" s="104"/>
-      <c r="AH12" s="104"/>
-      <c r="AI12" s="104"/>
-      <c r="AJ12" s="104"/>
-      <c r="AK12" s="104"/>
-      <c r="AL12" s="104"/>
-      <c r="AM12" s="105"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="105"/>
+      <c r="S12" s="105"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="105"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="105"/>
+      <c r="AA12" s="105"/>
+      <c r="AB12" s="105"/>
+      <c r="AC12" s="105"/>
+      <c r="AD12" s="105"/>
+      <c r="AE12" s="105"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="105"/>
+      <c r="AH12" s="105"/>
+      <c r="AI12" s="105"/>
+      <c r="AJ12" s="105"/>
+      <c r="AK12" s="105"/>
+      <c r="AL12" s="105"/>
+      <c r="AM12" s="106"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
@@ -4326,32 +4336,32 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="104"/>
-      <c r="Z13" s="104"/>
-      <c r="AA13" s="104"/>
-      <c r="AB13" s="104"/>
-      <c r="AC13" s="104"/>
-      <c r="AD13" s="104"/>
-      <c r="AE13" s="104"/>
-      <c r="AF13" s="104"/>
-      <c r="AG13" s="104"/>
-      <c r="AH13" s="104"/>
-      <c r="AI13" s="104"/>
-      <c r="AJ13" s="104"/>
-      <c r="AK13" s="104"/>
-      <c r="AL13" s="104"/>
-      <c r="AM13" s="105"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="105"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="105"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="105"/>
+      <c r="Y13" s="105"/>
+      <c r="Z13" s="105"/>
+      <c r="AA13" s="105"/>
+      <c r="AB13" s="105"/>
+      <c r="AC13" s="105"/>
+      <c r="AD13" s="105"/>
+      <c r="AE13" s="105"/>
+      <c r="AF13" s="105"/>
+      <c r="AG13" s="105"/>
+      <c r="AH13" s="105"/>
+      <c r="AI13" s="105"/>
+      <c r="AJ13" s="105"/>
+      <c r="AK13" s="105"/>
+      <c r="AL13" s="105"/>
+      <c r="AM13" s="106"/>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
@@ -4387,32 +4397,32 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="104"/>
-      <c r="AA14" s="104"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="104"/>
-      <c r="AD14" s="104"/>
-      <c r="AE14" s="104"/>
-      <c r="AF14" s="104"/>
-      <c r="AG14" s="104"/>
-      <c r="AH14" s="104"/>
-      <c r="AI14" s="104"/>
-      <c r="AJ14" s="104"/>
-      <c r="AK14" s="104"/>
-      <c r="AL14" s="104"/>
-      <c r="AM14" s="105"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="105"/>
+      <c r="AA14" s="105"/>
+      <c r="AB14" s="105"/>
+      <c r="AC14" s="105"/>
+      <c r="AD14" s="105"/>
+      <c r="AE14" s="105"/>
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="105"/>
+      <c r="AH14" s="105"/>
+      <c r="AI14" s="105"/>
+      <c r="AJ14" s="105"/>
+      <c r="AK14" s="105"/>
+      <c r="AL14" s="105"/>
+      <c r="AM14" s="106"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -4448,32 +4458,32 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="104"/>
-      <c r="U15" s="104"/>
-      <c r="V15" s="104"/>
-      <c r="W15" s="104"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="104"/>
-      <c r="AB15" s="104"/>
-      <c r="AC15" s="104"/>
-      <c r="AD15" s="104"/>
-      <c r="AE15" s="104"/>
-      <c r="AF15" s="104"/>
-      <c r="AG15" s="104"/>
-      <c r="AH15" s="104"/>
-      <c r="AI15" s="104"/>
-      <c r="AJ15" s="104"/>
-      <c r="AK15" s="104"/>
-      <c r="AL15" s="104"/>
-      <c r="AM15" s="105"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="105"/>
+      <c r="AA15" s="105"/>
+      <c r="AB15" s="105"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="105"/>
+      <c r="AI15" s="105"/>
+      <c r="AJ15" s="105"/>
+      <c r="AK15" s="105"/>
+      <c r="AL15" s="105"/>
+      <c r="AM15" s="106"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
@@ -4509,32 +4519,32 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="104"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="104"/>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="104"/>
-      <c r="AB16" s="104"/>
-      <c r="AC16" s="104"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="104"/>
-      <c r="AF16" s="104"/>
-      <c r="AG16" s="104"/>
-      <c r="AH16" s="104"/>
-      <c r="AI16" s="104"/>
-      <c r="AJ16" s="104"/>
-      <c r="AK16" s="104"/>
-      <c r="AL16" s="104"/>
-      <c r="AM16" s="105"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="105"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="105"/>
+      <c r="Z16" s="105"/>
+      <c r="AA16" s="105"/>
+      <c r="AB16" s="105"/>
+      <c r="AC16" s="105"/>
+      <c r="AD16" s="105"/>
+      <c r="AE16" s="105"/>
+      <c r="AF16" s="105"/>
+      <c r="AG16" s="105"/>
+      <c r="AH16" s="105"/>
+      <c r="AI16" s="105"/>
+      <c r="AJ16" s="105"/>
+      <c r="AK16" s="105"/>
+      <c r="AL16" s="105"/>
+      <c r="AM16" s="106"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
@@ -4570,32 +4580,32 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="104"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="104"/>
-      <c r="V17" s="104"/>
-      <c r="W17" s="104"/>
-      <c r="X17" s="104"/>
-      <c r="Y17" s="104"/>
-      <c r="Z17" s="104"/>
-      <c r="AA17" s="104"/>
-      <c r="AB17" s="104"/>
-      <c r="AC17" s="104"/>
-      <c r="AD17" s="104"/>
-      <c r="AE17" s="104"/>
-      <c r="AF17" s="104"/>
-      <c r="AG17" s="104"/>
-      <c r="AH17" s="104"/>
-      <c r="AI17" s="104"/>
-      <c r="AJ17" s="104"/>
-      <c r="AK17" s="104"/>
-      <c r="AL17" s="104"/>
-      <c r="AM17" s="105"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="105"/>
+      <c r="V17" s="105"/>
+      <c r="W17" s="105"/>
+      <c r="X17" s="105"/>
+      <c r="Y17" s="105"/>
+      <c r="Z17" s="105"/>
+      <c r="AA17" s="105"/>
+      <c r="AB17" s="105"/>
+      <c r="AC17" s="105"/>
+      <c r="AD17" s="105"/>
+      <c r="AE17" s="105"/>
+      <c r="AF17" s="105"/>
+      <c r="AG17" s="105"/>
+      <c r="AH17" s="105"/>
+      <c r="AI17" s="105"/>
+      <c r="AJ17" s="105"/>
+      <c r="AK17" s="105"/>
+      <c r="AL17" s="105"/>
+      <c r="AM17" s="106"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -4631,32 +4641,32 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="104"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="104"/>
-      <c r="Z18" s="104"/>
-      <c r="AA18" s="104"/>
-      <c r="AB18" s="104"/>
-      <c r="AC18" s="104"/>
-      <c r="AD18" s="104"/>
-      <c r="AE18" s="104"/>
-      <c r="AF18" s="104"/>
-      <c r="AG18" s="104"/>
-      <c r="AH18" s="104"/>
-      <c r="AI18" s="104"/>
-      <c r="AJ18" s="104"/>
-      <c r="AK18" s="104"/>
-      <c r="AL18" s="104"/>
-      <c r="AM18" s="105"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="105"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="105"/>
+      <c r="X18" s="105"/>
+      <c r="Y18" s="105"/>
+      <c r="Z18" s="105"/>
+      <c r="AA18" s="105"/>
+      <c r="AB18" s="105"/>
+      <c r="AC18" s="105"/>
+      <c r="AD18" s="105"/>
+      <c r="AE18" s="105"/>
+      <c r="AF18" s="105"/>
+      <c r="AG18" s="105"/>
+      <c r="AH18" s="105"/>
+      <c r="AI18" s="105"/>
+      <c r="AJ18" s="105"/>
+      <c r="AK18" s="105"/>
+      <c r="AL18" s="105"/>
+      <c r="AM18" s="106"/>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
@@ -4692,32 +4702,32 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="104"/>
-      <c r="V19" s="104"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="104"/>
-      <c r="AA19" s="104"/>
-      <c r="AB19" s="104"/>
-      <c r="AC19" s="104"/>
-      <c r="AD19" s="104"/>
-      <c r="AE19" s="104"/>
-      <c r="AF19" s="104"/>
-      <c r="AG19" s="104"/>
-      <c r="AH19" s="104"/>
-      <c r="AI19" s="104"/>
-      <c r="AJ19" s="104"/>
-      <c r="AK19" s="104"/>
-      <c r="AL19" s="104"/>
-      <c r="AM19" s="105"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="105"/>
+      <c r="W19" s="105"/>
+      <c r="X19" s="105"/>
+      <c r="Y19" s="105"/>
+      <c r="Z19" s="105"/>
+      <c r="AA19" s="105"/>
+      <c r="AB19" s="105"/>
+      <c r="AC19" s="105"/>
+      <c r="AD19" s="105"/>
+      <c r="AE19" s="105"/>
+      <c r="AF19" s="105"/>
+      <c r="AG19" s="105"/>
+      <c r="AH19" s="105"/>
+      <c r="AI19" s="105"/>
+      <c r="AJ19" s="105"/>
+      <c r="AK19" s="105"/>
+      <c r="AL19" s="105"/>
+      <c r="AM19" s="106"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -4753,32 +4763,32 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="104"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="104"/>
-      <c r="V20" s="104"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="104"/>
-      <c r="Z20" s="104"/>
-      <c r="AA20" s="104"/>
-      <c r="AB20" s="104"/>
-      <c r="AC20" s="104"/>
-      <c r="AD20" s="104"/>
-      <c r="AE20" s="104"/>
-      <c r="AF20" s="104"/>
-      <c r="AG20" s="104"/>
-      <c r="AH20" s="104"/>
-      <c r="AI20" s="104"/>
-      <c r="AJ20" s="104"/>
-      <c r="AK20" s="104"/>
-      <c r="AL20" s="104"/>
-      <c r="AM20" s="105"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="105"/>
+      <c r="P20" s="105"/>
+      <c r="Q20" s="105"/>
+      <c r="R20" s="105"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="105"/>
+      <c r="W20" s="105"/>
+      <c r="X20" s="105"/>
+      <c r="Y20" s="105"/>
+      <c r="Z20" s="105"/>
+      <c r="AA20" s="105"/>
+      <c r="AB20" s="105"/>
+      <c r="AC20" s="105"/>
+      <c r="AD20" s="105"/>
+      <c r="AE20" s="105"/>
+      <c r="AF20" s="105"/>
+      <c r="AG20" s="105"/>
+      <c r="AH20" s="105"/>
+      <c r="AI20" s="105"/>
+      <c r="AJ20" s="105"/>
+      <c r="AK20" s="105"/>
+      <c r="AL20" s="105"/>
+      <c r="AM20" s="106"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
@@ -4814,32 +4824,32 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="104"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="104"/>
-      <c r="Z21" s="104"/>
-      <c r="AA21" s="104"/>
-      <c r="AB21" s="104"/>
-      <c r="AC21" s="104"/>
-      <c r="AD21" s="104"/>
-      <c r="AE21" s="104"/>
-      <c r="AF21" s="104"/>
-      <c r="AG21" s="104"/>
-      <c r="AH21" s="104"/>
-      <c r="AI21" s="104"/>
-      <c r="AJ21" s="104"/>
-      <c r="AK21" s="104"/>
-      <c r="AL21" s="104"/>
-      <c r="AM21" s="105"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="105"/>
+      <c r="W21" s="105"/>
+      <c r="X21" s="105"/>
+      <c r="Y21" s="105"/>
+      <c r="Z21" s="105"/>
+      <c r="AA21" s="105"/>
+      <c r="AB21" s="105"/>
+      <c r="AC21" s="105"/>
+      <c r="AD21" s="105"/>
+      <c r="AE21" s="105"/>
+      <c r="AF21" s="105"/>
+      <c r="AG21" s="105"/>
+      <c r="AH21" s="105"/>
+      <c r="AI21" s="105"/>
+      <c r="AJ21" s="105"/>
+      <c r="AK21" s="105"/>
+      <c r="AL21" s="105"/>
+      <c r="AM21" s="106"/>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
@@ -4875,32 +4885,32 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="107"/>
-      <c r="X22" s="107"/>
-      <c r="Y22" s="107"/>
-      <c r="Z22" s="107"/>
-      <c r="AA22" s="107"/>
-      <c r="AB22" s="107"/>
-      <c r="AC22" s="107"/>
-      <c r="AD22" s="107"/>
-      <c r="AE22" s="107"/>
-      <c r="AF22" s="107"/>
-      <c r="AG22" s="107"/>
-      <c r="AH22" s="107"/>
-      <c r="AI22" s="107"/>
-      <c r="AJ22" s="107"/>
-      <c r="AK22" s="107"/>
-      <c r="AL22" s="107"/>
-      <c r="AM22" s="108"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="108"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="108"/>
+      <c r="Y22" s="108"/>
+      <c r="Z22" s="108"/>
+      <c r="AA22" s="108"/>
+      <c r="AB22" s="108"/>
+      <c r="AC22" s="108"/>
+      <c r="AD22" s="108"/>
+      <c r="AE22" s="108"/>
+      <c r="AF22" s="108"/>
+      <c r="AG22" s="108"/>
+      <c r="AH22" s="108"/>
+      <c r="AI22" s="108"/>
+      <c r="AJ22" s="108"/>
+      <c r="AK22" s="108"/>
+      <c r="AL22" s="108"/>
+      <c r="AM22" s="109"/>
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
@@ -5643,27 +5653,27 @@
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
-      <c r="AI37" s="109" t="s">
+      <c r="AI37" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="AJ37" s="109"/>
-      <c r="AK37" s="109"/>
-      <c r="AL37" s="109"/>
-      <c r="AM37" s="109"/>
-      <c r="AN37" s="111">
+      <c r="AJ37" s="110"/>
+      <c r="AK37" s="110"/>
+      <c r="AL37" s="110"/>
+      <c r="AM37" s="110"/>
+      <c r="AN37" s="112">
         <v>43997</v>
       </c>
-      <c r="AO37" s="111"/>
-      <c r="AP37" s="111"/>
-      <c r="AQ37" s="111"/>
-      <c r="AR37" s="111"/>
-      <c r="AS37" s="111"/>
-      <c r="AT37" s="111"/>
-      <c r="AU37" s="111"/>
-      <c r="AV37" s="111"/>
-      <c r="AW37" s="111"/>
-      <c r="AX37" s="111"/>
-      <c r="AY37" s="111"/>
+      <c r="AO37" s="112"/>
+      <c r="AP37" s="112"/>
+      <c r="AQ37" s="112"/>
+      <c r="AR37" s="112"/>
+      <c r="AS37" s="112"/>
+      <c r="AT37" s="112"/>
+      <c r="AU37" s="112"/>
+      <c r="AV37" s="112"/>
+      <c r="AW37" s="112"/>
+      <c r="AX37" s="112"/>
+      <c r="AY37" s="112"/>
       <c r="AZ37" s="2"/>
       <c r="BA37" s="2"/>
       <c r="BB37" s="2"/>
@@ -5700,23 +5710,23 @@
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
-      <c r="AI38" s="110"/>
-      <c r="AJ38" s="110"/>
-      <c r="AK38" s="110"/>
-      <c r="AL38" s="110"/>
-      <c r="AM38" s="110"/>
-      <c r="AN38" s="112"/>
-      <c r="AO38" s="112"/>
-      <c r="AP38" s="112"/>
-      <c r="AQ38" s="112"/>
-      <c r="AR38" s="112"/>
-      <c r="AS38" s="112"/>
-      <c r="AT38" s="112"/>
-      <c r="AU38" s="112"/>
-      <c r="AV38" s="112"/>
-      <c r="AW38" s="112"/>
-      <c r="AX38" s="112"/>
-      <c r="AY38" s="112"/>
+      <c r="AI38" s="111"/>
+      <c r="AJ38" s="111"/>
+      <c r="AK38" s="111"/>
+      <c r="AL38" s="111"/>
+      <c r="AM38" s="111"/>
+      <c r="AN38" s="113"/>
+      <c r="AO38" s="113"/>
+      <c r="AP38" s="113"/>
+      <c r="AQ38" s="113"/>
+      <c r="AR38" s="113"/>
+      <c r="AS38" s="113"/>
+      <c r="AT38" s="113"/>
+      <c r="AU38" s="113"/>
+      <c r="AV38" s="113"/>
+      <c r="AW38" s="113"/>
+      <c r="AX38" s="113"/>
+      <c r="AY38" s="113"/>
       <c r="AZ38" s="2"/>
       <c r="BA38" s="2"/>
       <c r="BB38" s="2"/>
@@ -5753,27 +5763,27 @@
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
-      <c r="AI39" s="110" t="s">
+      <c r="AI39" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="AJ39" s="110"/>
-      <c r="AK39" s="110"/>
-      <c r="AL39" s="110"/>
-      <c r="AM39" s="110"/>
-      <c r="AN39" s="113" t="s">
+      <c r="AJ39" s="111"/>
+      <c r="AK39" s="111"/>
+      <c r="AL39" s="111"/>
+      <c r="AM39" s="111"/>
+      <c r="AN39" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="AO39" s="114"/>
-      <c r="AP39" s="114"/>
-      <c r="AQ39" s="114"/>
-      <c r="AR39" s="114"/>
-      <c r="AS39" s="114"/>
-      <c r="AT39" s="114"/>
-      <c r="AU39" s="114"/>
-      <c r="AV39" s="114"/>
-      <c r="AW39" s="114"/>
-      <c r="AX39" s="114"/>
-      <c r="AY39" s="114"/>
+      <c r="AO39" s="115"/>
+      <c r="AP39" s="115"/>
+      <c r="AQ39" s="115"/>
+      <c r="AR39" s="115"/>
+      <c r="AS39" s="115"/>
+      <c r="AT39" s="115"/>
+      <c r="AU39" s="115"/>
+      <c r="AV39" s="115"/>
+      <c r="AW39" s="115"/>
+      <c r="AX39" s="115"/>
+      <c r="AY39" s="115"/>
       <c r="AZ39" s="2"/>
       <c r="BA39" s="2"/>
       <c r="BB39" s="2"/>
@@ -5810,23 +5820,23 @@
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
-      <c r="AI40" s="110"/>
-      <c r="AJ40" s="110"/>
-      <c r="AK40" s="110"/>
-      <c r="AL40" s="110"/>
-      <c r="AM40" s="110"/>
-      <c r="AN40" s="114"/>
-      <c r="AO40" s="114"/>
-      <c r="AP40" s="114"/>
-      <c r="AQ40" s="114"/>
-      <c r="AR40" s="114"/>
-      <c r="AS40" s="114"/>
-      <c r="AT40" s="114"/>
-      <c r="AU40" s="114"/>
-      <c r="AV40" s="114"/>
-      <c r="AW40" s="114"/>
-      <c r="AX40" s="114"/>
-      <c r="AY40" s="114"/>
+      <c r="AI40" s="111"/>
+      <c r="AJ40" s="111"/>
+      <c r="AK40" s="111"/>
+      <c r="AL40" s="111"/>
+      <c r="AM40" s="111"/>
+      <c r="AN40" s="115"/>
+      <c r="AO40" s="115"/>
+      <c r="AP40" s="115"/>
+      <c r="AQ40" s="115"/>
+      <c r="AR40" s="115"/>
+      <c r="AS40" s="115"/>
+      <c r="AT40" s="115"/>
+      <c r="AU40" s="115"/>
+      <c r="AV40" s="115"/>
+      <c r="AW40" s="115"/>
+      <c r="AX40" s="115"/>
+      <c r="AY40" s="115"/>
       <c r="AZ40" s="2"/>
       <c r="BA40" s="2"/>
       <c r="BB40" s="2"/>
@@ -5945,107 +5955,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="171"/>
+      <c r="G2" s="187"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="172" t="s">
+      <c r="F3" s="188" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="174"/>
+      <c r="G3" s="190"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="173"/>
+      <c r="D4" s="189"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="172"/>
-      <c r="G4" s="174"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="190"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="173"/>
+      <c r="D5" s="189"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="172" t="s">
+      <c r="F5" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="174"/>
+      <c r="G5" s="190"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="188" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="173"/>
+      <c r="D6" s="189"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="174"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="190"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="177"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="193"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="180"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="165"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="180"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="166"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="168"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="184"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -6246,10 +6256,10 @@
       <c r="B23" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="180" t="s">
+      <c r="C23" s="165" t="s">
         <v>168</v>
       </c>
-      <c r="D23" s="181"/>
+      <c r="D23" s="166"/>
       <c r="E23" s="67" t="s">
         <v>53</v>
       </c>
@@ -6290,12 +6300,12 @@
       <c r="C27" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="182" t="s">
+      <c r="D27" s="167" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="184"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="169"/>
     </row>
     <row r="28" spans="1:7" ht="19.5" thickBot="1">
       <c r="A28" s="60">
@@ -6307,12 +6317,12 @@
       <c r="C28" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="178" t="s">
+      <c r="D28" s="163" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="185"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="186"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="171"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" thickBot="1">
       <c r="A30" s="46" t="s">
@@ -6330,10 +6340,10 @@
         <v>50</v>
       </c>
       <c r="D31" s="65"/>
-      <c r="E31" s="189" t="s">
+      <c r="E31" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="190"/>
+      <c r="F31" s="175"/>
       <c r="G31" s="55" t="s">
         <v>63</v>
       </c>
@@ -6345,14 +6355,14 @@
       <c r="B32" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="C32" s="191" t="s">
+      <c r="C32" s="176" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="192"/>
-      <c r="E32" s="191" t="s">
+      <c r="D32" s="177"/>
+      <c r="E32" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="192"/>
+      <c r="F32" s="177"/>
       <c r="G32" s="76" t="s">
         <v>76</v>
       </c>
@@ -6364,14 +6374,14 @@
       <c r="B33" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="C33" s="195" t="s">
+      <c r="C33" s="196" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="196"/>
-      <c r="E33" s="195" t="s">
+      <c r="D33" s="197"/>
+      <c r="E33" s="196" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="196"/>
+      <c r="F33" s="197"/>
       <c r="G33" s="84" t="s">
         <v>153</v>
       </c>
@@ -6383,14 +6393,14 @@
       <c r="B34" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="178" t="s">
+      <c r="C34" s="163" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="179"/>
-      <c r="E34" s="178" t="s">
+      <c r="D34" s="164"/>
+      <c r="E34" s="163" t="s">
         <v>142</v>
       </c>
-      <c r="F34" s="179"/>
+      <c r="F34" s="164"/>
       <c r="G34" s="77" t="s">
         <v>139</v>
       </c>
@@ -6411,27 +6421,16 @@
         <v>50</v>
       </c>
       <c r="D37" s="74"/>
-      <c r="E37" s="187" t="s">
+      <c r="E37" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="188"/>
+      <c r="F37" s="173"/>
       <c r="G37" s="75" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -6444,6 +6443,17 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E37:F37"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6462,8 +6472,8 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6485,107 +6495,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="171"/>
+      <c r="G2" s="187"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="172" t="s">
+      <c r="F3" s="188" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="174"/>
+      <c r="G3" s="190"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="173"/>
+      <c r="D4" s="189"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="172"/>
-      <c r="G4" s="174"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="190"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="173"/>
+      <c r="D5" s="189"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="172" t="s">
+      <c r="F5" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="174"/>
+      <c r="G5" s="190"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="188" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="173"/>
+      <c r="D6" s="189"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="174"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="190"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="177"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="193"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="180"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="165"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="180"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="166"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="168"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="184"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -6818,7 +6828,7 @@
       <c r="F22" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="200" t="s">
+      <c r="G22" s="100" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6855,10 +6865,10 @@
       <c r="B26" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="182" t="s">
+      <c r="C26" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="197"/>
+      <c r="D26" s="198"/>
       <c r="E26" s="57" t="s">
         <v>53</v>
       </c>
@@ -6874,10 +6884,10 @@
       <c r="B27" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="178" t="s">
+      <c r="C27" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="179"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="61"/>
       <c r="F27" s="61" t="s">
         <v>84</v>
@@ -6916,12 +6926,12 @@
       <c r="C31" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="182" t="s">
+      <c r="D31" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="184"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="169"/>
     </row>
     <row r="32" spans="1:7" ht="18.75">
       <c r="A32" s="78">
@@ -6933,12 +6943,12 @@
       <c r="C32" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="195" t="s">
+      <c r="D32" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="198"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="199"/>
+      <c r="E32" s="199"/>
+      <c r="F32" s="199"/>
+      <c r="G32" s="200"/>
     </row>
     <row r="33" spans="1:7" ht="19.5" thickBot="1">
       <c r="A33" s="60">
@@ -6950,12 +6960,12 @@
       <c r="C33" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="178" t="s">
+      <c r="D33" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="185"/>
-      <c r="F33" s="185"/>
-      <c r="G33" s="186"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="171"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" thickBot="1">
       <c r="A35" s="46" t="s">
@@ -6973,10 +6983,10 @@
         <v>50</v>
       </c>
       <c r="D36" s="65"/>
-      <c r="E36" s="189" t="s">
+      <c r="E36" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="190"/>
+      <c r="F36" s="175"/>
       <c r="G36" s="55" t="s">
         <v>63</v>
       </c>
@@ -6988,14 +6998,14 @@
       <c r="B37" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="193" t="s">
+      <c r="C37" s="194" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="194"/>
-      <c r="E37" s="193" t="s">
+      <c r="D37" s="195"/>
+      <c r="E37" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="194"/>
+      <c r="F37" s="195"/>
       <c r="G37" s="68" t="s">
         <v>73</v>
       </c>
@@ -7016,10 +7026,10 @@
         <v>50</v>
       </c>
       <c r="D40" s="65"/>
-      <c r="E40" s="189" t="s">
+      <c r="E40" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="190"/>
+      <c r="F40" s="175"/>
       <c r="G40" s="55" t="s">
         <v>66</v>
       </c>
@@ -7031,14 +7041,14 @@
       <c r="B41" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="191" t="s">
+      <c r="C41" s="176" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="192"/>
-      <c r="E41" s="191" t="s">
+      <c r="D41" s="177"/>
+      <c r="E41" s="176" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="192"/>
+      <c r="F41" s="177"/>
       <c r="G41" s="76" t="s">
         <v>76</v>
       </c>
@@ -7050,20 +7060,32 @@
       <c r="B42" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="178" t="s">
+      <c r="C42" s="163" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="179"/>
-      <c r="E42" s="178" t="s">
+      <c r="D42" s="164"/>
+      <c r="E42" s="163" t="s">
         <v>149</v>
       </c>
-      <c r="F42" s="179"/>
+      <c r="F42" s="164"/>
       <c r="G42" s="77" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="C26:D26"/>
@@ -7077,18 +7099,6 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8988,194 +8998,194 @@
   <sheetData>
     <row r="1" spans="2:52" ht="3" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:52" ht="13.5" customHeight="1" thickTop="1">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="140"/>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="140"/>
-      <c r="AV2" s="140"/>
-      <c r="AW2" s="140"/>
-      <c r="AX2" s="140"/>
-      <c r="AY2" s="140"/>
-      <c r="AZ2" s="141"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="133"/>
+      <c r="AG2" s="133"/>
+      <c r="AH2" s="133"/>
+      <c r="AI2" s="133"/>
+      <c r="AJ2" s="133"/>
+      <c r="AK2" s="133"/>
+      <c r="AL2" s="133"/>
+      <c r="AM2" s="133"/>
+      <c r="AN2" s="133"/>
+      <c r="AO2" s="133"/>
+      <c r="AP2" s="133"/>
+      <c r="AQ2" s="133"/>
+      <c r="AR2" s="133"/>
+      <c r="AS2" s="133"/>
+      <c r="AT2" s="133"/>
+      <c r="AU2" s="133"/>
+      <c r="AV2" s="133"/>
+      <c r="AW2" s="133"/>
+      <c r="AX2" s="133"/>
+      <c r="AY2" s="133"/>
+      <c r="AZ2" s="134"/>
     </row>
     <row r="3" spans="2:52" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="142"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="143"/>
-      <c r="AG3" s="143"/>
-      <c r="AH3" s="143"/>
-      <c r="AI3" s="143"/>
-      <c r="AJ3" s="143"/>
-      <c r="AK3" s="143"/>
-      <c r="AL3" s="143"/>
-      <c r="AM3" s="143"/>
-      <c r="AN3" s="143"/>
-      <c r="AO3" s="143"/>
-      <c r="AP3" s="143"/>
-      <c r="AQ3" s="143"/>
-      <c r="AR3" s="143"/>
-      <c r="AS3" s="143"/>
-      <c r="AT3" s="143"/>
-      <c r="AU3" s="143"/>
-      <c r="AV3" s="143"/>
-      <c r="AW3" s="143"/>
-      <c r="AX3" s="143"/>
-      <c r="AY3" s="143"/>
-      <c r="AZ3" s="144"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="136"/>
+      <c r="AO3" s="136"/>
+      <c r="AP3" s="136"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="136"/>
+      <c r="AS3" s="136"/>
+      <c r="AT3" s="136"/>
+      <c r="AU3" s="136"/>
+      <c r="AV3" s="136"/>
+      <c r="AW3" s="136"/>
+      <c r="AX3" s="136"/>
+      <c r="AY3" s="136"/>
+      <c r="AZ3" s="137"/>
     </row>
     <row r="5" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="146"/>
-      <c r="D5" s="147" t="s">
+      <c r="C5" s="139"/>
+      <c r="D5" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="147" t="s">
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="147" t="s">
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="148"/>
-      <c r="P5" s="148"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="148"/>
-      <c r="T5" s="148"/>
-      <c r="U5" s="149"/>
-      <c r="V5" s="147" t="s">
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="141"/>
+      <c r="T5" s="141"/>
+      <c r="U5" s="142"/>
+      <c r="V5" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="148"/>
-      <c r="X5" s="148"/>
-      <c r="Y5" s="148"/>
-      <c r="Z5" s="148"/>
-      <c r="AA5" s="148"/>
-      <c r="AB5" s="148"/>
-      <c r="AC5" s="148"/>
-      <c r="AD5" s="148"/>
-      <c r="AE5" s="148"/>
-      <c r="AF5" s="148"/>
-      <c r="AG5" s="148"/>
-      <c r="AH5" s="148"/>
-      <c r="AI5" s="148"/>
-      <c r="AJ5" s="148"/>
-      <c r="AK5" s="148"/>
-      <c r="AL5" s="148"/>
-      <c r="AM5" s="148"/>
-      <c r="AN5" s="148"/>
-      <c r="AO5" s="148"/>
-      <c r="AP5" s="148"/>
-      <c r="AQ5" s="148"/>
-      <c r="AR5" s="148"/>
-      <c r="AS5" s="148"/>
-      <c r="AT5" s="148"/>
-      <c r="AU5" s="148"/>
-      <c r="AV5" s="148"/>
-      <c r="AW5" s="148"/>
-      <c r="AX5" s="148"/>
-      <c r="AY5" s="148"/>
-      <c r="AZ5" s="149"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="141"/>
+      <c r="Z5" s="141"/>
+      <c r="AA5" s="141"/>
+      <c r="AB5" s="141"/>
+      <c r="AC5" s="141"/>
+      <c r="AD5" s="141"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="141"/>
+      <c r="AG5" s="141"/>
+      <c r="AH5" s="141"/>
+      <c r="AI5" s="141"/>
+      <c r="AJ5" s="141"/>
+      <c r="AK5" s="141"/>
+      <c r="AL5" s="141"/>
+      <c r="AM5" s="141"/>
+      <c r="AN5" s="141"/>
+      <c r="AO5" s="141"/>
+      <c r="AP5" s="141"/>
+      <c r="AQ5" s="141"/>
+      <c r="AR5" s="141"/>
+      <c r="AS5" s="141"/>
+      <c r="AT5" s="141"/>
+      <c r="AU5" s="141"/>
+      <c r="AV5" s="141"/>
+      <c r="AW5" s="141"/>
+      <c r="AX5" s="141"/>
+      <c r="AY5" s="141"/>
+      <c r="AZ5" s="142"/>
     </row>
     <row r="6" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B6" s="131">
+      <c r="B6" s="116">
         <f>MAX($B$5:B5)+1</f>
         <v>1</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="133">
+      <c r="C6" s="117"/>
+      <c r="D6" s="118">
         <v>43997</v>
       </c>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="136" t="s">
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="138"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="123"/>
       <c r="L6" s="5" t="s">
         <v>17</v>
       </c>
@@ -9223,23 +9233,23 @@
       <c r="AZ6" s="7"/>
     </row>
     <row r="7" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B7" s="123">
+      <c r="B7" s="124">
         <f>MAX($B$5:B6)+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="125">
+      <c r="C7" s="125"/>
+      <c r="D7" s="126">
         <v>43998</v>
       </c>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="128" t="s">
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="131"/>
       <c r="L7" s="8" t="s">
         <v>115</v>
       </c>
@@ -9287,23 +9297,23 @@
       <c r="AZ7" s="10"/>
     </row>
     <row r="8" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B8" s="123">
+      <c r="B8" s="124">
         <f>MAX($B$5:B7)+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="124"/>
-      <c r="D8" s="125">
+      <c r="C8" s="125"/>
+      <c r="D8" s="126">
         <v>43998</v>
       </c>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="128" t="s">
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="129" t="s">
         <v>176</v>
       </c>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="131"/>
       <c r="L8" s="8" t="s">
         <v>177</v>
       </c>
@@ -9351,19 +9361,19 @@
       <c r="AZ8" s="10"/>
     </row>
     <row r="9" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B9" s="123">
+      <c r="B9" s="124">
         <f>MAX($B$5:B8)+1</f>
         <v>4</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="130"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="131"/>
       <c r="L9" s="8"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -9407,19 +9417,19 @@
       <c r="AZ9" s="10"/>
     </row>
     <row r="10" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B10" s="123">
+      <c r="B10" s="124">
         <f>MAX($B$5:B9)+1</f>
         <v>5</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="130"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="131"/>
       <c r="L10" s="8"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -9463,19 +9473,19 @@
       <c r="AZ10" s="10"/>
     </row>
     <row r="11" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B11" s="123">
+      <c r="B11" s="124">
         <f>MAX($B$5:B10)+1</f>
         <v>6</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="130"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="131"/>
       <c r="L11" s="8"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -9519,19 +9529,19 @@
       <c r="AZ11" s="10"/>
     </row>
     <row r="12" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B12" s="123">
+      <c r="B12" s="124">
         <f>MAX($B$5:B11)+1</f>
         <v>7</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="130"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="131"/>
       <c r="L12" s="8"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -9575,19 +9585,19 @@
       <c r="AZ12" s="10"/>
     </row>
     <row r="13" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B13" s="123">
+      <c r="B13" s="124">
         <f>MAX($B$5:B12)+1</f>
         <v>8</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="130"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="131"/>
       <c r="L13" s="8"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -9631,19 +9641,19 @@
       <c r="AZ13" s="10"/>
     </row>
     <row r="14" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B14" s="123">
+      <c r="B14" s="124">
         <f>MAX($B$5:B13)+1</f>
         <v>9</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="130"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="131"/>
       <c r="L14" s="8"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -9687,19 +9697,19 @@
       <c r="AZ14" s="10"/>
     </row>
     <row r="15" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B15" s="123">
+      <c r="B15" s="124">
         <f>MAX($B$5:B14)+1</f>
         <v>10</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="130"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="131"/>
       <c r="L15" s="8"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -9743,19 +9753,19 @@
       <c r="AZ15" s="10"/>
     </row>
     <row r="16" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B16" s="123">
+      <c r="B16" s="124">
         <f>MAX($B$5:B15)+1</f>
         <v>11</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="130"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="131"/>
       <c r="L16" s="8"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -9799,19 +9809,19 @@
       <c r="AZ16" s="10"/>
     </row>
     <row r="17" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B17" s="123">
+      <c r="B17" s="124">
         <f>MAX($B$5:B16)+1</f>
         <v>12</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="130"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="131"/>
       <c r="L17" s="8"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -9855,19 +9865,19 @@
       <c r="AZ17" s="10"/>
     </row>
     <row r="18" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B18" s="123">
+      <c r="B18" s="124">
         <f>MAX($B$5:B17)+1</f>
         <v>13</v>
       </c>
-      <c r="C18" s="124"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="130"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="131"/>
       <c r="L18" s="8"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -9911,19 +9921,19 @@
       <c r="AZ18" s="10"/>
     </row>
     <row r="19" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B19" s="123">
+      <c r="B19" s="124">
         <f>MAX($B$5:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="130"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="131"/>
       <c r="L19" s="8"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -9967,19 +9977,19 @@
       <c r="AZ19" s="10"/>
     </row>
     <row r="20" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B20" s="123">
+      <c r="B20" s="124">
         <f>MAX($B$5:B19)+1</f>
         <v>15</v>
       </c>
-      <c r="C20" s="124"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="130"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="131"/>
       <c r="L20" s="8"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -10023,19 +10033,19 @@
       <c r="AZ20" s="10"/>
     </row>
     <row r="21" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B21" s="123">
+      <c r="B21" s="124">
         <f>MAX($B$5:B20)+1</f>
         <v>16</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="130"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="131"/>
       <c r="L21" s="8"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -10079,19 +10089,19 @@
       <c r="AZ21" s="10"/>
     </row>
     <row r="22" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B22" s="123">
+      <c r="B22" s="124">
         <f>MAX($B$5:B21)+1</f>
         <v>17</v>
       </c>
-      <c r="C22" s="124"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="130"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="131"/>
       <c r="L22" s="8"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -10135,19 +10145,19 @@
       <c r="AZ22" s="10"/>
     </row>
     <row r="23" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B23" s="123">
+      <c r="B23" s="124">
         <f>MAX($B$5:B22)+1</f>
         <v>18</v>
       </c>
-      <c r="C23" s="124"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="130"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="131"/>
       <c r="L23" s="8"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -10191,19 +10201,19 @@
       <c r="AZ23" s="10"/>
     </row>
     <row r="24" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B24" s="123">
+      <c r="B24" s="124">
         <f>MAX($B$5:B23)+1</f>
         <v>19</v>
       </c>
-      <c r="C24" s="124"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="130"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="131"/>
       <c r="L24" s="8"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -10247,19 +10257,19 @@
       <c r="AZ24" s="10"/>
     </row>
     <row r="25" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B25" s="123">
+      <c r="B25" s="124">
         <f>MAX($B$5:B24)+1</f>
         <v>20</v>
       </c>
-      <c r="C25" s="124"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="130"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="131"/>
       <c r="L25" s="8"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -10303,19 +10313,19 @@
       <c r="AZ25" s="10"/>
     </row>
     <row r="26" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B26" s="123">
+      <c r="B26" s="124">
         <f>MAX($B$5:B25)+1</f>
         <v>21</v>
       </c>
-      <c r="C26" s="124"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="130"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="131"/>
       <c r="L26" s="8"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -10359,19 +10369,19 @@
       <c r="AZ26" s="10"/>
     </row>
     <row r="27" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B27" s="123">
+      <c r="B27" s="124">
         <f>MAX($B$5:B26)+1</f>
         <v>22</v>
       </c>
-      <c r="C27" s="124"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="130"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="131"/>
       <c r="L27" s="8"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -10415,19 +10425,19 @@
       <c r="AZ27" s="10"/>
     </row>
     <row r="28" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B28" s="123">
+      <c r="B28" s="124">
         <f>MAX($B$5:B27)+1</f>
         <v>23</v>
       </c>
-      <c r="C28" s="124"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="130"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="131"/>
       <c r="L28" s="8"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -10471,19 +10481,19 @@
       <c r="AZ28" s="10"/>
     </row>
     <row r="29" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B29" s="123">
+      <c r="B29" s="124">
         <f>MAX($B$5:B28)+1</f>
         <v>24</v>
       </c>
-      <c r="C29" s="124"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="130"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="131"/>
       <c r="L29" s="8"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -10527,19 +10537,19 @@
       <c r="AZ29" s="10"/>
     </row>
     <row r="30" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B30" s="123">
+      <c r="B30" s="124">
         <f>MAX($B$5:B29)+1</f>
         <v>25</v>
       </c>
-      <c r="C30" s="124"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="130"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="131"/>
       <c r="L30" s="8"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -10583,19 +10593,19 @@
       <c r="AZ30" s="10"/>
     </row>
     <row r="31" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B31" s="123">
+      <c r="B31" s="124">
         <f>MAX($B$5:B30)+1</f>
         <v>26</v>
       </c>
-      <c r="C31" s="124"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="130"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="131"/>
       <c r="L31" s="8"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -10639,19 +10649,19 @@
       <c r="AZ31" s="10"/>
     </row>
     <row r="32" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B32" s="123">
+      <c r="B32" s="124">
         <f>MAX($B$5:B31)+1</f>
         <v>27</v>
       </c>
-      <c r="C32" s="124"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="130"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="131"/>
       <c r="L32" s="8"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -10695,19 +10705,19 @@
       <c r="AZ32" s="10"/>
     </row>
     <row r="33" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B33" s="123">
+      <c r="B33" s="124">
         <f>MAX($B$5:B32)+1</f>
         <v>28</v>
       </c>
-      <c r="C33" s="124"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="130"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="131"/>
       <c r="L33" s="8"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -10751,19 +10761,19 @@
       <c r="AZ33" s="10"/>
     </row>
     <row r="34" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B34" s="123">
+      <c r="B34" s="124">
         <f>MAX($B$5:B33)+1</f>
         <v>29</v>
       </c>
-      <c r="C34" s="124"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="127"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="129"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="130"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="130"/>
+      <c r="J34" s="130"/>
+      <c r="K34" s="131"/>
       <c r="L34" s="8"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -10807,19 +10817,19 @@
       <c r="AZ34" s="10"/>
     </row>
     <row r="35" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B35" s="123">
+      <c r="B35" s="124">
         <f>MAX($B$5:B34)+1</f>
         <v>30</v>
       </c>
-      <c r="C35" s="124"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="130"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="131"/>
       <c r="L35" s="8"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -10863,19 +10873,19 @@
       <c r="AZ35" s="10"/>
     </row>
     <row r="36" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B36" s="123">
+      <c r="B36" s="124">
         <f>MAX($B$5:B35)+1</f>
         <v>31</v>
       </c>
-      <c r="C36" s="124"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="129"/>
-      <c r="J36" s="129"/>
-      <c r="K36" s="130"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="131"/>
       <c r="L36" s="8"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -10919,19 +10929,19 @@
       <c r="AZ36" s="10"/>
     </row>
     <row r="37" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B37" s="123">
+      <c r="B37" s="124">
         <f>MAX($B$5:B36)+1</f>
         <v>32</v>
       </c>
-      <c r="C37" s="124"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="129"/>
-      <c r="K37" s="130"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="130"/>
+      <c r="J37" s="130"/>
+      <c r="K37" s="131"/>
       <c r="L37" s="8"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -10975,19 +10985,19 @@
       <c r="AZ37" s="10"/>
     </row>
     <row r="38" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B38" s="123">
+      <c r="B38" s="124">
         <f>MAX($B$5:B37)+1</f>
         <v>33</v>
       </c>
-      <c r="C38" s="124"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="129"/>
-      <c r="K38" s="130"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="131"/>
       <c r="L38" s="8"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -11031,19 +11041,19 @@
       <c r="AZ38" s="10"/>
     </row>
     <row r="39" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B39" s="123">
+      <c r="B39" s="124">
         <f>MAX($B$5:B38)+1</f>
         <v>34</v>
       </c>
-      <c r="C39" s="124"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="129"/>
-      <c r="J39" s="129"/>
-      <c r="K39" s="130"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="130"/>
+      <c r="K39" s="131"/>
       <c r="L39" s="8"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -11087,19 +11097,19 @@
       <c r="AZ39" s="10"/>
     </row>
     <row r="40" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B40" s="123">
+      <c r="B40" s="124">
         <f>MAX($B$5:B39)+1</f>
         <v>35</v>
       </c>
-      <c r="C40" s="124"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="129"/>
-      <c r="J40" s="129"/>
-      <c r="K40" s="130"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="131"/>
       <c r="L40" s="8"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -11143,19 +11153,19 @@
       <c r="AZ40" s="10"/>
     </row>
     <row r="41" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B41" s="123">
+      <c r="B41" s="124">
         <f>MAX($B$5:B40)+1</f>
         <v>36</v>
       </c>
-      <c r="C41" s="124"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="130"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="131"/>
       <c r="L41" s="8"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -11199,19 +11209,19 @@
       <c r="AZ41" s="10"/>
     </row>
     <row r="42" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B42" s="115">
+      <c r="B42" s="143">
         <f>MAX($B$5:B41)+1</f>
         <v>37</v>
       </c>
-      <c r="C42" s="116"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="119"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="121"/>
-      <c r="J42" s="121"/>
-      <c r="K42" s="122"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="150"/>
       <c r="L42" s="11"/>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
@@ -11256,6 +11266,111 @@
     </row>
   </sheetData>
   <mergeCells count="117">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:K9"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -11268,111 +11383,6 @@
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="L5:U5"/>
     <mergeCell ref="V5:AZ5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
@@ -11543,122 +11553,122 @@
   <sheetData>
     <row r="1" spans="2:53" ht="3" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:53" ht="13.5" customHeight="1" thickTop="1">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="151" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-      <c r="AB2" s="151"/>
-      <c r="AC2" s="151"/>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="151"/>
-      <c r="AG2" s="151"/>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="151"/>
-      <c r="AJ2" s="151"/>
-      <c r="AK2" s="152"/>
-      <c r="AL2" s="156" t="s">
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="152"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="152"/>
+      <c r="AJ2" s="152"/>
+      <c r="AK2" s="153"/>
+      <c r="AL2" s="157" t="s">
         <v>219</v>
       </c>
-      <c r="AM2" s="156"/>
-      <c r="AN2" s="156"/>
-      <c r="AO2" s="156"/>
-      <c r="AP2" s="156"/>
-      <c r="AQ2" s="156"/>
-      <c r="AR2" s="157">
+      <c r="AM2" s="157"/>
+      <c r="AN2" s="157"/>
+      <c r="AO2" s="157"/>
+      <c r="AP2" s="157"/>
+      <c r="AQ2" s="157"/>
+      <c r="AR2" s="158">
         <v>43999</v>
       </c>
-      <c r="AS2" s="157"/>
-      <c r="AT2" s="157"/>
-      <c r="AU2" s="157"/>
-      <c r="AV2" s="157"/>
-      <c r="AW2" s="157"/>
-      <c r="AX2" s="157"/>
-      <c r="AY2" s="157"/>
-      <c r="AZ2" s="157"/>
-      <c r="BA2" s="158"/>
+      <c r="AS2" s="158"/>
+      <c r="AT2" s="158"/>
+      <c r="AU2" s="158"/>
+      <c r="AV2" s="158"/>
+      <c r="AW2" s="158"/>
+      <c r="AX2" s="158"/>
+      <c r="AY2" s="158"/>
+      <c r="AZ2" s="158"/>
+      <c r="BA2" s="159"/>
     </row>
     <row r="3" spans="2:53" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="154"/>
-      <c r="Q3" s="154"/>
-      <c r="R3" s="154"/>
-      <c r="S3" s="154"/>
-      <c r="T3" s="154"/>
-      <c r="U3" s="154"/>
-      <c r="V3" s="154"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="154"/>
-      <c r="Y3" s="154"/>
-      <c r="Z3" s="154"/>
-      <c r="AA3" s="154"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="154"/>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="154"/>
-      <c r="AJ3" s="154"/>
-      <c r="AK3" s="155"/>
-      <c r="AL3" s="159" t="s">
+      <c r="B3" s="154"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="155"/>
+      <c r="U3" s="155"/>
+      <c r="V3" s="155"/>
+      <c r="W3" s="155"/>
+      <c r="X3" s="155"/>
+      <c r="Y3" s="155"/>
+      <c r="Z3" s="155"/>
+      <c r="AA3" s="155"/>
+      <c r="AB3" s="155"/>
+      <c r="AC3" s="155"/>
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="155"/>
+      <c r="AG3" s="155"/>
+      <c r="AH3" s="155"/>
+      <c r="AI3" s="155"/>
+      <c r="AJ3" s="155"/>
+      <c r="AK3" s="156"/>
+      <c r="AL3" s="160" t="s">
         <v>220</v>
       </c>
-      <c r="AM3" s="159"/>
-      <c r="AN3" s="159"/>
-      <c r="AO3" s="159"/>
-      <c r="AP3" s="159"/>
-      <c r="AQ3" s="159"/>
-      <c r="AR3" s="160" t="s">
+      <c r="AM3" s="160"/>
+      <c r="AN3" s="160"/>
+      <c r="AO3" s="160"/>
+      <c r="AP3" s="160"/>
+      <c r="AQ3" s="160"/>
+      <c r="AR3" s="161" t="s">
         <v>221</v>
       </c>
-      <c r="AS3" s="160"/>
-      <c r="AT3" s="160"/>
-      <c r="AU3" s="160"/>
-      <c r="AV3" s="160"/>
-      <c r="AW3" s="160"/>
-      <c r="AX3" s="160"/>
-      <c r="AY3" s="160"/>
-      <c r="AZ3" s="160"/>
-      <c r="BA3" s="161"/>
+      <c r="AS3" s="161"/>
+      <c r="AT3" s="161"/>
+      <c r="AU3" s="161"/>
+      <c r="AV3" s="161"/>
+      <c r="AW3" s="161"/>
+      <c r="AX3" s="161"/>
+      <c r="AY3" s="161"/>
+      <c r="AZ3" s="161"/>
+      <c r="BA3" s="162"/>
     </row>
     <row r="4" spans="2:53" ht="13.5" customHeight="1" thickTop="1">
       <c r="C4" s="2"/>
@@ -13547,107 +13557,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="171"/>
+      <c r="G2" s="187"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="172" t="s">
+      <c r="F3" s="188" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="174"/>
+      <c r="G3" s="190"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="173"/>
+      <c r="D4" s="189"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="172"/>
-      <c r="G4" s="174"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="190"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="173"/>
+      <c r="D5" s="189"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="172" t="s">
+      <c r="F5" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="174"/>
+      <c r="G5" s="190"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="188" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="173"/>
+      <c r="D6" s="189"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="174"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="190"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="177"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="193"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="180"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="165"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="180"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="166"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="168"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="184"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -13756,10 +13766,10 @@
       <c r="B19" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="180" t="s">
+      <c r="C19" s="165" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="181"/>
+      <c r="D19" s="166"/>
       <c r="E19" s="67" t="s">
         <v>53</v>
       </c>
@@ -13800,12 +13810,12 @@
       <c r="C23" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="182" t="s">
+      <c r="D23" s="167" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="184"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="169"/>
     </row>
     <row r="24" spans="1:7" ht="19.5" thickBot="1">
       <c r="A24" s="60">
@@ -13817,12 +13827,12 @@
       <c r="C24" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="178" t="s">
+      <c r="D24" s="163" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="185"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="186"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="171"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" thickBot="1">
       <c r="A26" s="46" t="s">
@@ -13840,10 +13850,10 @@
         <v>50</v>
       </c>
       <c r="D27" s="74"/>
-      <c r="E27" s="187" t="s">
+      <c r="E27" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="188"/>
+      <c r="F27" s="173"/>
       <c r="G27" s="75" t="s">
         <v>63</v>
       </c>
@@ -13864,10 +13874,10 @@
         <v>50</v>
       </c>
       <c r="D30" s="65"/>
-      <c r="E30" s="189" t="s">
+      <c r="E30" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="190"/>
+      <c r="F30" s="175"/>
       <c r="G30" s="55" t="s">
         <v>66</v>
       </c>
@@ -13879,14 +13889,14 @@
       <c r="B31" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="C31" s="191" t="s">
+      <c r="C31" s="176" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="192"/>
-      <c r="E31" s="191" t="s">
+      <c r="D31" s="177"/>
+      <c r="E31" s="176" t="s">
         <v>149</v>
       </c>
-      <c r="F31" s="192"/>
+      <c r="F31" s="177"/>
       <c r="G31" s="76" t="s">
         <v>153</v>
       </c>
@@ -13898,29 +13908,20 @@
       <c r="B32" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="178" t="s">
+      <c r="C32" s="163" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="179"/>
-      <c r="E32" s="178" t="s">
+      <c r="D32" s="164"/>
+      <c r="E32" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="179"/>
+      <c r="F32" s="164"/>
       <c r="G32" s="77" t="s">
         <v>153</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -13933,6 +13934,15 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13951,8 +13961,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -13974,107 +13984,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="171"/>
+      <c r="G2" s="187"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="172" t="s">
+      <c r="F3" s="188" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="174"/>
+      <c r="G3" s="190"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="173"/>
+      <c r="D4" s="189"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="172"/>
-      <c r="G4" s="174"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="190"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="173"/>
+      <c r="D5" s="189"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="172" t="s">
+      <c r="F5" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="174"/>
+      <c r="G5" s="190"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="188" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="173"/>
+      <c r="D6" s="189"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="174"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="190"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="177"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="193"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="180"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="165"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="180"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="166"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="168"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="184"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -14147,7 +14157,7 @@
         <v>35</v>
       </c>
       <c r="G15" s="81" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -14298,10 +14308,10 @@
       <c r="B24" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="180" t="s">
+      <c r="C24" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="181"/>
+      <c r="D24" s="166"/>
       <c r="E24" s="67" t="s">
         <v>53</v>
       </c>
@@ -14342,12 +14352,12 @@
       <c r="C28" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="182" t="s">
+      <c r="D28" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="184"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="169"/>
     </row>
     <row r="29" spans="1:7" ht="19.5" thickBot="1">
       <c r="A29" s="60">
@@ -14359,12 +14369,12 @@
       <c r="C29" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="178" t="s">
+      <c r="D29" s="163" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="185"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="186"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="171"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" thickBot="1">
       <c r="A31" s="46" t="s">
@@ -14382,10 +14392,10 @@
         <v>50</v>
       </c>
       <c r="D32" s="65"/>
-      <c r="E32" s="189" t="s">
+      <c r="E32" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="190"/>
+      <c r="F32" s="175"/>
       <c r="G32" s="55" t="s">
         <v>63</v>
       </c>
@@ -14397,14 +14407,14 @@
       <c r="B33" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="193" t="s">
+      <c r="C33" s="194" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="194"/>
-      <c r="E33" s="193" t="s">
+      <c r="D33" s="195"/>
+      <c r="E33" s="194" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="194"/>
+      <c r="F33" s="195"/>
       <c r="G33" s="68" t="s">
         <v>153</v>
       </c>
@@ -14425,10 +14435,10 @@
         <v>50</v>
       </c>
       <c r="D36" s="65"/>
-      <c r="E36" s="189" t="s">
+      <c r="E36" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="190"/>
+      <c r="F36" s="175"/>
       <c r="G36" s="55" t="s">
         <v>66</v>
       </c>
@@ -14440,29 +14450,20 @@
       <c r="B37" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="193" t="s">
+      <c r="C37" s="194" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="194"/>
-      <c r="E37" s="193" t="s">
+      <c r="D37" s="195"/>
+      <c r="E37" s="194" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="194"/>
+      <c r="F37" s="195"/>
       <c r="G37" s="68" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -14475,6 +14476,15 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14516,107 +14526,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="171"/>
+      <c r="G2" s="187"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="172" t="s">
+      <c r="F3" s="188" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="174"/>
+      <c r="G3" s="190"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="173"/>
+      <c r="D4" s="189"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="172"/>
-      <c r="G4" s="174"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="190"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="173"/>
+      <c r="D5" s="189"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="172" t="s">
+      <c r="F5" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="174"/>
+      <c r="G5" s="190"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="188" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="173"/>
+      <c r="D6" s="189"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="174"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="190"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="177"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="193"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="180"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="165"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="180"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="166"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="168"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="184"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -14779,10 +14789,10 @@
         <v>50</v>
       </c>
       <c r="D25" s="65"/>
-      <c r="E25" s="189" t="s">
+      <c r="E25" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="190"/>
+      <c r="F25" s="175"/>
       <c r="G25" s="55" t="s">
         <v>63</v>
       </c>
@@ -14794,14 +14804,14 @@
       <c r="B26" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="191" t="s">
+      <c r="C26" s="176" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="192"/>
-      <c r="E26" s="191" t="s">
+      <c r="D26" s="177"/>
+      <c r="E26" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="192"/>
+      <c r="F26" s="177"/>
       <c r="G26" s="76" t="s">
         <v>76</v>
       </c>
@@ -14813,14 +14823,14 @@
       <c r="B27" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="178" t="s">
+      <c r="C27" s="163" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="179"/>
-      <c r="E27" s="178" t="s">
+      <c r="D27" s="164"/>
+      <c r="E27" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="179"/>
+      <c r="F27" s="164"/>
       <c r="G27" s="77" t="s">
         <v>68</v>
       </c>
@@ -14841,16 +14851,22 @@
         <v>50</v>
       </c>
       <c r="D30" s="74"/>
-      <c r="E30" s="187" t="s">
+      <c r="E30" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="188"/>
+      <c r="F30" s="173"/>
       <c r="G30" s="75" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
@@ -14863,12 +14879,6 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14910,107 +14920,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="171"/>
+      <c r="G2" s="187"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="172" t="s">
+      <c r="F3" s="188" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="174"/>
+      <c r="G3" s="190"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="173"/>
+      <c r="D4" s="189"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="172"/>
-      <c r="G4" s="174"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="190"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="173"/>
+      <c r="D5" s="189"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="172" t="s">
+      <c r="F5" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="174"/>
+      <c r="G5" s="190"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="188" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="173"/>
+      <c r="D6" s="189"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="174"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="190"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="177"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="193"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="180"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="165"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="180"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="166"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="168"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="184"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -15142,10 +15152,10 @@
       <c r="B20" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="180" t="s">
+      <c r="C20" s="165" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="181"/>
+      <c r="D20" s="166"/>
       <c r="E20" s="67" t="s">
         <v>53</v>
       </c>
@@ -15186,12 +15196,12 @@
       <c r="C24" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="182" t="s">
+      <c r="D24" s="167" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="184"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="169"/>
     </row>
     <row r="25" spans="1:7" ht="19.5" thickBot="1">
       <c r="A25" s="60">
@@ -15203,12 +15213,12 @@
       <c r="C25" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="178" t="s">
+      <c r="D25" s="163" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="186"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="171"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" thickBot="1">
       <c r="A27" s="46" t="s">
@@ -15226,10 +15236,10 @@
         <v>50</v>
       </c>
       <c r="D28" s="74"/>
-      <c r="E28" s="187" t="s">
+      <c r="E28" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="188"/>
+      <c r="F28" s="173"/>
       <c r="G28" s="75" t="s">
         <v>63</v>
       </c>
@@ -15250,10 +15260,10 @@
         <v>50</v>
       </c>
       <c r="D31" s="65"/>
-      <c r="E31" s="189" t="s">
+      <c r="E31" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="190"/>
+      <c r="F31" s="175"/>
       <c r="G31" s="55" t="s">
         <v>66</v>
       </c>
@@ -15265,20 +15275,26 @@
       <c r="B32" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="193" t="s">
+      <c r="C32" s="194" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="194"/>
-      <c r="E32" s="193" t="s">
+      <c r="D32" s="195"/>
+      <c r="E32" s="194" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="194"/>
+      <c r="F32" s="195"/>
       <c r="G32" s="68" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C5:D5"/>
@@ -15292,12 +15308,6 @@
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15339,107 +15349,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="171"/>
+      <c r="G2" s="187"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="172" t="s">
+      <c r="F3" s="188" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="174"/>
+      <c r="G3" s="190"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="173"/>
+      <c r="D4" s="189"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="172"/>
-      <c r="G4" s="174"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="190"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="173"/>
+      <c r="D5" s="189"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="172" t="s">
+      <c r="F5" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="174"/>
+      <c r="G5" s="190"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="188" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="173"/>
+      <c r="D6" s="189"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="174"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="190"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="177"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="193"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="180"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="165"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="180"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="166"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="168"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="184"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -15571,10 +15581,10 @@
       <c r="B20" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="180" t="s">
+      <c r="C20" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="181"/>
+      <c r="D20" s="166"/>
       <c r="E20" s="67" t="s">
         <v>53</v>
       </c>
@@ -15615,12 +15625,12 @@
       <c r="C24" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="182" t="s">
+      <c r="D24" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="184"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="169"/>
     </row>
     <row r="25" spans="1:7" ht="19.5" thickBot="1">
       <c r="A25" s="60">
@@ -15632,12 +15642,12 @@
       <c r="C25" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="178" t="s">
+      <c r="D25" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="186"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="171"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" thickBot="1">
       <c r="A27" s="46" t="s">
@@ -15655,10 +15665,10 @@
         <v>50</v>
       </c>
       <c r="D28" s="74"/>
-      <c r="E28" s="187" t="s">
+      <c r="E28" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="188"/>
+      <c r="F28" s="173"/>
       <c r="G28" s="75" t="s">
         <v>63</v>
       </c>
@@ -15679,10 +15689,10 @@
         <v>50</v>
       </c>
       <c r="D31" s="65"/>
-      <c r="E31" s="189" t="s">
+      <c r="E31" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="190"/>
+      <c r="F31" s="175"/>
       <c r="G31" s="55" t="s">
         <v>66</v>
       </c>
@@ -15694,20 +15704,26 @@
       <c r="B32" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="193" t="s">
+      <c r="C32" s="194" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="194"/>
-      <c r="E32" s="193" t="s">
+      <c r="D32" s="195"/>
+      <c r="E32" s="194" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="194"/>
+      <c r="F32" s="195"/>
       <c r="G32" s="68" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C5:D5"/>
@@ -15721,12 +15737,6 @@
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dグループ_テーブル定義書.xlsx
+++ b/Dグループ_テーブル定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\グループ開発　クローン\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\GIT\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C99D98-5F1D-4428-93F1-90923881B8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90E1F73-2953-40AA-89B9-B14B96373F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="0" windowWidth="10245" windowHeight="10170" tabRatio="859" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="859" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="227">
   <si>
     <t>テーブル定義書</t>
     <rPh sb="4" eb="7">
@@ -865,9 +865,6 @@
     <t xml:space="preserve">  , edit_time DATE</t>
   </si>
   <si>
-    <t xml:space="preserve">  , user_status INT</t>
-  </si>
-  <si>
     <t xml:space="preserve">); </t>
   </si>
   <si>
@@ -1013,6 +1010,24 @@
     <rPh sb="11" eb="12">
       <t>ワザ</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>背景ID</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>background_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  , user_status INT</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>　, background_id INT</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1302,7 +1317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="98">
+  <borders count="101">
     <border>
       <left/>
       <right/>
@@ -2491,6 +2506,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2520,7 +2574,7 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2807,9 +2861,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="42" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2855,6 +2906,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2879,30 +2978,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2936,30 +3011,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2996,6 +3047,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="32" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="44" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="46" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="63" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3041,54 +3140,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="32" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="44" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="46" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="82" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3108,6 +3159,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="98" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="99" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="99" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="100" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3143,22 +3215,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>8445</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>124540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658E0EA8-D244-46C0-9AC1-96AE5B6BEAD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5090830D-CEB7-45B3-A31E-1B88DB3FB7E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3180,42 +3252,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047749" y="847724"/>
-          <a:ext cx="8067676" cy="5371021"/>
+          <a:off x="1104900" y="866775"/>
+          <a:ext cx="7191375" cy="5125165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF">
-            <a:shade val="85000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="88900" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="40000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="twoPt" dir="t">
-            <a:rot lat="0" lon="0" rev="7200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="25400" h="19050"/>
-          <a:contourClr>
-            <a:srgbClr val="FFFFFF"/>
-          </a:contourClr>
-        </a:sp3d>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3488,7 +3530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075ACCD0-0EE7-4AF0-BD78-9703A38CB30F}">
   <dimension ref="A1:BP41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
@@ -4212,34 +4254,34 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="N11" s="101" t="s">
+      <c r="N11" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="102"/>
-      <c r="X11" s="102"/>
-      <c r="Y11" s="102"/>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="102"/>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="102"/>
-      <c r="AE11" s="102"/>
-      <c r="AF11" s="102"/>
-      <c r="AG11" s="102"/>
-      <c r="AH11" s="102"/>
-      <c r="AI11" s="102"/>
-      <c r="AJ11" s="102"/>
-      <c r="AK11" s="102"/>
-      <c r="AL11" s="102"/>
-      <c r="AM11" s="103"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="101"/>
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="101"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="101"/>
+      <c r="AE11" s="101"/>
+      <c r="AF11" s="101"/>
+      <c r="AG11" s="101"/>
+      <c r="AH11" s="101"/>
+      <c r="AI11" s="101"/>
+      <c r="AJ11" s="101"/>
+      <c r="AK11" s="101"/>
+      <c r="AL11" s="101"/>
+      <c r="AM11" s="102"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -4275,32 +4317,32 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="105"/>
-      <c r="R12" s="105"/>
-      <c r="S12" s="105"/>
-      <c r="T12" s="105"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="105"/>
-      <c r="X12" s="105"/>
-      <c r="Y12" s="105"/>
-      <c r="Z12" s="105"/>
-      <c r="AA12" s="105"/>
-      <c r="AB12" s="105"/>
-      <c r="AC12" s="105"/>
-      <c r="AD12" s="105"/>
-      <c r="AE12" s="105"/>
-      <c r="AF12" s="105"/>
-      <c r="AG12" s="105"/>
-      <c r="AH12" s="105"/>
-      <c r="AI12" s="105"/>
-      <c r="AJ12" s="105"/>
-      <c r="AK12" s="105"/>
-      <c r="AL12" s="105"/>
-      <c r="AM12" s="106"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="104"/>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="104"/>
+      <c r="AA12" s="104"/>
+      <c r="AB12" s="104"/>
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="104"/>
+      <c r="AF12" s="104"/>
+      <c r="AG12" s="104"/>
+      <c r="AH12" s="104"/>
+      <c r="AI12" s="104"/>
+      <c r="AJ12" s="104"/>
+      <c r="AK12" s="104"/>
+      <c r="AL12" s="104"/>
+      <c r="AM12" s="105"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
@@ -4336,32 +4378,32 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="105"/>
-      <c r="S13" s="105"/>
-      <c r="T13" s="105"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="105"/>
-      <c r="X13" s="105"/>
-      <c r="Y13" s="105"/>
-      <c r="Z13" s="105"/>
-      <c r="AA13" s="105"/>
-      <c r="AB13" s="105"/>
-      <c r="AC13" s="105"/>
-      <c r="AD13" s="105"/>
-      <c r="AE13" s="105"/>
-      <c r="AF13" s="105"/>
-      <c r="AG13" s="105"/>
-      <c r="AH13" s="105"/>
-      <c r="AI13" s="105"/>
-      <c r="AJ13" s="105"/>
-      <c r="AK13" s="105"/>
-      <c r="AL13" s="105"/>
-      <c r="AM13" s="106"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="104"/>
+      <c r="AB13" s="104"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="104"/>
+      <c r="AF13" s="104"/>
+      <c r="AG13" s="104"/>
+      <c r="AH13" s="104"/>
+      <c r="AI13" s="104"/>
+      <c r="AJ13" s="104"/>
+      <c r="AK13" s="104"/>
+      <c r="AL13" s="104"/>
+      <c r="AM13" s="105"/>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
@@ -4397,32 +4439,32 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="105"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="105"/>
-      <c r="S14" s="105"/>
-      <c r="T14" s="105"/>
-      <c r="U14" s="105"/>
-      <c r="V14" s="105"/>
-      <c r="W14" s="105"/>
-      <c r="X14" s="105"/>
-      <c r="Y14" s="105"/>
-      <c r="Z14" s="105"/>
-      <c r="AA14" s="105"/>
-      <c r="AB14" s="105"/>
-      <c r="AC14" s="105"/>
-      <c r="AD14" s="105"/>
-      <c r="AE14" s="105"/>
-      <c r="AF14" s="105"/>
-      <c r="AG14" s="105"/>
-      <c r="AH14" s="105"/>
-      <c r="AI14" s="105"/>
-      <c r="AJ14" s="105"/>
-      <c r="AK14" s="105"/>
-      <c r="AL14" s="105"/>
-      <c r="AM14" s="106"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="104"/>
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="104"/>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="104"/>
+      <c r="AE14" s="104"/>
+      <c r="AF14" s="104"/>
+      <c r="AG14" s="104"/>
+      <c r="AH14" s="104"/>
+      <c r="AI14" s="104"/>
+      <c r="AJ14" s="104"/>
+      <c r="AK14" s="104"/>
+      <c r="AL14" s="104"/>
+      <c r="AM14" s="105"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -4458,32 +4500,32 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="105"/>
-      <c r="R15" s="105"/>
-      <c r="S15" s="105"/>
-      <c r="T15" s="105"/>
-      <c r="U15" s="105"/>
-      <c r="V15" s="105"/>
-      <c r="W15" s="105"/>
-      <c r="X15" s="105"/>
-      <c r="Y15" s="105"/>
-      <c r="Z15" s="105"/>
-      <c r="AA15" s="105"/>
-      <c r="AB15" s="105"/>
-      <c r="AC15" s="105"/>
-      <c r="AD15" s="105"/>
-      <c r="AE15" s="105"/>
-      <c r="AF15" s="105"/>
-      <c r="AG15" s="105"/>
-      <c r="AH15" s="105"/>
-      <c r="AI15" s="105"/>
-      <c r="AJ15" s="105"/>
-      <c r="AK15" s="105"/>
-      <c r="AL15" s="105"/>
-      <c r="AM15" s="106"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="104"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="104"/>
+      <c r="AF15" s="104"/>
+      <c r="AG15" s="104"/>
+      <c r="AH15" s="104"/>
+      <c r="AI15" s="104"/>
+      <c r="AJ15" s="104"/>
+      <c r="AK15" s="104"/>
+      <c r="AL15" s="104"/>
+      <c r="AM15" s="105"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
@@ -4519,32 +4561,32 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
-      <c r="S16" s="105"/>
-      <c r="T16" s="105"/>
-      <c r="U16" s="105"/>
-      <c r="V16" s="105"/>
-      <c r="W16" s="105"/>
-      <c r="X16" s="105"/>
-      <c r="Y16" s="105"/>
-      <c r="Z16" s="105"/>
-      <c r="AA16" s="105"/>
-      <c r="AB16" s="105"/>
-      <c r="AC16" s="105"/>
-      <c r="AD16" s="105"/>
-      <c r="AE16" s="105"/>
-      <c r="AF16" s="105"/>
-      <c r="AG16" s="105"/>
-      <c r="AH16" s="105"/>
-      <c r="AI16" s="105"/>
-      <c r="AJ16" s="105"/>
-      <c r="AK16" s="105"/>
-      <c r="AL16" s="105"/>
-      <c r="AM16" s="106"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="104"/>
+      <c r="AA16" s="104"/>
+      <c r="AB16" s="104"/>
+      <c r="AC16" s="104"/>
+      <c r="AD16" s="104"/>
+      <c r="AE16" s="104"/>
+      <c r="AF16" s="104"/>
+      <c r="AG16" s="104"/>
+      <c r="AH16" s="104"/>
+      <c r="AI16" s="104"/>
+      <c r="AJ16" s="104"/>
+      <c r="AK16" s="104"/>
+      <c r="AL16" s="104"/>
+      <c r="AM16" s="105"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
@@ -4580,32 +4622,32 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="105"/>
-      <c r="P17" s="105"/>
-      <c r="Q17" s="105"/>
-      <c r="R17" s="105"/>
-      <c r="S17" s="105"/>
-      <c r="T17" s="105"/>
-      <c r="U17" s="105"/>
-      <c r="V17" s="105"/>
-      <c r="W17" s="105"/>
-      <c r="X17" s="105"/>
-      <c r="Y17" s="105"/>
-      <c r="Z17" s="105"/>
-      <c r="AA17" s="105"/>
-      <c r="AB17" s="105"/>
-      <c r="AC17" s="105"/>
-      <c r="AD17" s="105"/>
-      <c r="AE17" s="105"/>
-      <c r="AF17" s="105"/>
-      <c r="AG17" s="105"/>
-      <c r="AH17" s="105"/>
-      <c r="AI17" s="105"/>
-      <c r="AJ17" s="105"/>
-      <c r="AK17" s="105"/>
-      <c r="AL17" s="105"/>
-      <c r="AM17" s="106"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="104"/>
+      <c r="AC17" s="104"/>
+      <c r="AD17" s="104"/>
+      <c r="AE17" s="104"/>
+      <c r="AF17" s="104"/>
+      <c r="AG17" s="104"/>
+      <c r="AH17" s="104"/>
+      <c r="AI17" s="104"/>
+      <c r="AJ17" s="104"/>
+      <c r="AK17" s="104"/>
+      <c r="AL17" s="104"/>
+      <c r="AM17" s="105"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -4641,32 +4683,32 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="105"/>
-      <c r="S18" s="105"/>
-      <c r="T18" s="105"/>
-      <c r="U18" s="105"/>
-      <c r="V18" s="105"/>
-      <c r="W18" s="105"/>
-      <c r="X18" s="105"/>
-      <c r="Y18" s="105"/>
-      <c r="Z18" s="105"/>
-      <c r="AA18" s="105"/>
-      <c r="AB18" s="105"/>
-      <c r="AC18" s="105"/>
-      <c r="AD18" s="105"/>
-      <c r="AE18" s="105"/>
-      <c r="AF18" s="105"/>
-      <c r="AG18" s="105"/>
-      <c r="AH18" s="105"/>
-      <c r="AI18" s="105"/>
-      <c r="AJ18" s="105"/>
-      <c r="AK18" s="105"/>
-      <c r="AL18" s="105"/>
-      <c r="AM18" s="106"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="104"/>
+      <c r="AD18" s="104"/>
+      <c r="AE18" s="104"/>
+      <c r="AF18" s="104"/>
+      <c r="AG18" s="104"/>
+      <c r="AH18" s="104"/>
+      <c r="AI18" s="104"/>
+      <c r="AJ18" s="104"/>
+      <c r="AK18" s="104"/>
+      <c r="AL18" s="104"/>
+      <c r="AM18" s="105"/>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
@@ -4702,32 +4744,32 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="105"/>
-      <c r="S19" s="105"/>
-      <c r="T19" s="105"/>
-      <c r="U19" s="105"/>
-      <c r="V19" s="105"/>
-      <c r="W19" s="105"/>
-      <c r="X19" s="105"/>
-      <c r="Y19" s="105"/>
-      <c r="Z19" s="105"/>
-      <c r="AA19" s="105"/>
-      <c r="AB19" s="105"/>
-      <c r="AC19" s="105"/>
-      <c r="AD19" s="105"/>
-      <c r="AE19" s="105"/>
-      <c r="AF19" s="105"/>
-      <c r="AG19" s="105"/>
-      <c r="AH19" s="105"/>
-      <c r="AI19" s="105"/>
-      <c r="AJ19" s="105"/>
-      <c r="AK19" s="105"/>
-      <c r="AL19" s="105"/>
-      <c r="AM19" s="106"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="104"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="104"/>
+      <c r="X19" s="104"/>
+      <c r="Y19" s="104"/>
+      <c r="Z19" s="104"/>
+      <c r="AA19" s="104"/>
+      <c r="AB19" s="104"/>
+      <c r="AC19" s="104"/>
+      <c r="AD19" s="104"/>
+      <c r="AE19" s="104"/>
+      <c r="AF19" s="104"/>
+      <c r="AG19" s="104"/>
+      <c r="AH19" s="104"/>
+      <c r="AI19" s="104"/>
+      <c r="AJ19" s="104"/>
+      <c r="AK19" s="104"/>
+      <c r="AL19" s="104"/>
+      <c r="AM19" s="105"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -4763,32 +4805,32 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="105"/>
-      <c r="P20" s="105"/>
-      <c r="Q20" s="105"/>
-      <c r="R20" s="105"/>
-      <c r="S20" s="105"/>
-      <c r="T20" s="105"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="105"/>
-      <c r="W20" s="105"/>
-      <c r="X20" s="105"/>
-      <c r="Y20" s="105"/>
-      <c r="Z20" s="105"/>
-      <c r="AA20" s="105"/>
-      <c r="AB20" s="105"/>
-      <c r="AC20" s="105"/>
-      <c r="AD20" s="105"/>
-      <c r="AE20" s="105"/>
-      <c r="AF20" s="105"/>
-      <c r="AG20" s="105"/>
-      <c r="AH20" s="105"/>
-      <c r="AI20" s="105"/>
-      <c r="AJ20" s="105"/>
-      <c r="AK20" s="105"/>
-      <c r="AL20" s="105"/>
-      <c r="AM20" s="106"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="104"/>
+      <c r="Y20" s="104"/>
+      <c r="Z20" s="104"/>
+      <c r="AA20" s="104"/>
+      <c r="AB20" s="104"/>
+      <c r="AC20" s="104"/>
+      <c r="AD20" s="104"/>
+      <c r="AE20" s="104"/>
+      <c r="AF20" s="104"/>
+      <c r="AG20" s="104"/>
+      <c r="AH20" s="104"/>
+      <c r="AI20" s="104"/>
+      <c r="AJ20" s="104"/>
+      <c r="AK20" s="104"/>
+      <c r="AL20" s="104"/>
+      <c r="AM20" s="105"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
@@ -4824,32 +4866,32 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="105"/>
-      <c r="P21" s="105"/>
-      <c r="Q21" s="105"/>
-      <c r="R21" s="105"/>
-      <c r="S21" s="105"/>
-      <c r="T21" s="105"/>
-      <c r="U21" s="105"/>
-      <c r="V21" s="105"/>
-      <c r="W21" s="105"/>
-      <c r="X21" s="105"/>
-      <c r="Y21" s="105"/>
-      <c r="Z21" s="105"/>
-      <c r="AA21" s="105"/>
-      <c r="AB21" s="105"/>
-      <c r="AC21" s="105"/>
-      <c r="AD21" s="105"/>
-      <c r="AE21" s="105"/>
-      <c r="AF21" s="105"/>
-      <c r="AG21" s="105"/>
-      <c r="AH21" s="105"/>
-      <c r="AI21" s="105"/>
-      <c r="AJ21" s="105"/>
-      <c r="AK21" s="105"/>
-      <c r="AL21" s="105"/>
-      <c r="AM21" s="106"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="104"/>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="104"/>
+      <c r="AB21" s="104"/>
+      <c r="AC21" s="104"/>
+      <c r="AD21" s="104"/>
+      <c r="AE21" s="104"/>
+      <c r="AF21" s="104"/>
+      <c r="AG21" s="104"/>
+      <c r="AH21" s="104"/>
+      <c r="AI21" s="104"/>
+      <c r="AJ21" s="104"/>
+      <c r="AK21" s="104"/>
+      <c r="AL21" s="104"/>
+      <c r="AM21" s="105"/>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
@@ -4885,32 +4927,32 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="108"/>
-      <c r="S22" s="108"/>
-      <c r="T22" s="108"/>
-      <c r="U22" s="108"/>
-      <c r="V22" s="108"/>
-      <c r="W22" s="108"/>
-      <c r="X22" s="108"/>
-      <c r="Y22" s="108"/>
-      <c r="Z22" s="108"/>
-      <c r="AA22" s="108"/>
-      <c r="AB22" s="108"/>
-      <c r="AC22" s="108"/>
-      <c r="AD22" s="108"/>
-      <c r="AE22" s="108"/>
-      <c r="AF22" s="108"/>
-      <c r="AG22" s="108"/>
-      <c r="AH22" s="108"/>
-      <c r="AI22" s="108"/>
-      <c r="AJ22" s="108"/>
-      <c r="AK22" s="108"/>
-      <c r="AL22" s="108"/>
-      <c r="AM22" s="109"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="107"/>
+      <c r="X22" s="107"/>
+      <c r="Y22" s="107"/>
+      <c r="Z22" s="107"/>
+      <c r="AA22" s="107"/>
+      <c r="AB22" s="107"/>
+      <c r="AC22" s="107"/>
+      <c r="AD22" s="107"/>
+      <c r="AE22" s="107"/>
+      <c r="AF22" s="107"/>
+      <c r="AG22" s="107"/>
+      <c r="AH22" s="107"/>
+      <c r="AI22" s="107"/>
+      <c r="AJ22" s="107"/>
+      <c r="AK22" s="107"/>
+      <c r="AL22" s="107"/>
+      <c r="AM22" s="108"/>
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
@@ -5653,27 +5695,27 @@
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
-      <c r="AI37" s="110" t="s">
+      <c r="AI37" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AJ37" s="110"/>
-      <c r="AK37" s="110"/>
-      <c r="AL37" s="110"/>
-      <c r="AM37" s="110"/>
-      <c r="AN37" s="112">
+      <c r="AJ37" s="109"/>
+      <c r="AK37" s="109"/>
+      <c r="AL37" s="109"/>
+      <c r="AM37" s="109"/>
+      <c r="AN37" s="111">
         <v>43997</v>
       </c>
-      <c r="AO37" s="112"/>
-      <c r="AP37" s="112"/>
-      <c r="AQ37" s="112"/>
-      <c r="AR37" s="112"/>
-      <c r="AS37" s="112"/>
-      <c r="AT37" s="112"/>
-      <c r="AU37" s="112"/>
-      <c r="AV37" s="112"/>
-      <c r="AW37" s="112"/>
-      <c r="AX37" s="112"/>
-      <c r="AY37" s="112"/>
+      <c r="AO37" s="111"/>
+      <c r="AP37" s="111"/>
+      <c r="AQ37" s="111"/>
+      <c r="AR37" s="111"/>
+      <c r="AS37" s="111"/>
+      <c r="AT37" s="111"/>
+      <c r="AU37" s="111"/>
+      <c r="AV37" s="111"/>
+      <c r="AW37" s="111"/>
+      <c r="AX37" s="111"/>
+      <c r="AY37" s="111"/>
       <c r="AZ37" s="2"/>
       <c r="BA37" s="2"/>
       <c r="BB37" s="2"/>
@@ -5710,23 +5752,23 @@
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
-      <c r="AI38" s="111"/>
-      <c r="AJ38" s="111"/>
-      <c r="AK38" s="111"/>
-      <c r="AL38" s="111"/>
-      <c r="AM38" s="111"/>
-      <c r="AN38" s="113"/>
-      <c r="AO38" s="113"/>
-      <c r="AP38" s="113"/>
-      <c r="AQ38" s="113"/>
-      <c r="AR38" s="113"/>
-      <c r="AS38" s="113"/>
-      <c r="AT38" s="113"/>
-      <c r="AU38" s="113"/>
-      <c r="AV38" s="113"/>
-      <c r="AW38" s="113"/>
-      <c r="AX38" s="113"/>
-      <c r="AY38" s="113"/>
+      <c r="AI38" s="110"/>
+      <c r="AJ38" s="110"/>
+      <c r="AK38" s="110"/>
+      <c r="AL38" s="110"/>
+      <c r="AM38" s="110"/>
+      <c r="AN38" s="112"/>
+      <c r="AO38" s="112"/>
+      <c r="AP38" s="112"/>
+      <c r="AQ38" s="112"/>
+      <c r="AR38" s="112"/>
+      <c r="AS38" s="112"/>
+      <c r="AT38" s="112"/>
+      <c r="AU38" s="112"/>
+      <c r="AV38" s="112"/>
+      <c r="AW38" s="112"/>
+      <c r="AX38" s="112"/>
+      <c r="AY38" s="112"/>
       <c r="AZ38" s="2"/>
       <c r="BA38" s="2"/>
       <c r="BB38" s="2"/>
@@ -5763,27 +5805,27 @@
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
-      <c r="AI39" s="111" t="s">
+      <c r="AI39" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="AJ39" s="111"/>
-      <c r="AK39" s="111"/>
-      <c r="AL39" s="111"/>
-      <c r="AM39" s="111"/>
-      <c r="AN39" s="114" t="s">
+      <c r="AJ39" s="110"/>
+      <c r="AK39" s="110"/>
+      <c r="AL39" s="110"/>
+      <c r="AM39" s="110"/>
+      <c r="AN39" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="AO39" s="115"/>
-      <c r="AP39" s="115"/>
-      <c r="AQ39" s="115"/>
-      <c r="AR39" s="115"/>
-      <c r="AS39" s="115"/>
-      <c r="AT39" s="115"/>
-      <c r="AU39" s="115"/>
-      <c r="AV39" s="115"/>
-      <c r="AW39" s="115"/>
-      <c r="AX39" s="115"/>
-      <c r="AY39" s="115"/>
+      <c r="AO39" s="114"/>
+      <c r="AP39" s="114"/>
+      <c r="AQ39" s="114"/>
+      <c r="AR39" s="114"/>
+      <c r="AS39" s="114"/>
+      <c r="AT39" s="114"/>
+      <c r="AU39" s="114"/>
+      <c r="AV39" s="114"/>
+      <c r="AW39" s="114"/>
+      <c r="AX39" s="114"/>
+      <c r="AY39" s="114"/>
       <c r="AZ39" s="2"/>
       <c r="BA39" s="2"/>
       <c r="BB39" s="2"/>
@@ -5820,23 +5862,23 @@
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
-      <c r="AI40" s="111"/>
-      <c r="AJ40" s="111"/>
-      <c r="AK40" s="111"/>
-      <c r="AL40" s="111"/>
-      <c r="AM40" s="111"/>
-      <c r="AN40" s="115"/>
-      <c r="AO40" s="115"/>
-      <c r="AP40" s="115"/>
-      <c r="AQ40" s="115"/>
-      <c r="AR40" s="115"/>
-      <c r="AS40" s="115"/>
-      <c r="AT40" s="115"/>
-      <c r="AU40" s="115"/>
-      <c r="AV40" s="115"/>
-      <c r="AW40" s="115"/>
-      <c r="AX40" s="115"/>
-      <c r="AY40" s="115"/>
+      <c r="AI40" s="110"/>
+      <c r="AJ40" s="110"/>
+      <c r="AK40" s="110"/>
+      <c r="AL40" s="110"/>
+      <c r="AM40" s="110"/>
+      <c r="AN40" s="114"/>
+      <c r="AO40" s="114"/>
+      <c r="AP40" s="114"/>
+      <c r="AQ40" s="114"/>
+      <c r="AR40" s="114"/>
+      <c r="AS40" s="114"/>
+      <c r="AT40" s="114"/>
+      <c r="AU40" s="114"/>
+      <c r="AV40" s="114"/>
+      <c r="AW40" s="114"/>
+      <c r="AX40" s="114"/>
+      <c r="AY40" s="114"/>
       <c r="AZ40" s="2"/>
       <c r="BA40" s="2"/>
       <c r="BB40" s="2"/>
@@ -5932,9 +5974,7 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -5955,107 +5995,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="185" t="s">
+      <c r="F2" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="187"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="188" t="s">
+      <c r="F3" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="190"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="189"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="188"/>
-      <c r="G4" s="190"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="174"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="188" t="s">
+      <c r="C5" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="189"/>
+      <c r="D5" s="173"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="188" t="s">
+      <c r="F5" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="190"/>
+      <c r="G5" s="174"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="188" t="s">
+      <c r="C6" s="172" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="189"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="190"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="174"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="191" t="s">
+      <c r="B7" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="193"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="180"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="181"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="180"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="182"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="184"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="168"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -6256,10 +6296,10 @@
       <c r="B23" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="165" t="s">
+      <c r="C23" s="180" t="s">
         <v>168</v>
       </c>
-      <c r="D23" s="166"/>
+      <c r="D23" s="181"/>
       <c r="E23" s="67" t="s">
         <v>53</v>
       </c>
@@ -6300,12 +6340,12 @@
       <c r="C27" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="167" t="s">
+      <c r="D27" s="182" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="169"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="184"/>
     </row>
     <row r="28" spans="1:7" ht="19.5" thickBot="1">
       <c r="A28" s="60">
@@ -6317,12 +6357,12 @@
       <c r="C28" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="163" t="s">
+      <c r="D28" s="178" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="171"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="186"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" thickBot="1">
       <c r="A30" s="46" t="s">
@@ -6340,10 +6380,10 @@
         <v>50</v>
       </c>
       <c r="D31" s="65"/>
-      <c r="E31" s="174" t="s">
+      <c r="E31" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="175"/>
+      <c r="F31" s="190"/>
       <c r="G31" s="55" t="s">
         <v>63</v>
       </c>
@@ -6355,14 +6395,14 @@
       <c r="B32" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="C32" s="176" t="s">
+      <c r="C32" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="177"/>
-      <c r="E32" s="176" t="s">
+      <c r="D32" s="192"/>
+      <c r="E32" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="177"/>
+      <c r="F32" s="192"/>
       <c r="G32" s="76" t="s">
         <v>76</v>
       </c>
@@ -6374,14 +6414,14 @@
       <c r="B33" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="C33" s="196" t="s">
+      <c r="C33" s="195" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="197"/>
-      <c r="E33" s="196" t="s">
+      <c r="D33" s="196"/>
+      <c r="E33" s="195" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="197"/>
+      <c r="F33" s="196"/>
       <c r="G33" s="84" t="s">
         <v>153</v>
       </c>
@@ -6393,14 +6433,14 @@
       <c r="B34" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="163" t="s">
+      <c r="C34" s="178" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="164"/>
-      <c r="E34" s="163" t="s">
+      <c r="D34" s="179"/>
+      <c r="E34" s="178" t="s">
         <v>142</v>
       </c>
-      <c r="F34" s="164"/>
+      <c r="F34" s="179"/>
       <c r="G34" s="77" t="s">
         <v>139</v>
       </c>
@@ -6421,16 +6461,27 @@
         <v>50</v>
       </c>
       <c r="D37" s="74"/>
-      <c r="E37" s="172" t="s">
+      <c r="E37" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="173"/>
+      <c r="F37" s="188"/>
       <c r="G37" s="75" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -6443,17 +6494,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E37:F37"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6470,11 +6510,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -6495,107 +6533,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="185" t="s">
+      <c r="F2" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="187"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="188" t="s">
+      <c r="F3" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="190"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="189"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="188"/>
-      <c r="G4" s="190"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="174"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="188" t="s">
+      <c r="C5" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="189"/>
+      <c r="D5" s="173"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="188" t="s">
+      <c r="F5" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="190"/>
+      <c r="G5" s="174"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="188" t="s">
+      <c r="C6" s="172" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="189"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="190"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="174"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="191" t="s">
+      <c r="B7" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="193"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="180"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="181"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="180"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="182"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="184"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="168"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -6809,271 +6847,307 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A22" s="60">
+    <row r="22" spans="1:7">
+      <c r="A22" s="200">
         <v>9</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="201" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="201" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="100" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A24" s="46" t="s">
+      <c r="G22" s="203" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A23" s="60">
+        <v>9</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="204" t="s">
+        <v>224</v>
+      </c>
+      <c r="D23" s="204" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="204" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="205" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="206" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A25" s="46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="54" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C26" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="50" t="s">
+      <c r="D26" s="65"/>
+      <c r="E26" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F26" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G26" s="55" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75">
-      <c r="A26" s="56">
+    <row r="27" spans="1:7" ht="18.75">
+      <c r="A27" s="56">
         <v>1</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B27" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="167" t="s">
+      <c r="C27" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="198"/>
-      <c r="E26" s="57" t="s">
+      <c r="D27" s="197"/>
+      <c r="E27" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F27" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="76"/>
-    </row>
-    <row r="27" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A27" s="60">
+      <c r="G27" s="76"/>
+    </row>
+    <row r="28" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A28" s="60">
         <v>2</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B28" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="163" t="s">
+      <c r="C28" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="164"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61" t="s">
+      <c r="D28" s="179"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="77"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A29" s="46" t="s">
+      <c r="G28" s="77"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A30" s="46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="54" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B31" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C31" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D31" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="70"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.75">
-      <c r="A31" s="56">
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="70"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75">
+      <c r="A32" s="56">
         <v>1</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B32" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C32" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="167" t="s">
+      <c r="D32" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="169"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.75">
-      <c r="A32" s="78">
+      <c r="E32" s="183"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="184"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.75">
+      <c r="A33" s="78">
         <v>2</v>
       </c>
-      <c r="B32" s="79" t="s">
+      <c r="B33" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="79" t="s">
+      <c r="C33" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="196" t="s">
+      <c r="D33" s="195" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="199"/>
-      <c r="F32" s="199"/>
-      <c r="G32" s="200"/>
-    </row>
-    <row r="33" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A33" s="60">
+      <c r="E33" s="198"/>
+      <c r="F33" s="198"/>
+      <c r="G33" s="199"/>
+    </row>
+    <row r="34" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A34" s="60">
         <v>3</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B34" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C34" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="163" t="s">
+      <c r="D34" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="171"/>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A35" s="46" t="s">
+      <c r="E34" s="185"/>
+      <c r="F34" s="185"/>
+      <c r="G34" s="186"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A36" s="46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75">
-      <c r="A36" s="54" t="s">
+    <row r="37" spans="1:7" ht="18.75">
+      <c r="A37" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B37" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="C37" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="174" t="s">
+      <c r="D37" s="65"/>
+      <c r="E37" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="175"/>
-      <c r="G36" s="55" t="s">
+      <c r="F37" s="190"/>
+      <c r="G37" s="55" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A37" s="66">
+    <row r="38" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A38" s="66">
         <v>1</v>
       </c>
-      <c r="B37" s="67" t="s">
+      <c r="B38" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="194" t="s">
+      <c r="C38" s="193" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="195"/>
-      <c r="E37" s="194" t="s">
+      <c r="D38" s="194"/>
+      <c r="E38" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="195"/>
-      <c r="G37" s="68" t="s">
+      <c r="F38" s="194"/>
+      <c r="G38" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A39" s="46" t="s">
+    <row r="40" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A40" s="46" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18.75">
-      <c r="A40" s="54" t="s">
+    <row r="41" spans="1:7" ht="18.75">
+      <c r="A41" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B41" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="C41" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="174" t="s">
+      <c r="D41" s="65"/>
+      <c r="E41" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="175"/>
-      <c r="G40" s="55" t="s">
+      <c r="F41" s="190"/>
+      <c r="G41" s="55" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75">
-      <c r="A41" s="56">
+    <row r="42" spans="1:7" ht="18.75">
+      <c r="A42" s="56">
         <v>1</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B42" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="176" t="s">
+      <c r="C42" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="177"/>
-      <c r="E41" s="176" t="s">
+      <c r="D42" s="192"/>
+      <c r="E42" s="191" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="177"/>
-      <c r="G41" s="76" t="s">
+      <c r="F42" s="192"/>
+      <c r="G42" s="76" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A42" s="60">
+    <row r="43" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A43" s="60">
         <v>2</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B43" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="163" t="s">
+      <c r="C43" s="178" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="164"/>
-      <c r="E42" s="163" t="s">
+      <c r="D43" s="179"/>
+      <c r="E43" s="178" t="s">
         <v>149</v>
       </c>
-      <c r="F42" s="164"/>
-      <c r="G42" s="77" t="s">
+      <c r="F43" s="179"/>
+      <c r="G43" s="77" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -7086,19 +7160,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8721,7 +8782,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B2:B56"/>
+  <dimension ref="B2:B57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -8737,7 +8798,7 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -8782,192 +8843,197 @@
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="18" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="18" t="s">
-        <v>189</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="18" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="18" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="18" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="18" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="18" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="18" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="18" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="18" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="18" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="18" t="s">
-        <v>188</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="18" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -8982,7 +9048,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1"/>
@@ -8998,194 +9064,194 @@
   <sheetData>
     <row r="1" spans="2:52" ht="3" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:52" ht="13.5" customHeight="1" thickTop="1">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="133"/>
-      <c r="AG2" s="133"/>
-      <c r="AH2" s="133"/>
-      <c r="AI2" s="133"/>
-      <c r="AJ2" s="133"/>
-      <c r="AK2" s="133"/>
-      <c r="AL2" s="133"/>
-      <c r="AM2" s="133"/>
-      <c r="AN2" s="133"/>
-      <c r="AO2" s="133"/>
-      <c r="AP2" s="133"/>
-      <c r="AQ2" s="133"/>
-      <c r="AR2" s="133"/>
-      <c r="AS2" s="133"/>
-      <c r="AT2" s="133"/>
-      <c r="AU2" s="133"/>
-      <c r="AV2" s="133"/>
-      <c r="AW2" s="133"/>
-      <c r="AX2" s="133"/>
-      <c r="AY2" s="133"/>
-      <c r="AZ2" s="134"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="140"/>
+      <c r="AE2" s="140"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
+      <c r="AJ2" s="140"/>
+      <c r="AK2" s="140"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="140"/>
+      <c r="AS2" s="140"/>
+      <c r="AT2" s="140"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="140"/>
+      <c r="AW2" s="140"/>
+      <c r="AX2" s="140"/>
+      <c r="AY2" s="140"/>
+      <c r="AZ2" s="141"/>
     </row>
     <row r="3" spans="2:52" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="136"/>
-      <c r="AK3" s="136"/>
-      <c r="AL3" s="136"/>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="136"/>
-      <c r="AO3" s="136"/>
-      <c r="AP3" s="136"/>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="136"/>
-      <c r="AS3" s="136"/>
-      <c r="AT3" s="136"/>
-      <c r="AU3" s="136"/>
-      <c r="AV3" s="136"/>
-      <c r="AW3" s="136"/>
-      <c r="AX3" s="136"/>
-      <c r="AY3" s="136"/>
-      <c r="AZ3" s="137"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="143"/>
+      <c r="W3" s="143"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="143"/>
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="143"/>
+      <c r="AI3" s="143"/>
+      <c r="AJ3" s="143"/>
+      <c r="AK3" s="143"/>
+      <c r="AL3" s="143"/>
+      <c r="AM3" s="143"/>
+      <c r="AN3" s="143"/>
+      <c r="AO3" s="143"/>
+      <c r="AP3" s="143"/>
+      <c r="AQ3" s="143"/>
+      <c r="AR3" s="143"/>
+      <c r="AS3" s="143"/>
+      <c r="AT3" s="143"/>
+      <c r="AU3" s="143"/>
+      <c r="AV3" s="143"/>
+      <c r="AW3" s="143"/>
+      <c r="AX3" s="143"/>
+      <c r="AY3" s="143"/>
+      <c r="AZ3" s="144"/>
     </row>
     <row r="5" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="139"/>
-      <c r="D5" s="140" t="s">
+      <c r="C5" s="146"/>
+      <c r="D5" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="140" t="s">
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="140" t="s">
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="141"/>
-      <c r="T5" s="141"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="140" t="s">
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="148"/>
+      <c r="T5" s="148"/>
+      <c r="U5" s="149"/>
+      <c r="V5" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="141"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="141"/>
-      <c r="Z5" s="141"/>
-      <c r="AA5" s="141"/>
-      <c r="AB5" s="141"/>
-      <c r="AC5" s="141"/>
-      <c r="AD5" s="141"/>
-      <c r="AE5" s="141"/>
-      <c r="AF5" s="141"/>
-      <c r="AG5" s="141"/>
-      <c r="AH5" s="141"/>
-      <c r="AI5" s="141"/>
-      <c r="AJ5" s="141"/>
-      <c r="AK5" s="141"/>
-      <c r="AL5" s="141"/>
-      <c r="AM5" s="141"/>
-      <c r="AN5" s="141"/>
-      <c r="AO5" s="141"/>
-      <c r="AP5" s="141"/>
-      <c r="AQ5" s="141"/>
-      <c r="AR5" s="141"/>
-      <c r="AS5" s="141"/>
-      <c r="AT5" s="141"/>
-      <c r="AU5" s="141"/>
-      <c r="AV5" s="141"/>
-      <c r="AW5" s="141"/>
-      <c r="AX5" s="141"/>
-      <c r="AY5" s="141"/>
-      <c r="AZ5" s="142"/>
+      <c r="W5" s="148"/>
+      <c r="X5" s="148"/>
+      <c r="Y5" s="148"/>
+      <c r="Z5" s="148"/>
+      <c r="AA5" s="148"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
+      <c r="AD5" s="148"/>
+      <c r="AE5" s="148"/>
+      <c r="AF5" s="148"/>
+      <c r="AG5" s="148"/>
+      <c r="AH5" s="148"/>
+      <c r="AI5" s="148"/>
+      <c r="AJ5" s="148"/>
+      <c r="AK5" s="148"/>
+      <c r="AL5" s="148"/>
+      <c r="AM5" s="148"/>
+      <c r="AN5" s="148"/>
+      <c r="AO5" s="148"/>
+      <c r="AP5" s="148"/>
+      <c r="AQ5" s="148"/>
+      <c r="AR5" s="148"/>
+      <c r="AS5" s="148"/>
+      <c r="AT5" s="148"/>
+      <c r="AU5" s="148"/>
+      <c r="AV5" s="148"/>
+      <c r="AW5" s="148"/>
+      <c r="AX5" s="148"/>
+      <c r="AY5" s="148"/>
+      <c r="AZ5" s="149"/>
     </row>
     <row r="6" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B6" s="116">
+      <c r="B6" s="131">
         <f>MAX($B$5:B5)+1</f>
         <v>1</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="118">
+      <c r="C6" s="132"/>
+      <c r="D6" s="133">
         <v>43997</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121" t="s">
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="123"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="138"/>
       <c r="L6" s="5" t="s">
         <v>17</v>
       </c>
@@ -9233,23 +9299,23 @@
       <c r="AZ6" s="7"/>
     </row>
     <row r="7" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B7" s="124">
+      <c r="B7" s="123">
         <f>MAX($B$5:B6)+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="126">
+      <c r="C7" s="124"/>
+      <c r="D7" s="125">
         <v>43998</v>
       </c>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="129" t="s">
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="131"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="130"/>
       <c r="L7" s="8" t="s">
         <v>115</v>
       </c>
@@ -9297,23 +9363,23 @@
       <c r="AZ7" s="10"/>
     </row>
     <row r="8" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B8" s="124">
+      <c r="B8" s="123">
         <f>MAX($B$5:B7)+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="126">
+      <c r="C8" s="124"/>
+      <c r="D8" s="125">
         <v>43998</v>
       </c>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="129" t="s">
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="128" t="s">
         <v>176</v>
       </c>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="131"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="130"/>
       <c r="L8" s="8" t="s">
         <v>177</v>
       </c>
@@ -9361,19 +9427,19 @@
       <c r="AZ8" s="10"/>
     </row>
     <row r="9" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B9" s="124">
+      <c r="B9" s="123">
         <f>MAX($B$5:B8)+1</f>
         <v>4</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="131"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="130"/>
       <c r="L9" s="8"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -9417,19 +9483,19 @@
       <c r="AZ9" s="10"/>
     </row>
     <row r="10" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B10" s="124">
+      <c r="B10" s="123">
         <f>MAX($B$5:B9)+1</f>
         <v>5</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="131"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="130"/>
       <c r="L10" s="8"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -9473,19 +9539,19 @@
       <c r="AZ10" s="10"/>
     </row>
     <row r="11" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B11" s="124">
+      <c r="B11" s="123">
         <f>MAX($B$5:B10)+1</f>
         <v>6</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="131"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="130"/>
       <c r="L11" s="8"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -9529,19 +9595,19 @@
       <c r="AZ11" s="10"/>
     </row>
     <row r="12" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B12" s="124">
+      <c r="B12" s="123">
         <f>MAX($B$5:B11)+1</f>
         <v>7</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="131"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="130"/>
       <c r="L12" s="8"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -9585,19 +9651,19 @@
       <c r="AZ12" s="10"/>
     </row>
     <row r="13" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B13" s="124">
+      <c r="B13" s="123">
         <f>MAX($B$5:B12)+1</f>
         <v>8</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="131"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="130"/>
       <c r="L13" s="8"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -9641,19 +9707,19 @@
       <c r="AZ13" s="10"/>
     </row>
     <row r="14" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B14" s="124">
+      <c r="B14" s="123">
         <f>MAX($B$5:B13)+1</f>
         <v>9</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="131"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="130"/>
       <c r="L14" s="8"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -9697,19 +9763,19 @@
       <c r="AZ14" s="10"/>
     </row>
     <row r="15" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B15" s="124">
+      <c r="B15" s="123">
         <f>MAX($B$5:B14)+1</f>
         <v>10</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="131"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="130"/>
       <c r="L15" s="8"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -9753,19 +9819,19 @@
       <c r="AZ15" s="10"/>
     </row>
     <row r="16" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B16" s="124">
+      <c r="B16" s="123">
         <f>MAX($B$5:B15)+1</f>
         <v>11</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="131"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="130"/>
       <c r="L16" s="8"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -9809,19 +9875,19 @@
       <c r="AZ16" s="10"/>
     </row>
     <row r="17" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B17" s="124">
+      <c r="B17" s="123">
         <f>MAX($B$5:B16)+1</f>
         <v>12</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="131"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="130"/>
       <c r="L17" s="8"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -9865,19 +9931,19 @@
       <c r="AZ17" s="10"/>
     </row>
     <row r="18" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B18" s="124">
+      <c r="B18" s="123">
         <f>MAX($B$5:B17)+1</f>
         <v>13</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="131"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="130"/>
       <c r="L18" s="8"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -9921,19 +9987,19 @@
       <c r="AZ18" s="10"/>
     </row>
     <row r="19" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B19" s="124">
+      <c r="B19" s="123">
         <f>MAX($B$5:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="131"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="130"/>
       <c r="L19" s="8"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -9977,19 +10043,19 @@
       <c r="AZ19" s="10"/>
     </row>
     <row r="20" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B20" s="124">
+      <c r="B20" s="123">
         <f>MAX($B$5:B19)+1</f>
         <v>15</v>
       </c>
-      <c r="C20" s="125"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="131"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="130"/>
       <c r="L20" s="8"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -10033,19 +10099,19 @@
       <c r="AZ20" s="10"/>
     </row>
     <row r="21" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B21" s="124">
+      <c r="B21" s="123">
         <f>MAX($B$5:B20)+1</f>
         <v>16</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="131"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="130"/>
       <c r="L21" s="8"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -10089,19 +10155,19 @@
       <c r="AZ21" s="10"/>
     </row>
     <row r="22" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B22" s="124">
+      <c r="B22" s="123">
         <f>MAX($B$5:B21)+1</f>
         <v>17</v>
       </c>
-      <c r="C22" s="125"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="131"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="130"/>
       <c r="L22" s="8"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -10145,19 +10211,19 @@
       <c r="AZ22" s="10"/>
     </row>
     <row r="23" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B23" s="124">
+      <c r="B23" s="123">
         <f>MAX($B$5:B22)+1</f>
         <v>18</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="131"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="130"/>
       <c r="L23" s="8"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -10201,19 +10267,19 @@
       <c r="AZ23" s="10"/>
     </row>
     <row r="24" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B24" s="124">
+      <c r="B24" s="123">
         <f>MAX($B$5:B23)+1</f>
         <v>19</v>
       </c>
-      <c r="C24" s="125"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="131"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="130"/>
       <c r="L24" s="8"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -10257,19 +10323,19 @@
       <c r="AZ24" s="10"/>
     </row>
     <row r="25" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B25" s="124">
+      <c r="B25" s="123">
         <f>MAX($B$5:B24)+1</f>
         <v>20</v>
       </c>
-      <c r="C25" s="125"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="131"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="130"/>
       <c r="L25" s="8"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -10313,19 +10379,19 @@
       <c r="AZ25" s="10"/>
     </row>
     <row r="26" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B26" s="124">
+      <c r="B26" s="123">
         <f>MAX($B$5:B25)+1</f>
         <v>21</v>
       </c>
-      <c r="C26" s="125"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="131"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="130"/>
       <c r="L26" s="8"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -10369,19 +10435,19 @@
       <c r="AZ26" s="10"/>
     </row>
     <row r="27" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B27" s="124">
+      <c r="B27" s="123">
         <f>MAX($B$5:B26)+1</f>
         <v>22</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="131"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="130"/>
       <c r="L27" s="8"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -10425,19 +10491,19 @@
       <c r="AZ27" s="10"/>
     </row>
     <row r="28" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B28" s="124">
+      <c r="B28" s="123">
         <f>MAX($B$5:B27)+1</f>
         <v>23</v>
       </c>
-      <c r="C28" s="125"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="131"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="130"/>
       <c r="L28" s="8"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -10481,19 +10547,19 @@
       <c r="AZ28" s="10"/>
     </row>
     <row r="29" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B29" s="124">
+      <c r="B29" s="123">
         <f>MAX($B$5:B28)+1</f>
         <v>24</v>
       </c>
-      <c r="C29" s="125"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="131"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="130"/>
       <c r="L29" s="8"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -10537,19 +10603,19 @@
       <c r="AZ29" s="10"/>
     </row>
     <row r="30" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B30" s="124">
+      <c r="B30" s="123">
         <f>MAX($B$5:B29)+1</f>
         <v>25</v>
       </c>
-      <c r="C30" s="125"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="131"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="130"/>
       <c r="L30" s="8"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -10593,19 +10659,19 @@
       <c r="AZ30" s="10"/>
     </row>
     <row r="31" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B31" s="124">
+      <c r="B31" s="123">
         <f>MAX($B$5:B30)+1</f>
         <v>26</v>
       </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="131"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="130"/>
       <c r="L31" s="8"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -10649,19 +10715,19 @@
       <c r="AZ31" s="10"/>
     </row>
     <row r="32" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B32" s="124">
+      <c r="B32" s="123">
         <f>MAX($B$5:B31)+1</f>
         <v>27</v>
       </c>
-      <c r="C32" s="125"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="131"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="130"/>
       <c r="L32" s="8"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -10705,19 +10771,19 @@
       <c r="AZ32" s="10"/>
     </row>
     <row r="33" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B33" s="124">
+      <c r="B33" s="123">
         <f>MAX($B$5:B32)+1</f>
         <v>28</v>
       </c>
-      <c r="C33" s="125"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="131"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="130"/>
       <c r="L33" s="8"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -10761,19 +10827,19 @@
       <c r="AZ33" s="10"/>
     </row>
     <row r="34" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B34" s="124">
+      <c r="B34" s="123">
         <f>MAX($B$5:B33)+1</f>
         <v>29</v>
       </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="129"/>
-      <c r="I34" s="130"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="131"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="130"/>
       <c r="L34" s="8"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -10817,19 +10883,19 @@
       <c r="AZ34" s="10"/>
     </row>
     <row r="35" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B35" s="124">
+      <c r="B35" s="123">
         <f>MAX($B$5:B34)+1</f>
         <v>30</v>
       </c>
-      <c r="C35" s="125"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="130"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="131"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="130"/>
       <c r="L35" s="8"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -10873,19 +10939,19 @@
       <c r="AZ35" s="10"/>
     </row>
     <row r="36" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B36" s="124">
+      <c r="B36" s="123">
         <f>MAX($B$5:B35)+1</f>
         <v>31</v>
       </c>
-      <c r="C36" s="125"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="129"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="131"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="130"/>
       <c r="L36" s="8"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -10929,19 +10995,19 @@
       <c r="AZ36" s="10"/>
     </row>
     <row r="37" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B37" s="124">
+      <c r="B37" s="123">
         <f>MAX($B$5:B36)+1</f>
         <v>32</v>
       </c>
-      <c r="C37" s="125"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="130"/>
-      <c r="J37" s="130"/>
-      <c r="K37" s="131"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="129"/>
+      <c r="K37" s="130"/>
       <c r="L37" s="8"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -10985,19 +11051,19 @@
       <c r="AZ37" s="10"/>
     </row>
     <row r="38" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B38" s="124">
+      <c r="B38" s="123">
         <f>MAX($B$5:B37)+1</f>
         <v>33</v>
       </c>
-      <c r="C38" s="125"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="127"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="131"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="130"/>
       <c r="L38" s="8"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -11041,19 +11107,19 @@
       <c r="AZ38" s="10"/>
     </row>
     <row r="39" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B39" s="124">
+      <c r="B39" s="123">
         <f>MAX($B$5:B38)+1</f>
         <v>34</v>
       </c>
-      <c r="C39" s="125"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="131"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="130"/>
       <c r="L39" s="8"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -11097,19 +11163,19 @@
       <c r="AZ39" s="10"/>
     </row>
     <row r="40" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B40" s="124">
+      <c r="B40" s="123">
         <f>MAX($B$5:B39)+1</f>
         <v>35</v>
       </c>
-      <c r="C40" s="125"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="129"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="131"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="129"/>
+      <c r="J40" s="129"/>
+      <c r="K40" s="130"/>
       <c r="L40" s="8"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -11153,19 +11219,19 @@
       <c r="AZ40" s="10"/>
     </row>
     <row r="41" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B41" s="124">
+      <c r="B41" s="123">
         <f>MAX($B$5:B40)+1</f>
         <v>36</v>
       </c>
-      <c r="C41" s="125"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="130"/>
-      <c r="K41" s="131"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="129"/>
+      <c r="K41" s="130"/>
       <c r="L41" s="8"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -11209,19 +11275,19 @@
       <c r="AZ41" s="10"/>
     </row>
     <row r="42" spans="2:52" ht="13.5" customHeight="1">
-      <c r="B42" s="143">
+      <c r="B42" s="115">
         <f>MAX($B$5:B41)+1</f>
         <v>37</v>
       </c>
-      <c r="C42" s="144"/>
-      <c r="D42" s="145"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="150"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="121"/>
+      <c r="K42" s="122"/>
       <c r="L42" s="11"/>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
@@ -11266,15 +11332,102 @@
     </row>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="B2:AZ3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:U5"/>
+    <mergeCell ref="V5:AZ5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:K33"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="H38:K38"/>
@@ -11287,102 +11440,15 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:G37"/>
     <mergeCell ref="H37:K37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="B2:AZ3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:U5"/>
-    <mergeCell ref="V5:AZ5"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
@@ -11400,9 +11466,7 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -11540,7 +11604,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AX12" sqref="AX12"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1"/>
@@ -11553,129 +11617,129 @@
   <sheetData>
     <row r="1" spans="2:53" ht="3" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:53" ht="13.5" customHeight="1" thickTop="1">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="150" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+      <c r="AB2" s="151"/>
+      <c r="AC2" s="151"/>
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="151"/>
+      <c r="AG2" s="151"/>
+      <c r="AH2" s="151"/>
+      <c r="AI2" s="151"/>
+      <c r="AJ2" s="151"/>
+      <c r="AK2" s="152"/>
+      <c r="AL2" s="156" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="152"/>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="152"/>
-      <c r="AK2" s="153"/>
-      <c r="AL2" s="157" t="s">
+      <c r="AM2" s="156"/>
+      <c r="AN2" s="156"/>
+      <c r="AO2" s="156"/>
+      <c r="AP2" s="156"/>
+      <c r="AQ2" s="156"/>
+      <c r="AR2" s="157">
+        <v>43999</v>
+      </c>
+      <c r="AS2" s="157"/>
+      <c r="AT2" s="157"/>
+      <c r="AU2" s="157"/>
+      <c r="AV2" s="157"/>
+      <c r="AW2" s="157"/>
+      <c r="AX2" s="157"/>
+      <c r="AY2" s="157"/>
+      <c r="AZ2" s="157"/>
+      <c r="BA2" s="158"/>
+    </row>
+    <row r="3" spans="2:53" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="154"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="154"/>
+      <c r="U3" s="154"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="154"/>
+      <c r="Y3" s="154"/>
+      <c r="Z3" s="154"/>
+      <c r="AA3" s="154"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="154"/>
+      <c r="AE3" s="154"/>
+      <c r="AF3" s="154"/>
+      <c r="AG3" s="154"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="154"/>
+      <c r="AJ3" s="154"/>
+      <c r="AK3" s="155"/>
+      <c r="AL3" s="159" t="s">
         <v>219</v>
       </c>
-      <c r="AM2" s="157"/>
-      <c r="AN2" s="157"/>
-      <c r="AO2" s="157"/>
-      <c r="AP2" s="157"/>
-      <c r="AQ2" s="157"/>
-      <c r="AR2" s="158">
-        <v>43999</v>
-      </c>
-      <c r="AS2" s="158"/>
-      <c r="AT2" s="158"/>
-      <c r="AU2" s="158"/>
-      <c r="AV2" s="158"/>
-      <c r="AW2" s="158"/>
-      <c r="AX2" s="158"/>
-      <c r="AY2" s="158"/>
-      <c r="AZ2" s="158"/>
-      <c r="BA2" s="159"/>
-    </row>
-    <row r="3" spans="2:53" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="154"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="155"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="155"/>
-      <c r="AH3" s="155"/>
-      <c r="AI3" s="155"/>
-      <c r="AJ3" s="155"/>
-      <c r="AK3" s="156"/>
-      <c r="AL3" s="160" t="s">
+      <c r="AM3" s="159"/>
+      <c r="AN3" s="159"/>
+      <c r="AO3" s="159"/>
+      <c r="AP3" s="159"/>
+      <c r="AQ3" s="159"/>
+      <c r="AR3" s="160" t="s">
         <v>220</v>
       </c>
-      <c r="AM3" s="160"/>
-      <c r="AN3" s="160"/>
-      <c r="AO3" s="160"/>
-      <c r="AP3" s="160"/>
-      <c r="AQ3" s="160"/>
-      <c r="AR3" s="161" t="s">
-        <v>221</v>
-      </c>
-      <c r="AS3" s="161"/>
-      <c r="AT3" s="161"/>
-      <c r="AU3" s="161"/>
-      <c r="AV3" s="161"/>
-      <c r="AW3" s="161"/>
-      <c r="AX3" s="161"/>
-      <c r="AY3" s="161"/>
-      <c r="AZ3" s="161"/>
-      <c r="BA3" s="162"/>
+      <c r="AS3" s="160"/>
+      <c r="AT3" s="160"/>
+      <c r="AU3" s="160"/>
+      <c r="AV3" s="160"/>
+      <c r="AW3" s="160"/>
+      <c r="AX3" s="160"/>
+      <c r="AY3" s="160"/>
+      <c r="AZ3" s="160"/>
+      <c r="BA3" s="161"/>
     </row>
     <row r="4" spans="2:53" ht="13.5" customHeight="1" thickTop="1">
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="2:53" ht="13.5" customHeight="1">
       <c r="B5" s="85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C5" s="86"/>
       <c r="D5" s="86"/>
@@ -13557,107 +13621,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="185" t="s">
+      <c r="F2" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="187"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="188" t="s">
+      <c r="F3" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="190"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="189"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="188"/>
-      <c r="G4" s="190"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="174"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="188" t="s">
+      <c r="C5" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="189"/>
+      <c r="D5" s="173"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="188" t="s">
+      <c r="F5" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="190"/>
+      <c r="G5" s="174"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="188" t="s">
+      <c r="C6" s="172" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="189"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="190"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="174"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="191" t="s">
+      <c r="B7" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="193"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="180"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="181"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="180"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="182"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="184"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="168"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -13766,10 +13830,10 @@
       <c r="B19" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="165" t="s">
+      <c r="C19" s="180" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="166"/>
+      <c r="D19" s="181"/>
       <c r="E19" s="67" t="s">
         <v>53</v>
       </c>
@@ -13810,12 +13874,12 @@
       <c r="C23" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="167" t="s">
+      <c r="D23" s="182" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="169"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="184"/>
     </row>
     <row r="24" spans="1:7" ht="19.5" thickBot="1">
       <c r="A24" s="60">
@@ -13827,12 +13891,12 @@
       <c r="C24" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="163" t="s">
+      <c r="D24" s="178" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="171"/>
+      <c r="E24" s="185"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="186"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" thickBot="1">
       <c r="A26" s="46" t="s">
@@ -13850,10 +13914,10 @@
         <v>50</v>
       </c>
       <c r="D27" s="74"/>
-      <c r="E27" s="172" t="s">
+      <c r="E27" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="173"/>
+      <c r="F27" s="188"/>
       <c r="G27" s="75" t="s">
         <v>63</v>
       </c>
@@ -13874,10 +13938,10 @@
         <v>50</v>
       </c>
       <c r="D30" s="65"/>
-      <c r="E30" s="174" t="s">
+      <c r="E30" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="175"/>
+      <c r="F30" s="190"/>
       <c r="G30" s="55" t="s">
         <v>66</v>
       </c>
@@ -13889,14 +13953,14 @@
       <c r="B31" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="C31" s="176" t="s">
+      <c r="C31" s="191" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="177"/>
-      <c r="E31" s="176" t="s">
+      <c r="D31" s="192"/>
+      <c r="E31" s="191" t="s">
         <v>149</v>
       </c>
-      <c r="F31" s="177"/>
+      <c r="F31" s="192"/>
       <c r="G31" s="76" t="s">
         <v>153</v>
       </c>
@@ -13908,20 +13972,29 @@
       <c r="B32" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="163" t="s">
+      <c r="C32" s="178" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="164"/>
-      <c r="E32" s="163" t="s">
+      <c r="D32" s="179"/>
+      <c r="E32" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="164"/>
+      <c r="F32" s="179"/>
       <c r="G32" s="77" t="s">
         <v>153</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -13934,15 +14007,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13961,9 +14025,7 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -13984,107 +14046,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="185" t="s">
+      <c r="F2" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="187"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="188" t="s">
+      <c r="F3" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="190"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="189"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="188"/>
-      <c r="G4" s="190"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="174"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="188" t="s">
+      <c r="C5" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="189"/>
+      <c r="D5" s="173"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="188" t="s">
+      <c r="F5" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="190"/>
+      <c r="G5" s="174"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="188" t="s">
+      <c r="C6" s="172" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="189"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="190"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="174"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="191" t="s">
+      <c r="B7" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="193"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="180"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="181"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="180"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="182"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="184"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="168"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -14157,7 +14219,7 @@
         <v>35</v>
       </c>
       <c r="G15" s="81" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -14308,10 +14370,10 @@
       <c r="B24" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="165" t="s">
+      <c r="C24" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="166"/>
+      <c r="D24" s="181"/>
       <c r="E24" s="67" t="s">
         <v>53</v>
       </c>
@@ -14352,12 +14414,12 @@
       <c r="C28" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="167" t="s">
+      <c r="D28" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="169"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="184"/>
     </row>
     <row r="29" spans="1:7" ht="19.5" thickBot="1">
       <c r="A29" s="60">
@@ -14369,12 +14431,12 @@
       <c r="C29" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="163" t="s">
+      <c r="D29" s="178" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="171"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="186"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" thickBot="1">
       <c r="A31" s="46" t="s">
@@ -14392,10 +14454,10 @@
         <v>50</v>
       </c>
       <c r="D32" s="65"/>
-      <c r="E32" s="174" t="s">
+      <c r="E32" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="175"/>
+      <c r="F32" s="190"/>
       <c r="G32" s="55" t="s">
         <v>63</v>
       </c>
@@ -14407,14 +14469,14 @@
       <c r="B33" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="194" t="s">
+      <c r="C33" s="193" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="195"/>
-      <c r="E33" s="194" t="s">
+      <c r="D33" s="194"/>
+      <c r="E33" s="193" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="195"/>
+      <c r="F33" s="194"/>
       <c r="G33" s="68" t="s">
         <v>153</v>
       </c>
@@ -14435,10 +14497,10 @@
         <v>50</v>
       </c>
       <c r="D36" s="65"/>
-      <c r="E36" s="174" t="s">
+      <c r="E36" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="175"/>
+      <c r="F36" s="190"/>
       <c r="G36" s="55" t="s">
         <v>66</v>
       </c>
@@ -14450,20 +14512,29 @@
       <c r="B37" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="194" t="s">
+      <c r="C37" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="195"/>
-      <c r="E37" s="194" t="s">
+      <c r="D37" s="194"/>
+      <c r="E37" s="193" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="195"/>
+      <c r="F37" s="194"/>
       <c r="G37" s="68" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -14476,15 +14547,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14503,9 +14565,7 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -14526,107 +14586,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="185" t="s">
+      <c r="F2" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="187"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="188" t="s">
+      <c r="F3" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="190"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="189"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="188"/>
-      <c r="G4" s="190"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="174"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="188" t="s">
+      <c r="C5" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="189"/>
+      <c r="D5" s="173"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="188" t="s">
+      <c r="F5" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="190"/>
+      <c r="G5" s="174"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="188" t="s">
+      <c r="C6" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="189"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="190"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="174"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="191" t="s">
+      <c r="B7" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="193"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="180"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="181"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="180"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="182"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="184"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="168"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -14789,10 +14849,10 @@
         <v>50</v>
       </c>
       <c r="D25" s="65"/>
-      <c r="E25" s="174" t="s">
+      <c r="E25" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="175"/>
+      <c r="F25" s="190"/>
       <c r="G25" s="55" t="s">
         <v>63</v>
       </c>
@@ -14804,14 +14864,14 @@
       <c r="B26" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="176" t="s">
+      <c r="C26" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="177"/>
-      <c r="E26" s="176" t="s">
+      <c r="D26" s="192"/>
+      <c r="E26" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="177"/>
+      <c r="F26" s="192"/>
       <c r="G26" s="76" t="s">
         <v>76</v>
       </c>
@@ -14823,14 +14883,14 @@
       <c r="B27" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="163" t="s">
+      <c r="C27" s="178" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="164"/>
-      <c r="E27" s="163" t="s">
+      <c r="D27" s="179"/>
+      <c r="E27" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="164"/>
+      <c r="F27" s="179"/>
       <c r="G27" s="77" t="s">
         <v>68</v>
       </c>
@@ -14851,22 +14911,16 @@
         <v>50</v>
       </c>
       <c r="D30" s="74"/>
-      <c r="E30" s="172" t="s">
+      <c r="E30" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="173"/>
+      <c r="F30" s="188"/>
       <c r="G30" s="75" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
@@ -14879,6 +14933,12 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14897,9 +14957,7 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -14920,107 +14978,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="185" t="s">
+      <c r="F2" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="187"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="188" t="s">
+      <c r="F3" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="190"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="189"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="188"/>
-      <c r="G4" s="190"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="174"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="188" t="s">
+      <c r="C5" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="189"/>
+      <c r="D5" s="173"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="188" t="s">
+      <c r="F5" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="190"/>
+      <c r="G5" s="174"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="188" t="s">
+      <c r="C6" s="172" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="189"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="190"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="174"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="191" t="s">
+      <c r="B7" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="193"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="180"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="181"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="180"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="182"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="184"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="168"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -15152,10 +15210,10 @@
       <c r="B20" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="165" t="s">
+      <c r="C20" s="180" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="166"/>
+      <c r="D20" s="181"/>
       <c r="E20" s="67" t="s">
         <v>53</v>
       </c>
@@ -15196,12 +15254,12 @@
       <c r="C24" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="167" t="s">
+      <c r="D24" s="182" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="168"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="169"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="184"/>
     </row>
     <row r="25" spans="1:7" ht="19.5" thickBot="1">
       <c r="A25" s="60">
@@ -15213,12 +15271,12 @@
       <c r="C25" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="163" t="s">
+      <c r="D25" s="178" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="171"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="186"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" thickBot="1">
       <c r="A27" s="46" t="s">
@@ -15236,10 +15294,10 @@
         <v>50</v>
       </c>
       <c r="D28" s="74"/>
-      <c r="E28" s="172" t="s">
+      <c r="E28" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="173"/>
+      <c r="F28" s="188"/>
       <c r="G28" s="75" t="s">
         <v>63</v>
       </c>
@@ -15260,10 +15318,10 @@
         <v>50</v>
       </c>
       <c r="D31" s="65"/>
-      <c r="E31" s="174" t="s">
+      <c r="E31" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="175"/>
+      <c r="F31" s="190"/>
       <c r="G31" s="55" t="s">
         <v>66</v>
       </c>
@@ -15275,26 +15333,20 @@
       <c r="B32" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="194" t="s">
+      <c r="C32" s="193" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="195"/>
-      <c r="E32" s="194" t="s">
+      <c r="D32" s="194"/>
+      <c r="E32" s="193" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="195"/>
+      <c r="F32" s="194"/>
       <c r="G32" s="68" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C5:D5"/>
@@ -15308,6 +15360,12 @@
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15326,9 +15384,7 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -15349,107 +15405,107 @@
       <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="185" t="s">
+      <c r="F2" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="187"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
       <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="188" t="s">
+      <c r="F3" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="190"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="189"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="188"/>
-      <c r="G4" s="190"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="174"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="188" t="s">
+      <c r="C5" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="189"/>
+      <c r="D5" s="173"/>
       <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="188" t="s">
+      <c r="F5" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="190"/>
+      <c r="G5" s="174"/>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="188" t="s">
+      <c r="C6" s="172" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="189"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="190"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="174"/>
     </row>
     <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="191" t="s">
+      <c r="B7" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="193"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="180"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="181"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="180"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B10" s="182"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="184"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="168"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1">
       <c r="A12" s="46" t="s">
@@ -15581,10 +15637,10 @@
       <c r="B20" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="165" t="s">
+      <c r="C20" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="166"/>
+      <c r="D20" s="181"/>
       <c r="E20" s="67" t="s">
         <v>53</v>
       </c>
@@ -15625,12 +15681,12 @@
       <c r="C24" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="167" t="s">
+      <c r="D24" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="168"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="169"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="184"/>
     </row>
     <row r="25" spans="1:7" ht="19.5" thickBot="1">
       <c r="A25" s="60">
@@ -15642,12 +15698,12 @@
       <c r="C25" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="163" t="s">
+      <c r="D25" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="171"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="186"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" thickBot="1">
       <c r="A27" s="46" t="s">
@@ -15665,10 +15721,10 @@
         <v>50</v>
       </c>
       <c r="D28" s="74"/>
-      <c r="E28" s="172" t="s">
+      <c r="E28" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="173"/>
+      <c r="F28" s="188"/>
       <c r="G28" s="75" t="s">
         <v>63</v>
       </c>
@@ -15689,10 +15745,10 @@
         <v>50</v>
       </c>
       <c r="D31" s="65"/>
-      <c r="E31" s="174" t="s">
+      <c r="E31" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="175"/>
+      <c r="F31" s="190"/>
       <c r="G31" s="55" t="s">
         <v>66</v>
       </c>
@@ -15704,26 +15760,20 @@
       <c r="B32" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="194" t="s">
+      <c r="C32" s="193" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="195"/>
-      <c r="E32" s="194" t="s">
+      <c r="D32" s="194"/>
+      <c r="E32" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="195"/>
+      <c r="F32" s="194"/>
       <c r="G32" s="68" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C5:D5"/>
@@ -15737,6 +15787,12 @@
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
